--- a/tourney_results.xlsx
+++ b/tourney_results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="0" windowWidth="20260" windowHeight="14740"/>
@@ -10,7 +10,6 @@
     <sheet name="results" sheetId="2" r:id="rId1"/>
     <sheet name="teams" sheetId="4" r:id="rId2"/>
     <sheet name="slot_results" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="224">
   <si>
     <t>#1 Villanova</t>
   </si>
@@ -700,168 +699,6 @@
   </si>
   <si>
     <t>team2</t>
-  </si>
-  <si>
-    <t>2015_1214_1264</t>
-  </si>
-  <si>
-    <t>2015_1140_1279</t>
-  </si>
-  <si>
-    <t>2015_1129_1173</t>
-  </si>
-  <si>
-    <t>2015_1316_1352</t>
-  </si>
-  <si>
-    <t>2015_1248_1437</t>
-  </si>
-  <si>
-    <t>2015_1261_1301</t>
-  </si>
-  <si>
-    <t>2015_1235_1412</t>
-  </si>
-  <si>
-    <t>2015_1186_1207</t>
-  </si>
-  <si>
-    <t>2015_1372_1428</t>
-  </si>
-  <si>
-    <t>2015_1374_1417</t>
-  </si>
-  <si>
-    <t>2015_1214_1246</t>
-  </si>
-  <si>
-    <t>2015_1318_1323</t>
-  </si>
-  <si>
-    <t>2015_1139_1400</t>
-  </si>
-  <si>
-    <t>2015_1153_1345</t>
-  </si>
-  <si>
-    <t>2015_1112_1411</t>
-  </si>
-  <si>
-    <t>2015_1124_1209</t>
-  </si>
-  <si>
-    <t>2015_1217_1314</t>
-  </si>
-  <si>
-    <t>2015_1116_1459</t>
-  </si>
-  <si>
-    <t>2015_1279_1462</t>
-  </si>
-  <si>
-    <t>2015_1326_1433</t>
-  </si>
-  <si>
-    <t>2015_1125_1438</t>
-  </si>
-  <si>
-    <t>2015_1107_1328</t>
-  </si>
-  <si>
-    <t>2015_1257_1414</t>
-  </si>
-  <si>
-    <t>2015_1320_1461</t>
-  </si>
-  <si>
-    <t>2015_1173_1344</t>
-  </si>
-  <si>
-    <t>2015_1208_1277</t>
-  </si>
-  <si>
-    <t>2015_1181_1352</t>
-  </si>
-  <si>
-    <t>2015_1211_1295</t>
-  </si>
-  <si>
-    <t>2015_1172_1234</t>
-  </si>
-  <si>
-    <t>2015_1361_1385</t>
-  </si>
-  <si>
-    <t>2015_1242_1308</t>
-  </si>
-  <si>
-    <t>2015_1268_1434</t>
-  </si>
-  <si>
-    <t>2015_1138_1452</t>
-  </si>
-  <si>
-    <t>2015_1231_1455</t>
-  </si>
-  <si>
-    <t>2015_1157_1458</t>
-  </si>
-  <si>
-    <t>2015_1329_1332</t>
-  </si>
-  <si>
-    <t>2015_1301_1437</t>
-  </si>
-  <si>
-    <t>2015_1412_1417</t>
-  </si>
-  <si>
-    <t>2015_1207_1428</t>
-  </si>
-  <si>
-    <t>2015_1153_1246</t>
-  </si>
-  <si>
-    <t>2015_1139_1323</t>
-  </si>
-  <si>
-    <t>2015_1112_1326</t>
-  </si>
-  <si>
-    <t>2015_1209_1462</t>
-  </si>
-  <si>
-    <t>2015_1116_1314</t>
-  </si>
-  <si>
-    <t>2015_1277_1438</t>
-  </si>
-  <si>
-    <t>2015_1173_1328</t>
-  </si>
-  <si>
-    <t>2015_1257_1320</t>
-  </si>
-  <si>
-    <t>2015_1181_1361</t>
-  </si>
-  <si>
-    <t>2015_1211_1234</t>
-  </si>
-  <si>
-    <t>2015_1242_1455</t>
-  </si>
-  <si>
-    <t>2015_1268_1452</t>
-  </si>
-  <si>
-    <t>2015_1332_1458</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2015_1112_1462</t>
   </si>
 </sst>
 </file>
@@ -1648,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8438,777 +8275,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C46" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C49" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C50" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C51" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C52" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C53" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C54" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C55" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C56" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C57" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C58" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C59" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C61" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C62" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C63" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C64" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C65" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C66" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C67" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C68" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/tourney_results.xlsx
+++ b/tourney_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="20260" windowHeight="14740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4046,10 +4046,12 @@
         <f>IF(G52=1,E52,IF(G52=2,F52,"(not known yet)"))</f>
         <v>#5 West Virginia</v>
       </c>
-      <c r="G54" s="23"/>
+      <c r="G54" s="21">
+        <v>1</v>
+      </c>
       <c r="H54" s="34" t="str">
         <f>IF(G54=1,E54,IF(G54=2,F54,""))</f>
-        <v/>
+        <v>#1 Kentucky</v>
       </c>
       <c r="J54" s="6">
         <f>IFERROR(VLOOKUP(E54,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4069,7 +4071,7 @@
       </c>
       <c r="O54" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1" ht="13">
@@ -4093,10 +4095,12 @@
         <f>IF(G42=1,E42,IF(G42=2,F42,"(not known yet)"))</f>
         <v>#3 Notre Dame</v>
       </c>
-      <c r="G55" s="7"/>
+      <c r="G55" s="15">
+        <v>2</v>
+      </c>
       <c r="H55" s="30" t="str">
         <f>IF(G55=1,E55,IF(G55=2,F55,""))</f>
-        <v/>
+        <v>#3 Notre Dame</v>
       </c>
       <c r="J55" s="6">
         <f>IFERROR(VLOOKUP(E55,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4116,7 +4120,7 @@
       </c>
       <c r="O55" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="6" customFormat="1" ht="13">
@@ -4140,10 +4144,12 @@
         <f>IF(G45=1,E45,IF(G45=2,F45,"(not known yet)"))</f>
         <v>#4 North Carolina</v>
       </c>
-      <c r="G56" s="7"/>
+      <c r="G56" s="15">
+        <v>1</v>
+      </c>
       <c r="H56" s="30" t="str">
         <f>IF(G56=1,E56,IF(G56=2,F56,""))</f>
-        <v/>
+        <v>#1 Wisconsin</v>
       </c>
       <c r="J56" s="6">
         <f>IFERROR(VLOOKUP(E56,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4163,7 +4169,7 @@
       </c>
       <c r="O56" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="6" customFormat="1" ht="13">
@@ -4187,10 +4193,12 @@
         <f>IF(G44=1,E44,IF(G44=2,F44,"(not known yet)"))</f>
         <v>#6 Xavier</v>
       </c>
-      <c r="G57" s="7"/>
+      <c r="G57" s="15">
+        <v>1</v>
+      </c>
       <c r="H57" s="30" t="str">
         <f>IF(G57=1,E57,IF(G57=2,F57,""))</f>
-        <v/>
+        <v>#2 Arizona</v>
       </c>
       <c r="J57" s="6">
         <f>IFERROR(VLOOKUP(E57,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4210,7 +4218,7 @@
       </c>
       <c r="O57" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="6" customFormat="1" ht="13">
@@ -4234,10 +4242,12 @@
         <f>IF(G48=1,E48,IF(G48=2,F48,"(not known yet)"))</f>
         <v>#4 Louisville</v>
       </c>
-      <c r="G58" s="7"/>
+      <c r="G58" s="15">
+        <v>2</v>
+      </c>
       <c r="H58" s="30" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#4 Louisville</v>
       </c>
       <c r="J58" s="6">
         <f>IFERROR(VLOOKUP(E58,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4257,7 +4267,7 @@
       </c>
       <c r="O58" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="6" customFormat="1" ht="13">
@@ -4281,10 +4291,12 @@
         <f>IF(G47=1,E47,IF(G47=2,F47,"(not known yet)"))</f>
         <v>#3 Oklahoma</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="15">
+        <v>1</v>
+      </c>
       <c r="H59" s="30" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#7 Michigan St</v>
       </c>
       <c r="J59" s="6">
         <f>IFERROR(VLOOKUP(E59,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4304,7 +4316,7 @@
       </c>
       <c r="O59" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="6" customFormat="1" ht="13">
@@ -4328,10 +4340,12 @@
         <f>IF(G40=1,E40,IF(G40=2,F40,"(not known yet)"))</f>
         <v>#5 Utah</v>
       </c>
-      <c r="G60" s="7"/>
+      <c r="G60" s="15">
+        <v>1</v>
+      </c>
       <c r="H60" s="30" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#1 Duke</v>
       </c>
       <c r="J60" s="6">
         <f>IFERROR(VLOOKUP(E60,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4351,7 +4365,7 @@
       </c>
       <c r="O60" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
@@ -4375,10 +4389,12 @@
         <f>IF(G39=1,E39,IF(G39=2,F39,"(not known yet)"))</f>
         <v>#11 UCLA</v>
       </c>
-      <c r="G61" s="22"/>
+      <c r="G61" s="18">
+        <v>1</v>
+      </c>
       <c r="H61" s="32" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#2 Gonzaga</v>
       </c>
       <c r="J61" s="6">
         <f>IFERROR(VLOOKUP(E61,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4398,7 +4414,7 @@
       </c>
       <c r="O61" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="6" customFormat="1" ht="13">
@@ -4416,24 +4432,24 @@
       </c>
       <c r="E62" s="20" t="str">
         <f>IF(G54=1,E54,IF(G54=2,F54,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <v>#1 Kentucky</v>
       </c>
       <c r="F62" s="20" t="str">
         <f>IF(G55=1,E55,IF(G55=2,F55,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <v>#3 Notre Dame</v>
       </c>
       <c r="G62" s="23"/>
       <c r="H62" s="34" t="str">
         <f>IF(G62=1,E62,IF(G62=2,F62,""))</f>
         <v/>
       </c>
-      <c r="J62" s="6" t="str">
+      <c r="J62" s="6">
         <f>IFERROR(VLOOKUP(E62,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K62" s="6" t="str">
+        <v>1246</v>
+      </c>
+      <c r="K62" s="6">
         <f>IFERROR(VLOOKUP(F62,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
+        <v>1323</v>
       </c>
       <c r="M62" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4441,7 +4457,7 @@
       </c>
       <c r="N62" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2015_1246_1323</v>
       </c>
       <c r="O62" s="6">
         <f t="shared" si="2"/>
@@ -4463,24 +4479,24 @@
       </c>
       <c r="E63" s="5" t="str">
         <f>IF(G56=1,E56,IF(G56=2,F56,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <v>#1 Wisconsin</v>
       </c>
       <c r="F63" s="5" t="str">
         <f>IF(G57=1,E57,IF(G57=2,F57,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <v>#2 Arizona</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="30" t="str">
         <f>IF(G63=1,E63,IF(G63=2,F63,""))</f>
         <v/>
       </c>
-      <c r="J63" s="6" t="str">
+      <c r="J63" s="6">
         <f>IFERROR(VLOOKUP(E63,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K63" s="6" t="str">
+        <v>1458</v>
+      </c>
+      <c r="K63" s="6">
         <f>IFERROR(VLOOKUP(F63,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
+        <v>1112</v>
       </c>
       <c r="M63" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4488,7 +4504,7 @@
       </c>
       <c r="N63" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2015_1112_1458</v>
       </c>
       <c r="O63" s="6">
         <f t="shared" si="2"/>
@@ -4510,24 +4526,24 @@
       </c>
       <c r="E64" s="5" t="str">
         <f>IF(G58=1,E58,IF(G58=2,F58,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <v>#4 Louisville</v>
       </c>
       <c r="F64" s="5" t="str">
         <f>IF(G59=1,E59,IF(G59=2,F59,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <v>#7 Michigan St</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J64" s="6" t="str">
+      <c r="J64" s="6">
         <f>IFERROR(VLOOKUP(E64,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K64" s="6" t="str">
+        <v>1257</v>
+      </c>
+      <c r="K64" s="6">
         <f>IFERROR(VLOOKUP(F64,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
+        <v>1277</v>
       </c>
       <c r="M64" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4535,7 +4551,7 @@
       </c>
       <c r="N64" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2015_1257_1277</v>
       </c>
       <c r="O64" s="6">
         <f t="shared" si="2"/>
@@ -4557,24 +4573,24 @@
       </c>
       <c r="E65" s="17" t="str">
         <f>IF(G60=1,E60,IF(G60=2,F60,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <v>#1 Duke</v>
       </c>
       <c r="F65" s="17" t="str">
         <f>IF(G61=1,E61,IF(G61=2,F61,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <v>#2 Gonzaga</v>
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J65" s="6" t="str">
+      <c r="J65" s="6">
         <f>IFERROR(VLOOKUP(E65,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K65" s="6" t="str">
+        <v>1181</v>
+      </c>
+      <c r="K65" s="6">
         <f>IFERROR(VLOOKUP(F65,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
+        <v>1211</v>
       </c>
       <c r="M65" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4582,7 +4598,7 @@
       </c>
       <c r="N65" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2015_1181_1211</v>
       </c>
       <c r="O65" s="6">
         <f t="shared" si="2"/>
@@ -7762,33 +7778,33 @@
         <f>results!B58</f>
         <v>R3W1</v>
       </c>
-      <c r="B54" s="13" t="str">
+      <c r="B54" s="13">
         <f>IF(results!G58=1,VLOOKUP(results!E58,teams!A$2:C$69,3,FALSE),IF(results!G58=2,VLOOKUP(results!F58,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1257</v>
       </c>
       <c r="C54" s="14" t="str">
         <f>IF(results!G58=1,VLOOKUP(results!E58,teams!A$2:C$69,1,FALSE),IF(results!G58=2,VLOOKUP(results!F58,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D54" s="13" t="str">
+        <v>#4 Louisville</v>
+      </c>
+      <c r="D54" s="13">
         <f>IF(results!G58=2,VLOOKUP(results!E58,teams!A$2:C$69,3,FALSE),IF(results!G58=1,VLOOKUP(results!F58,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1301</v>
       </c>
       <c r="E54" s="14" t="str">
         <f>IF(results!G58=2,VLOOKUP(results!E58,teams!A$2:C$69,1,FALSE),IF(results!G58=1,VLOOKUP(results!F58,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#8 NC State</v>
       </c>
       <c r="F54" s="14" t="str">
         <f>IF(B54=D54,"",IF(B54&lt;D54,"2015_"&amp;B54&amp;"_"&amp;D54,"2015_"&amp;D54&amp;"_"&amp;B54))</f>
-        <v/>
+        <v>2015_1257_1301</v>
       </c>
       <c r="G54" s="14" t="str">
         <f>IF(B54=D54,"",IF(B54&lt;D54,"1","0"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H54" s="14" t="str">
         <f>IF(B54=D54,"",IF(B54&lt;D54,"2015_"&amp;B54&amp;"_"&amp;D54&amp;",1","2015_"&amp;D54&amp;"_"&amp;B54&amp;",0"))</f>
-        <v/>
+        <v>2015_1257_1301,1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7796,33 +7812,33 @@
         <f>results!B59</f>
         <v>R3W2</v>
       </c>
-      <c r="B55" s="13" t="str">
+      <c r="B55" s="13">
         <f>IF(results!G59=1,VLOOKUP(results!E59,teams!A$2:C$69,3,FALSE),IF(results!G59=2,VLOOKUP(results!F59,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1277</v>
       </c>
       <c r="C55" s="14" t="str">
         <f>IF(results!G59=1,VLOOKUP(results!E59,teams!A$2:C$69,1,FALSE),IF(results!G59=2,VLOOKUP(results!F59,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D55" s="13" t="str">
+        <v>#7 Michigan St</v>
+      </c>
+      <c r="D55" s="13">
         <f>IF(results!G59=2,VLOOKUP(results!E59,teams!A$2:C$69,3,FALSE),IF(results!G59=1,VLOOKUP(results!F59,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1328</v>
       </c>
       <c r="E55" s="14" t="str">
         <f>IF(results!G59=2,VLOOKUP(results!E59,teams!A$2:C$69,1,FALSE),IF(results!G59=1,VLOOKUP(results!F59,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#3 Oklahoma</v>
       </c>
       <c r="F55" s="14" t="str">
         <f>IF(B55=D55,"",IF(B55&lt;D55,"2015_"&amp;B55&amp;"_"&amp;D55,"2015_"&amp;D55&amp;"_"&amp;B55))</f>
-        <v/>
+        <v>2015_1277_1328</v>
       </c>
       <c r="G55" s="14" t="str">
         <f>IF(B55=D55,"",IF(B55&lt;D55,"1","0"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H55" s="14" t="str">
         <f>IF(B55=D55,"",IF(B55&lt;D55,"2015_"&amp;B55&amp;"_"&amp;D55&amp;",1","2015_"&amp;D55&amp;"_"&amp;B55&amp;",0"))</f>
-        <v/>
+        <v>2015_1277_1328,1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7830,33 +7846,33 @@
         <f>results!B60</f>
         <v>R3X1</v>
       </c>
-      <c r="B56" s="13" t="str">
+      <c r="B56" s="13">
         <f>IF(results!G60=1,VLOOKUP(results!E60,teams!A$2:C$69,3,FALSE),IF(results!G60=2,VLOOKUP(results!F60,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1181</v>
       </c>
       <c r="C56" s="14" t="str">
         <f>IF(results!G60=1,VLOOKUP(results!E60,teams!A$2:C$69,1,FALSE),IF(results!G60=2,VLOOKUP(results!F60,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D56" s="13" t="str">
+        <v>#1 Duke</v>
+      </c>
+      <c r="D56" s="13">
         <f>IF(results!G60=2,VLOOKUP(results!E60,teams!A$2:C$69,3,FALSE),IF(results!G60=1,VLOOKUP(results!F60,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1428</v>
       </c>
       <c r="E56" s="14" t="str">
         <f>IF(results!G60=2,VLOOKUP(results!E60,teams!A$2:C$69,1,FALSE),IF(results!G60=1,VLOOKUP(results!F60,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#5 Utah</v>
       </c>
       <c r="F56" s="14" t="str">
         <f>IF(B56=D56,"",IF(B56&lt;D56,"2015_"&amp;B56&amp;"_"&amp;D56,"2015_"&amp;D56&amp;"_"&amp;B56))</f>
-        <v/>
+        <v>2015_1181_1428</v>
       </c>
       <c r="G56" s="14" t="str">
         <f>IF(B56=D56,"",IF(B56&lt;D56,"1","0"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H56" s="14" t="str">
         <f>IF(B56=D56,"",IF(B56&lt;D56,"2015_"&amp;B56&amp;"_"&amp;D56&amp;",1","2015_"&amp;D56&amp;"_"&amp;B56&amp;",0"))</f>
-        <v/>
+        <v>2015_1181_1428,1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7864,33 +7880,33 @@
         <f>results!B61</f>
         <v>R3X2</v>
       </c>
-      <c r="B57" s="13" t="str">
+      <c r="B57" s="13">
         <f>IF(results!G61=1,VLOOKUP(results!E61,teams!A$2:C$69,3,FALSE),IF(results!G61=2,VLOOKUP(results!F61,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1211</v>
       </c>
       <c r="C57" s="14" t="str">
         <f>IF(results!G61=1,VLOOKUP(results!E61,teams!A$2:C$69,1,FALSE),IF(results!G61=2,VLOOKUP(results!F61,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D57" s="13" t="str">
+        <v>#2 Gonzaga</v>
+      </c>
+      <c r="D57" s="13">
         <f>IF(results!G61=2,VLOOKUP(results!E61,teams!A$2:C$69,3,FALSE),IF(results!G61=1,VLOOKUP(results!F61,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1417</v>
       </c>
       <c r="E57" s="14" t="str">
         <f>IF(results!G61=2,VLOOKUP(results!E61,teams!A$2:C$69,1,FALSE),IF(results!G61=1,VLOOKUP(results!F61,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#11 UCLA</v>
       </c>
       <c r="F57" s="14" t="str">
         <f>IF(B57=D57,"",IF(B57&lt;D57,"2015_"&amp;B57&amp;"_"&amp;D57,"2015_"&amp;D57&amp;"_"&amp;B57))</f>
-        <v/>
+        <v>2015_1211_1417</v>
       </c>
       <c r="G57" s="14" t="str">
         <f>IF(B57=D57,"",IF(B57&lt;D57,"1","0"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H57" s="14" t="str">
         <f>IF(B57=D57,"",IF(B57&lt;D57,"2015_"&amp;B57&amp;"_"&amp;D57&amp;",1","2015_"&amp;D57&amp;"_"&amp;B57&amp;",0"))</f>
-        <v/>
+        <v>2015_1211_1417,1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7898,33 +7914,33 @@
         <f>results!B54</f>
         <v>R3Y1</v>
       </c>
-      <c r="B58" s="13" t="str">
+      <c r="B58" s="13">
         <f>IF(results!G54=1,VLOOKUP(results!E54,teams!A$2:C$69,3,FALSE),IF(results!G54=2,VLOOKUP(results!F54,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1246</v>
       </c>
       <c r="C58" s="14" t="str">
         <f>IF(results!G54=1,VLOOKUP(results!E54,teams!A$2:C$69,1,FALSE),IF(results!G54=2,VLOOKUP(results!F54,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D58" s="13" t="str">
+        <v>#1 Kentucky</v>
+      </c>
+      <c r="D58" s="13">
         <f>IF(results!G54=2,VLOOKUP(results!E54,teams!A$2:C$69,3,FALSE),IF(results!G54=1,VLOOKUP(results!F54,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1452</v>
       </c>
       <c r="E58" s="14" t="str">
         <f>IF(results!G54=2,VLOOKUP(results!E54,teams!A$2:C$69,1,FALSE),IF(results!G54=1,VLOOKUP(results!F54,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#5 West Virginia</v>
       </c>
       <c r="F58" s="14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2015_1246_1452</v>
       </c>
       <c r="G58" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H58" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2015_1246_1452,1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7932,33 +7948,33 @@
         <f>results!B55</f>
         <v>R3Y2</v>
       </c>
-      <c r="B59" s="13" t="str">
+      <c r="B59" s="13">
         <f>IF(results!G55=1,VLOOKUP(results!E55,teams!A$2:C$69,3,FALSE),IF(results!G55=2,VLOOKUP(results!F55,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1323</v>
       </c>
       <c r="C59" s="14" t="str">
         <f>IF(results!G55=1,VLOOKUP(results!E55,teams!A$2:C$69,1,FALSE),IF(results!G55=2,VLOOKUP(results!F55,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D59" s="13" t="str">
+        <v>#3 Notre Dame</v>
+      </c>
+      <c r="D59" s="13">
         <f>IF(results!G55=2,VLOOKUP(results!E55,teams!A$2:C$69,3,FALSE),IF(results!G55=1,VLOOKUP(results!F55,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1455</v>
       </c>
       <c r="E59" s="14" t="str">
         <f>IF(results!G55=2,VLOOKUP(results!E55,teams!A$2:C$69,1,FALSE),IF(results!G55=1,VLOOKUP(results!F55,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#7 Wichita St</v>
       </c>
       <c r="F59" s="14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2015_1323_1455</v>
       </c>
       <c r="G59" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H59" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2015_1323_1455,1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7966,33 +7982,33 @@
         <f>results!B56</f>
         <v>R3Z1</v>
       </c>
-      <c r="B60" s="13" t="str">
+      <c r="B60" s="13">
         <f>IF(results!G56=1,VLOOKUP(results!E56,teams!A$2:C$69,3,FALSE),IF(results!G56=2,VLOOKUP(results!F56,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1458</v>
       </c>
       <c r="C60" s="14" t="str">
         <f>IF(results!G56=1,VLOOKUP(results!E56,teams!A$2:C$69,1,FALSE),IF(results!G56=2,VLOOKUP(results!F56,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D60" s="13" t="str">
+        <v>#1 Wisconsin</v>
+      </c>
+      <c r="D60" s="13">
         <f>IF(results!G56=2,VLOOKUP(results!E56,teams!A$2:C$69,3,FALSE),IF(results!G56=1,VLOOKUP(results!F56,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1314</v>
       </c>
       <c r="E60" s="14" t="str">
         <f>IF(results!G56=2,VLOOKUP(results!E56,teams!A$2:C$69,1,FALSE),IF(results!G56=1,VLOOKUP(results!F56,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#4 North Carolina</v>
       </c>
       <c r="F60" s="14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2015_1314_1458</v>
       </c>
       <c r="G60" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H60" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2015_1314_1458,0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -8000,33 +8016,33 @@
         <f>results!B57</f>
         <v>R3Z2</v>
       </c>
-      <c r="B61" s="13" t="str">
+      <c r="B61" s="13">
         <f>IF(results!G57=1,VLOOKUP(results!E57,teams!A$2:C$69,3,FALSE),IF(results!G57=2,VLOOKUP(results!F57,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1112</v>
       </c>
       <c r="C61" s="14" t="str">
         <f>IF(results!G57=1,VLOOKUP(results!E57,teams!A$2:C$69,1,FALSE),IF(results!G57=2,VLOOKUP(results!F57,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D61" s="13" t="str">
+        <v>#2 Arizona</v>
+      </c>
+      <c r="D61" s="13">
         <f>IF(results!G57=2,VLOOKUP(results!E57,teams!A$2:C$69,3,FALSE),IF(results!G57=1,VLOOKUP(results!F57,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1462</v>
       </c>
       <c r="E61" s="14" t="str">
         <f>IF(results!G57=2,VLOOKUP(results!E57,teams!A$2:C$69,1,FALSE),IF(results!G57=1,VLOOKUP(results!F57,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#6 Xavier</v>
       </c>
       <c r="F61" s="14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2015_1112_1462</v>
       </c>
       <c r="G61" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H61" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2015_1112_1462,1</v>
       </c>
     </row>
     <row r="62" spans="1:8">

--- a/tourney_results.xlsx
+++ b/tourney_results.xlsx
@@ -1033,7 +1033,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,10 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1486,7 +1482,7 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1505,69 +1501,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="37" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="39" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>42080</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="34" t="str">
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="33" t="str">
         <f>IF(G2=1,E2,IF(G2=2,F2,""))</f>
         <v>#16 Hampton</v>
       </c>
@@ -1593,7 +1589,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>42080</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1611,10 +1607,10 @@
       <c r="F3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>2</v>
       </c>
-      <c r="H3" s="30" t="str">
+      <c r="H3" s="29" t="str">
         <f>IF(G3=1,E3,IF(G3=2,F3,""))</f>
         <v>#11 Mississippi</v>
       </c>
@@ -1640,7 +1636,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>42081</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1658,10 +1654,10 @@
       <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>2</v>
       </c>
-      <c r="H4" s="30" t="str">
+      <c r="H4" s="29" t="str">
         <f>IF(G4=1,E4,IF(G4=2,F4,""))</f>
         <v>#11 Dayton</v>
       </c>
@@ -1687,28 +1683,28 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>42081</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>2</v>
       </c>
-      <c r="H5" s="32" t="str">
+      <c r="H5" s="31" t="str">
         <f t="shared" ref="H5:H66" si="3">IF(G5=1,E5,IF(G5=2,F5,""))</f>
         <v>#16 Robert Morris</v>
       </c>
@@ -1734,28 +1730,28 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>42082</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="34" t="str">
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="33" t="str">
         <f t="shared" si="3"/>
         <v>#1 Villanova</v>
       </c>
@@ -1781,7 +1777,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>42082</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1799,10 +1795,10 @@
       <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="30" t="str">
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29" t="str">
         <f t="shared" ref="H7:H21" si="4">IF(G7=1,E7,IF(G7=2,F7,""))</f>
         <v>#8 NC State</v>
       </c>
@@ -1828,7 +1824,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>42082</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1846,10 +1842,10 @@
       <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="30" t="str">
+      <c r="H8" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#14 UAB</v>
       </c>
@@ -1875,7 +1871,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>42082</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1893,10 +1889,10 @@
       <c r="F9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="30" t="str">
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#4 Georgetown</v>
       </c>
@@ -1922,7 +1918,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>42082</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1940,10 +1936,10 @@
       <c r="F10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="30" t="str">
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#5 Utah</v>
       </c>
@@ -1969,7 +1965,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>42082</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1987,10 +1983,10 @@
       <c r="F11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="H11" s="30" t="str">
+      <c r="H11" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#11 UCLA</v>
       </c>
@@ -2016,7 +2012,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>42082</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2035,10 +2031,10 @@
         <f>IF(G2=1,E2,IF(G2=2,F2,"(not known yet)"))</f>
         <v>#16 Hampton</v>
       </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="30" t="str">
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#1 Kentucky</v>
       </c>
@@ -2064,7 +2060,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>42082</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2082,10 +2078,10 @@
       <c r="F13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="15">
-        <v>1</v>
-      </c>
-      <c r="H13" s="30" t="str">
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#3 Notre Dame</v>
       </c>
@@ -2111,7 +2107,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>42082</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2129,10 +2125,10 @@
       <c r="F14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="30" t="str">
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#6 Butler</v>
       </c>
@@ -2158,7 +2154,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>42082</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2176,10 +2172,10 @@
       <c r="F15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="30" t="str">
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#8 Cincinnati</v>
       </c>
@@ -2205,7 +2201,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A16" s="29">
+      <c r="A16" s="28">
         <v>42082</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2223,10 +2219,10 @@
       <c r="F16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="15">
-        <v>1</v>
-      </c>
-      <c r="H16" s="30" t="str">
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#2 Arizona</v>
       </c>
@@ -2252,7 +2248,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A17" s="29">
+      <c r="A17" s="28">
         <v>42082</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2270,10 +2266,10 @@
       <c r="F17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>2</v>
       </c>
-      <c r="H17" s="30" t="str">
+      <c r="H17" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#14 Georgia St</v>
       </c>
@@ -2299,7 +2295,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A18" s="29">
+      <c r="A18" s="28">
         <v>42082</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2317,10 +2313,10 @@
       <c r="F18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="30" t="str">
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#4 North Carolina</v>
       </c>
@@ -2346,7 +2342,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A19" s="29">
+      <c r="A19" s="28">
         <v>42082</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2364,10 +2360,10 @@
       <c r="F19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="15">
-        <v>1</v>
-      </c>
-      <c r="H19" s="30" t="str">
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#5 Arkansas</v>
       </c>
@@ -2393,7 +2389,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>42082</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2412,10 +2408,10 @@
         <f>IF(G3=1,E3,IF(G3=2,F3,"(not known yet)"))</f>
         <v>#11 Mississippi</v>
       </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="30" t="str">
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#6 Xavier</v>
       </c>
@@ -2441,7 +2437,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A21" s="29">
+      <c r="A21" s="28">
         <v>42082</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2459,10 +2455,10 @@
       <c r="F21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>2</v>
       </c>
-      <c r="H21" s="30" t="str">
+      <c r="H21" s="29" t="str">
         <f t="shared" si="4"/>
         <v>#10 Ohio St</v>
       </c>
@@ -2488,7 +2484,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>42083</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2506,10 +2502,10 @@
       <c r="F22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="15">
-        <v>1</v>
-      </c>
-      <c r="H22" s="30" t="str">
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#2 Virginia</v>
       </c>
@@ -2535,7 +2531,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>42083</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2553,10 +2549,10 @@
       <c r="F23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="15">
-        <v>1</v>
-      </c>
-      <c r="H23" s="30" t="str">
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#3 Oklahoma</v>
       </c>
@@ -2582,7 +2578,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <v>42083</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2600,10 +2596,10 @@
       <c r="F24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="15">
-        <v>1</v>
-      </c>
-      <c r="H24" s="30" t="str">
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#4 Louisville</v>
       </c>
@@ -2629,7 +2625,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A25" s="29">
+      <c r="A25" s="28">
         <v>42083</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2647,10 +2643,10 @@
       <c r="F25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="15">
-        <v>1</v>
-      </c>
-      <c r="H25" s="30" t="str">
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#5 Northern Iowa</v>
       </c>
@@ -2676,7 +2672,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <v>42083</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2695,10 +2691,10 @@
         <f>IF(G4=1,E4,IF(G4=2,F4,"(not known yet)"))</f>
         <v>#11 Dayton</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>2</v>
       </c>
-      <c r="H26" s="30" t="str">
+      <c r="H26" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#11 Dayton</v>
       </c>
@@ -2724,7 +2720,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A27" s="29">
+      <c r="A27" s="28">
         <v>42083</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2742,10 +2738,10 @@
       <c r="F27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="15">
-        <v>1</v>
-      </c>
-      <c r="H27" s="30" t="str">
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#7 Michigan St</v>
       </c>
@@ -2771,7 +2767,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A28" s="29">
+      <c r="A28" s="28">
         <v>42083</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2790,10 +2786,10 @@
         <f>IF(G5=1,E5,IF(G5=2,F5,"(not known yet)"))</f>
         <v>#16 Robert Morris</v>
       </c>
-      <c r="G28" s="15">
-        <v>1</v>
-      </c>
-      <c r="H28" s="30" t="str">
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#1 Duke</v>
       </c>
@@ -2819,7 +2815,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A29" s="29">
+      <c r="A29" s="28">
         <v>42083</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2837,10 +2833,10 @@
       <c r="F29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="15">
-        <v>1</v>
-      </c>
-      <c r="H29" s="30" t="str">
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#2 Gonzaga</v>
       </c>
@@ -2866,7 +2862,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A30" s="29">
+      <c r="A30" s="28">
         <v>42083</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2884,10 +2880,10 @@
       <c r="F30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="15">
-        <v>1</v>
-      </c>
-      <c r="H30" s="30" t="str">
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#7 Iowa</v>
       </c>
@@ -2913,7 +2909,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A31" s="29">
+      <c r="A31" s="28">
         <v>42083</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2931,10 +2927,10 @@
       <c r="F31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="15">
-        <v>1</v>
-      </c>
-      <c r="H31" s="30" t="str">
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#8 San Diego St</v>
       </c>
@@ -2960,7 +2956,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A32" s="29">
+      <c r="A32" s="28">
         <v>42083</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2978,10 +2974,10 @@
       <c r="F32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="15">
-        <v>1</v>
-      </c>
-      <c r="H32" s="30" t="str">
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#2 Kansas</v>
       </c>
@@ -3007,7 +3003,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A33" s="29">
+      <c r="A33" s="28">
         <v>42083</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3025,10 +3021,10 @@
       <c r="F33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="15">
-        <v>1</v>
-      </c>
-      <c r="H33" s="30" t="str">
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#4 Maryland</v>
       </c>
@@ -3054,7 +3050,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A34" s="29">
+      <c r="A34" s="28">
         <v>42083</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3072,10 +3068,10 @@
       <c r="F34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="15">
-        <v>1</v>
-      </c>
-      <c r="H34" s="30" t="str">
+      <c r="G34" s="14">
+        <v>1</v>
+      </c>
+      <c r="H34" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#5 West Virginia</v>
       </c>
@@ -3101,7 +3097,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A35" s="29">
+      <c r="A35" s="28">
         <v>42083</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3119,10 +3115,10 @@
       <c r="F35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="15">
-        <v>1</v>
-      </c>
-      <c r="H35" s="30" t="str">
+      <c r="G35" s="14">
+        <v>1</v>
+      </c>
+      <c r="H35" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#7 Wichita St</v>
       </c>
@@ -3148,7 +3144,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A36" s="29">
+      <c r="A36" s="28">
         <v>42083</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3166,10 +3162,10 @@
       <c r="F36" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="15">
-        <v>1</v>
-      </c>
-      <c r="H36" s="30" t="str">
+      <c r="G36" s="14">
+        <v>1</v>
+      </c>
+      <c r="H36" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#1 Wisconsin</v>
       </c>
@@ -3195,28 +3191,28 @@
       </c>
     </row>
     <row r="37" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A37" s="31">
+      <c r="A37" s="30">
         <v>42083</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="18">
-        <v>1</v>
-      </c>
-      <c r="H37" s="32" t="str">
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="31" t="str">
         <f t="shared" si="3"/>
         <v>#8 Oregon</v>
       </c>
@@ -3242,30 +3238,30 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A38" s="33">
+      <c r="A38" s="32">
         <v>42084</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="20" t="str">
+      <c r="E38" s="19" t="str">
         <f>IF(G6=1,E6,IF(G6=2,F6,"(not known yet)"))</f>
         <v>#1 Villanova</v>
       </c>
-      <c r="F38" s="20" t="str">
+      <c r="F38" s="19" t="str">
         <f>IF(G7=1,E7,IF(G7=2,F7,"(not known yet)"))</f>
         <v>#8 NC State</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="20">
         <v>2</v>
       </c>
-      <c r="H38" s="34" t="str">
+      <c r="H38" s="33" t="str">
         <f t="shared" si="3"/>
         <v>#8 NC State</v>
       </c>
@@ -3291,7 +3287,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A39" s="29">
+      <c r="A39" s="28">
         <v>42084</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3311,10 +3307,10 @@
         <f>IF(G11=1,E11,IF(G11=2,F11,"(not known yet)"))</f>
         <v>#11 UCLA</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="14">
         <v>2</v>
       </c>
-      <c r="H39" s="30" t="str">
+      <c r="H39" s="29" t="str">
         <f t="shared" ref="H39:H45" si="5">IF(G39=1,E39,IF(G39=2,F39,""))</f>
         <v>#11 UCLA</v>
       </c>
@@ -3340,7 +3336,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A40" s="29">
+      <c r="A40" s="28">
         <v>42084</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3360,10 +3356,10 @@
         <f>IF(G10=1,E10,IF(G10=2,F10,"(not known yet)"))</f>
         <v>#5 Utah</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="14">
         <v>2</v>
       </c>
-      <c r="H40" s="30" t="str">
+      <c r="H40" s="29" t="str">
         <f t="shared" si="5"/>
         <v>#5 Utah</v>
       </c>
@@ -3389,7 +3385,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A41" s="29">
+      <c r="A41" s="28">
         <v>42084</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3409,10 +3405,10 @@
         <f>IF(G15=1,E15,IF(G15=2,F15,"(not known yet)"))</f>
         <v>#8 Cincinnati</v>
       </c>
-      <c r="G41" s="15">
-        <v>1</v>
-      </c>
-      <c r="H41" s="30" t="str">
+      <c r="G41" s="14">
+        <v>1</v>
+      </c>
+      <c r="H41" s="29" t="str">
         <f t="shared" si="5"/>
         <v>#1 Kentucky</v>
       </c>
@@ -3438,7 +3434,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A42" s="29">
+      <c r="A42" s="28">
         <v>42084</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3458,10 +3454,10 @@
         <f>IF(G14=1,E14,IF(G14=2,F14,"(not known yet)"))</f>
         <v>#6 Butler</v>
       </c>
-      <c r="G42" s="15">
-        <v>1</v>
-      </c>
-      <c r="H42" s="30" t="str">
+      <c r="G42" s="14">
+        <v>1</v>
+      </c>
+      <c r="H42" s="29" t="str">
         <f t="shared" si="5"/>
         <v>#3 Notre Dame</v>
       </c>
@@ -3487,7 +3483,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A43" s="29">
+      <c r="A43" s="28">
         <v>42084</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3507,10 +3503,10 @@
         <f>IF(G21=1,E21,IF(G21=2,F21,"(not known yet)"))</f>
         <v>#10 Ohio St</v>
       </c>
-      <c r="G43" s="15">
-        <v>1</v>
-      </c>
-      <c r="H43" s="30" t="str">
+      <c r="G43" s="14">
+        <v>1</v>
+      </c>
+      <c r="H43" s="29" t="str">
         <f t="shared" si="5"/>
         <v>#2 Arizona</v>
       </c>
@@ -3536,7 +3532,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A44" s="29">
+      <c r="A44" s="28">
         <v>42084</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -3556,10 +3552,10 @@
         <f>IF(G20=1,E20,IF(G20=2,F20,"(not known yet)"))</f>
         <v>#6 Xavier</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>2</v>
       </c>
-      <c r="H44" s="30" t="str">
+      <c r="H44" s="29" t="str">
         <f t="shared" si="5"/>
         <v>#6 Xavier</v>
       </c>
@@ -3585,7 +3581,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A45" s="29">
+      <c r="A45" s="28">
         <v>42084</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -3605,10 +3601,10 @@
         <f>IF(G19=1,E19,IF(G19=2,F19,"(not known yet)"))</f>
         <v>#5 Arkansas</v>
       </c>
-      <c r="G45" s="15">
-        <v>1</v>
-      </c>
-      <c r="H45" s="30" t="str">
+      <c r="G45" s="14">
+        <v>1</v>
+      </c>
+      <c r="H45" s="29" t="str">
         <f t="shared" si="5"/>
         <v>#4 North Carolina</v>
       </c>
@@ -3634,7 +3630,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A46" s="29">
+      <c r="A46" s="28">
         <v>42085</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -3654,10 +3650,10 @@
         <f>IF(G27=1,E27,IF(G27=2,F27,"(not known yet)"))</f>
         <v>#7 Michigan St</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <v>2</v>
       </c>
-      <c r="H46" s="30" t="str">
+      <c r="H46" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#7 Michigan St</v>
       </c>
@@ -3683,7 +3679,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A47" s="29">
+      <c r="A47" s="28">
         <v>42085</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3703,10 +3699,10 @@
         <f>IF(G26=1,E26,IF(G26=2,F26,"(not known yet)"))</f>
         <v>#11 Dayton</v>
       </c>
-      <c r="G47" s="15">
-        <v>1</v>
-      </c>
-      <c r="H47" s="30" t="str">
+      <c r="G47" s="14">
+        <v>1</v>
+      </c>
+      <c r="H47" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#3 Oklahoma</v>
       </c>
@@ -3732,7 +3728,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A48" s="29">
+      <c r="A48" s="28">
         <v>42085</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3752,10 +3748,10 @@
         <f>IF(G25=1,E25,IF(G25=2,F25,"(not known yet)"))</f>
         <v>#5 Northern Iowa</v>
       </c>
-      <c r="G48" s="15">
-        <v>1</v>
-      </c>
-      <c r="H48" s="30" t="str">
+      <c r="G48" s="14">
+        <v>1</v>
+      </c>
+      <c r="H48" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#4 Louisville</v>
       </c>
@@ -3781,7 +3777,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A49" s="29">
+      <c r="A49" s="28">
         <v>42085</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -3801,10 +3797,10 @@
         <f>IF(G31=1,E31,IF(G31=2,F31,"(not known yet)"))</f>
         <v>#8 San Diego St</v>
       </c>
-      <c r="G49" s="15">
-        <v>1</v>
-      </c>
-      <c r="H49" s="30" t="str">
+      <c r="G49" s="14">
+        <v>1</v>
+      </c>
+      <c r="H49" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#1 Duke</v>
       </c>
@@ -3830,7 +3826,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A50" s="29">
+      <c r="A50" s="28">
         <v>42085</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -3850,10 +3846,10 @@
         <f>IF(G30=1,E30,IF(G30=2,F30,"(not known yet)"))</f>
         <v>#7 Iowa</v>
       </c>
-      <c r="G50" s="15">
-        <v>1</v>
-      </c>
-      <c r="H50" s="30" t="str">
+      <c r="G50" s="14">
+        <v>1</v>
+      </c>
+      <c r="H50" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#2 Gonzaga</v>
       </c>
@@ -3879,7 +3875,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A51" s="29">
+      <c r="A51" s="28">
         <v>42085</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -3899,10 +3895,10 @@
         <f>IF(G35=1,E35,IF(G35=2,F35,"(not known yet)"))</f>
         <v>#7 Wichita St</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="14">
         <v>2</v>
       </c>
-      <c r="H51" s="30" t="str">
+      <c r="H51" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#7 Wichita St</v>
       </c>
@@ -3928,7 +3924,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A52" s="29">
+      <c r="A52" s="28">
         <v>42085</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -3948,10 +3944,10 @@
         <f>IF(G34=1,E34,IF(G34=2,F34,"(not known yet)"))</f>
         <v>#5 West Virginia</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="14">
         <v>2</v>
       </c>
-      <c r="H52" s="30" t="str">
+      <c r="H52" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#5 West Virginia</v>
       </c>
@@ -3977,30 +3973,30 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A53" s="31">
+      <c r="A53" s="30">
         <v>42085</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="17" t="str">
+      <c r="E53" s="16" t="str">
         <f>IF(G36=1,E36,IF(G36=2,F36,"(not known yet)"))</f>
         <v>#1 Wisconsin</v>
       </c>
-      <c r="F53" s="17" t="str">
+      <c r="F53" s="16" t="str">
         <f>IF(G37=1,E37,IF(G37=2,F37,"(not known yet)"))</f>
         <v>#8 Oregon</v>
       </c>
-      <c r="G53" s="18">
-        <v>1</v>
-      </c>
-      <c r="H53" s="32" t="str">
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="31" t="str">
         <f t="shared" si="3"/>
         <v>#1 Wisconsin</v>
       </c>
@@ -4026,30 +4022,30 @@
       </c>
     </row>
     <row r="54" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A54" s="33">
+      <c r="A54" s="32">
         <v>42089</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="20" t="str">
+      <c r="E54" s="19" t="str">
         <f>IF(G41=1,E41,IF(G41=2,F41,"(not known yet)"))</f>
         <v>#1 Kentucky</v>
       </c>
-      <c r="F54" s="20" t="str">
+      <c r="F54" s="19" t="str">
         <f>IF(G52=1,E52,IF(G52=2,F52,"(not known yet)"))</f>
         <v>#5 West Virginia</v>
       </c>
-      <c r="G54" s="21">
-        <v>1</v>
-      </c>
-      <c r="H54" s="34" t="str">
+      <c r="G54" s="20">
+        <v>1</v>
+      </c>
+      <c r="H54" s="33" t="str">
         <f>IF(G54=1,E54,IF(G54=2,F54,""))</f>
         <v>#1 Kentucky</v>
       </c>
@@ -4075,7 +4071,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A55" s="29">
+      <c r="A55" s="28">
         <v>42089</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4095,10 +4091,10 @@
         <f>IF(G42=1,E42,IF(G42=2,F42,"(not known yet)"))</f>
         <v>#3 Notre Dame</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="14">
         <v>2</v>
       </c>
-      <c r="H55" s="30" t="str">
+      <c r="H55" s="29" t="str">
         <f>IF(G55=1,E55,IF(G55=2,F55,""))</f>
         <v>#3 Notre Dame</v>
       </c>
@@ -4124,7 +4120,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A56" s="29">
+      <c r="A56" s="28">
         <v>42089</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -4144,10 +4140,10 @@
         <f>IF(G45=1,E45,IF(G45=2,F45,"(not known yet)"))</f>
         <v>#4 North Carolina</v>
       </c>
-      <c r="G56" s="15">
-        <v>1</v>
-      </c>
-      <c r="H56" s="30" t="str">
+      <c r="G56" s="14">
+        <v>1</v>
+      </c>
+      <c r="H56" s="29" t="str">
         <f>IF(G56=1,E56,IF(G56=2,F56,""))</f>
         <v>#1 Wisconsin</v>
       </c>
@@ -4173,7 +4169,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A57" s="29">
+      <c r="A57" s="28">
         <v>42089</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -4193,10 +4189,10 @@
         <f>IF(G44=1,E44,IF(G44=2,F44,"(not known yet)"))</f>
         <v>#6 Xavier</v>
       </c>
-      <c r="G57" s="15">
-        <v>1</v>
-      </c>
-      <c r="H57" s="30" t="str">
+      <c r="G57" s="14">
+        <v>1</v>
+      </c>
+      <c r="H57" s="29" t="str">
         <f>IF(G57=1,E57,IF(G57=2,F57,""))</f>
         <v>#2 Arizona</v>
       </c>
@@ -4222,7 +4218,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A58" s="29">
+      <c r="A58" s="28">
         <v>42090</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -4242,10 +4238,10 @@
         <f>IF(G48=1,E48,IF(G48=2,F48,"(not known yet)"))</f>
         <v>#4 Louisville</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="14">
         <v>2</v>
       </c>
-      <c r="H58" s="30" t="str">
+      <c r="H58" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#4 Louisville</v>
       </c>
@@ -4271,7 +4267,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A59" s="29">
+      <c r="A59" s="28">
         <v>42090</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -4291,10 +4287,10 @@
         <f>IF(G47=1,E47,IF(G47=2,F47,"(not known yet)"))</f>
         <v>#3 Oklahoma</v>
       </c>
-      <c r="G59" s="15">
-        <v>1</v>
-      </c>
-      <c r="H59" s="30" t="str">
+      <c r="G59" s="14">
+        <v>1</v>
+      </c>
+      <c r="H59" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#7 Michigan St</v>
       </c>
@@ -4320,7 +4316,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A60" s="29">
+      <c r="A60" s="28">
         <v>42090</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4340,10 +4336,10 @@
         <f>IF(G40=1,E40,IF(G40=2,F40,"(not known yet)"))</f>
         <v>#5 Utah</v>
       </c>
-      <c r="G60" s="15">
-        <v>1</v>
-      </c>
-      <c r="H60" s="30" t="str">
+      <c r="G60" s="14">
+        <v>1</v>
+      </c>
+      <c r="H60" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#1 Duke</v>
       </c>
@@ -4369,30 +4365,30 @@
       </c>
     </row>
     <row r="61" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A61" s="31">
+      <c r="A61" s="30">
         <v>42090</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E61" s="17" t="str">
+      <c r="E61" s="16" t="str">
         <f>IF(G50=1,E50,IF(G50=2,F50,"(not known yet)"))</f>
         <v>#2 Gonzaga</v>
       </c>
-      <c r="F61" s="17" t="str">
+      <c r="F61" s="16" t="str">
         <f>IF(G39=1,E39,IF(G39=2,F39,"(not known yet)"))</f>
         <v>#11 UCLA</v>
       </c>
-      <c r="G61" s="18">
-        <v>1</v>
-      </c>
-      <c r="H61" s="32" t="str">
+      <c r="G61" s="17">
+        <v>1</v>
+      </c>
+      <c r="H61" s="31" t="str">
         <f t="shared" si="3"/>
         <v>#2 Gonzaga</v>
       </c>
@@ -4418,30 +4414,32 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A62" s="33">
+      <c r="A62" s="32">
         <v>42091</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="20" t="str">
+      <c r="E62" s="19" t="str">
         <f>IF(G54=1,E54,IF(G54=2,F54,"(not known yet)"))</f>
         <v>#1 Kentucky</v>
       </c>
-      <c r="F62" s="20" t="str">
+      <c r="F62" s="19" t="str">
         <f>IF(G55=1,E55,IF(G55=2,F55,"(not known yet)"))</f>
         <v>#3 Notre Dame</v>
       </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="34" t="str">
+      <c r="G62" s="20">
+        <v>1</v>
+      </c>
+      <c r="H62" s="33" t="str">
         <f>IF(G62=1,E62,IF(G62=2,F62,""))</f>
-        <v/>
+        <v>#1 Kentucky</v>
       </c>
       <c r="J62" s="6">
         <f>IFERROR(VLOOKUP(E62,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4461,11 +4459,11 @@
       </c>
       <c r="O62" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A63" s="29">
+      <c r="A63" s="28">
         <v>42091</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -4485,10 +4483,12 @@
         <f>IF(G57=1,E57,IF(G57=2,F57,"(not known yet)"))</f>
         <v>#2 Arizona</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="30" t="str">
+      <c r="G63" s="14">
+        <v>1</v>
+      </c>
+      <c r="H63" s="29" t="str">
         <f>IF(G63=1,E63,IF(G63=2,F63,""))</f>
-        <v/>
+        <v>#1 Wisconsin</v>
       </c>
       <c r="J63" s="6">
         <f>IFERROR(VLOOKUP(E63,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4508,11 +4508,11 @@
       </c>
       <c r="O63" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A64" s="29">
+      <c r="A64" s="28">
         <v>42092</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -4532,10 +4532,12 @@
         <f>IF(G59=1,E59,IF(G59=2,F59,"(not known yet)"))</f>
         <v>#7 Michigan St</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="30" t="str">
+      <c r="G64" s="14">
+        <v>2</v>
+      </c>
+      <c r="H64" s="29" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#7 Michigan St</v>
       </c>
       <c r="J64" s="6">
         <f>IFERROR(VLOOKUP(E64,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4555,34 +4557,36 @@
       </c>
       <c r="O64" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A65" s="31">
+      <c r="A65" s="30">
         <v>42092</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E65" s="17" t="str">
+      <c r="E65" s="16" t="str">
         <f>IF(G60=1,E60,IF(G60=2,F60,"(not known yet)"))</f>
         <v>#1 Duke</v>
       </c>
-      <c r="F65" s="17" t="str">
+      <c r="F65" s="16" t="str">
         <f>IF(G61=1,E61,IF(G61=2,F61,"(not known yet)"))</f>
         <v>#2 Gonzaga</v>
       </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="32" t="str">
+      <c r="G65" s="17">
+        <v>1</v>
+      </c>
+      <c r="H65" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#1 Duke</v>
       </c>
       <c r="J65" s="6">
         <f>IFERROR(VLOOKUP(E65,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4602,42 +4606,42 @@
       </c>
       <c r="O65" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A66" s="33">
+      <c r="A66" s="32">
         <v>42098</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E66" s="20" t="str">
+      <c r="E66" s="19" t="str">
         <f>IF(G64=1,E64,IF(G64=2,F64,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="F66" s="20" t="str">
+        <v>#7 Michigan St</v>
+      </c>
+      <c r="F66" s="19" t="str">
         <f>IF(G65=1,E65,IF(G65=2,F65,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="34" t="str">
+        <v>#1 Duke</v>
+      </c>
+      <c r="G66" s="22"/>
+      <c r="H66" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J66" s="6" t="str">
+      <c r="J66" s="6">
         <f>IFERROR(VLOOKUP(E66,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K66" s="6" t="str">
+        <v>1277</v>
+      </c>
+      <c r="K66" s="6">
         <f>IFERROR(VLOOKUP(F66,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
+        <v>1181</v>
       </c>
       <c r="M66" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4645,7 +4649,7 @@
       </c>
       <c r="N66" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2015_1181_1277</v>
       </c>
       <c r="O66" s="6">
         <f t="shared" si="2"/>
@@ -4653,38 +4657,38 @@
       </c>
     </row>
     <row r="67" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A67" s="31">
+      <c r="A67" s="30">
         <v>42098</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="17" t="str">
+      <c r="E67" s="16" t="str">
         <f>IF(G62=1,E62,IF(G62=2,F62,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="F67" s="17" t="str">
+        <v>#1 Kentucky</v>
+      </c>
+      <c r="F67" s="16" t="str">
         <f>IF(G63=1,E63,IF(G63=2,F63,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G67" s="22"/>
-      <c r="H67" s="32" t="str">
+        <v>#1 Wisconsin</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="31" t="str">
         <f t="shared" ref="H67:H68" si="6">IF(G67=1,E67,IF(G67=2,F67,""))</f>
         <v/>
       </c>
-      <c r="J67" s="6" t="str">
+      <c r="J67" s="6">
         <f>IFERROR(VLOOKUP(E67,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K67" s="6" t="str">
+        <v>1246</v>
+      </c>
+      <c r="K67" s="6">
         <f>IFERROR(VLOOKUP(F67,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
+        <v>1458</v>
       </c>
       <c r="M67" s="6" t="str">
         <f t="shared" ref="M67:M68" si="7">B67</f>
@@ -4692,7 +4696,7 @@
       </c>
       <c r="N67" s="6" t="str">
         <f t="shared" ref="N67:N68" si="8">IF(AND(J67&lt;&gt;"",K67&lt;&gt;""),IF(J67&lt;K67,"2015_"&amp;J67&amp;"_"&amp;K67,"2015_"&amp;K67&amp;"_"&amp;J67),"")</f>
-        <v/>
+        <v>2015_1246_1458</v>
       </c>
       <c r="O67" s="6">
         <f t="shared" ref="O67:O68" si="9">IFERROR(IF(TEXT(INDEX(J67:K67,1,G67),"0")=MID(N67,6,4),1,0),-1)</f>
@@ -4700,28 +4704,28 @@
       </c>
     </row>
     <row r="68" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A68" s="35">
+      <c r="A68" s="34">
         <v>42100</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="E68" s="37" t="str">
+      <c r="E68" s="36" t="str">
         <f>IF(G66=1,E66,IF(G66=2,F66,"(not known yet)"))</f>
         <v>(not known yet)</v>
       </c>
-      <c r="F68" s="37" t="str">
+      <c r="F68" s="36" t="str">
         <f>IF(G67=1,E67,IF(G67=2,F67,"(not known yet)"))</f>
         <v>(not known yet)</v>
       </c>
-      <c r="G68" s="38"/>
-      <c r="H68" s="39" t="str">
+      <c r="G68" s="37"/>
+      <c r="H68" s="38" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -4767,32 +4771,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4804,12 +4808,12 @@
       <c r="G2" s="2">
         <v>1107</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4821,12 +4825,12 @@
       <c r="G3" s="2">
         <v>1112</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4838,12 +4842,12 @@
       <c r="G4" s="2">
         <v>1116</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4855,12 +4859,12 @@
       <c r="G5" s="2">
         <v>1124</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4872,12 +4876,12 @@
       <c r="G6" s="2">
         <v>1125</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4889,12 +4893,12 @@
       <c r="G7" s="2">
         <v>1129</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4906,12 +4910,12 @@
       <c r="G8" s="2">
         <v>1138</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4923,12 +4927,12 @@
       <c r="G9" s="2">
         <v>1139</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4940,12 +4944,12 @@
       <c r="G10" s="2">
         <v>1140</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4957,12 +4961,12 @@
       <c r="G11" s="2">
         <v>1153</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4974,12 +4978,12 @@
       <c r="G12" s="2">
         <v>1157</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4991,12 +4995,12 @@
       <c r="G13" s="2">
         <v>1172</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5008,12 +5012,12 @@
       <c r="G14" s="2">
         <v>1173</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5025,12 +5029,12 @@
       <c r="G15" s="2">
         <v>1181</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5042,12 +5046,12 @@
       <c r="G16" s="2">
         <v>1186</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5059,12 +5063,12 @@
       <c r="G17" s="2">
         <v>1207</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5076,12 +5080,12 @@
       <c r="G18" s="2">
         <v>1208</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5093,12 +5097,12 @@
       <c r="G19" s="2">
         <v>1209</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5110,12 +5114,12 @@
       <c r="G20" s="2">
         <v>1211</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -5127,12 +5131,12 @@
       <c r="G21" s="2">
         <v>1214</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5144,12 +5148,12 @@
       <c r="G22" s="2">
         <v>1217</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5161,12 +5165,12 @@
       <c r="G23" s="2">
         <v>1231</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5178,12 +5182,12 @@
       <c r="G24" s="2">
         <v>1234</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5195,12 +5199,12 @@
       <c r="G25" s="2">
         <v>1235</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5212,12 +5216,12 @@
       <c r="G26" s="2">
         <v>1242</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5229,12 +5233,12 @@
       <c r="G27" s="2">
         <v>1246</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5246,12 +5250,12 @@
       <c r="G28" s="2">
         <v>1248</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5263,12 +5267,12 @@
       <c r="G29" s="2">
         <v>1257</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -5280,12 +5284,12 @@
       <c r="G30" s="2">
         <v>1261</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -5297,12 +5301,12 @@
       <c r="G31" s="2">
         <v>1264</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5314,12 +5318,12 @@
       <c r="G32" s="2">
         <v>1268</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -5331,12 +5335,12 @@
       <c r="G33" s="2">
         <v>1277</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -5348,12 +5352,12 @@
       <c r="G34" s="2">
         <v>1279</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -5365,12 +5369,12 @@
       <c r="G35" s="2">
         <v>1295</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -5382,12 +5386,12 @@
       <c r="G36" s="2">
         <v>1301</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -5399,12 +5403,12 @@
       <c r="G37" s="2">
         <v>1308</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -5416,12 +5420,12 @@
       <c r="G38" s="2">
         <v>1314</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -5433,12 +5437,12 @@
       <c r="G39" s="2">
         <v>1316</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -5450,12 +5454,12 @@
       <c r="G40" s="2">
         <v>1318</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -5467,12 +5471,12 @@
       <c r="G41" s="2">
         <v>1320</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -5484,12 +5488,12 @@
       <c r="G42" s="2">
         <v>1323</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -5501,12 +5505,12 @@
       <c r="G43" s="2">
         <v>1326</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5518,12 +5522,12 @@
       <c r="G44" s="2">
         <v>1328</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -5535,12 +5539,12 @@
       <c r="G45" s="2">
         <v>1329</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -5552,12 +5556,12 @@
       <c r="G46" s="2">
         <v>1332</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -5569,12 +5573,12 @@
       <c r="G47" s="2">
         <v>1344</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -5586,12 +5590,12 @@
       <c r="G48" s="2">
         <v>1345</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -5603,12 +5607,12 @@
       <c r="G49" s="2">
         <v>1352</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -5620,12 +5624,12 @@
       <c r="G50" s="2">
         <v>1361</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -5637,12 +5641,12 @@
       <c r="G51" s="2">
         <v>1372</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -5654,12 +5658,12 @@
       <c r="G52" s="2">
         <v>1374</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -5671,12 +5675,12 @@
       <c r="G53" s="2">
         <v>1385</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -5688,12 +5692,12 @@
       <c r="G54" s="2">
         <v>1400</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -5705,12 +5709,12 @@
       <c r="G55" s="2">
         <v>1411</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -5722,12 +5726,12 @@
       <c r="G56" s="2">
         <v>1412</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -5739,12 +5743,12 @@
       <c r="G57" s="2">
         <v>1414</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -5756,12 +5760,12 @@
       <c r="G58" s="2">
         <v>1417</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -5773,12 +5777,12 @@
       <c r="G59" s="2">
         <v>1428</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -5790,12 +5794,12 @@
       <c r="G60" s="2">
         <v>1433</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="H60" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -5807,12 +5811,12 @@
       <c r="G61" s="2">
         <v>1434</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -5824,12 +5828,12 @@
       <c r="G62" s="2">
         <v>1437</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -5841,12 +5845,12 @@
       <c r="G63" s="2">
         <v>1438</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -5858,12 +5862,12 @@
       <c r="G64" s="2">
         <v>1452</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -5875,12 +5879,12 @@
       <c r="G65" s="2">
         <v>1455</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -5892,12 +5896,12 @@
       <c r="G66" s="2">
         <v>1458</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -5909,12 +5913,12 @@
       <c r="G67" s="2">
         <v>1459</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -5926,12 +5930,12 @@
       <c r="G68" s="2">
         <v>1461</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -5943,7 +5947,7 @@
       <c r="G69" s="2">
         <v>1462</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="13" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5972,36 +5976,36 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="8" customWidth="1"/>
-    <col min="5" max="7" width="25.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="21" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="7" customWidth="1"/>
+    <col min="5" max="7" width="25.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="21" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6010,31 +6014,31 @@
         <f>results!B4</f>
         <v>W11</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <f>IF(results!G4=1,VLOOKUP(results!E4,teams!A$2:C$69,3,FALSE),IF(results!G4=2,VLOOKUP(results!F4,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1173</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="13" t="str">
         <f>IF(results!G4=1,VLOOKUP(results!E4,teams!A$2:C$69,1,FALSE),IF(results!G4=2,VLOOKUP(results!F4,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 Dayton</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f>IF(results!G4=2,VLOOKUP(results!E4,teams!A$2:C$69,3,FALSE),IF(results!G4=1,VLOOKUP(results!F4,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1129</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="13" t="str">
         <f>IF(results!G4=2,VLOOKUP(results!E4,teams!A$2:C$69,1,FALSE),IF(results!G4=1,VLOOKUP(results!F4,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 Boise St</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="13" t="str">
         <f t="shared" ref="F2:F67" si="0">IF(B2=D2,"",IF(B2&lt;D2,"2015_"&amp;B2&amp;"_"&amp;D2,"2015_"&amp;D2&amp;"_"&amp;B2))</f>
         <v>2015_1129_1173</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="13" t="str">
         <f t="shared" ref="G2:G67" si="1">IF(B2=D2,"",IF(B2&lt;D2,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H2" s="14" t="str">
+      <c r="H2" s="13" t="str">
         <f t="shared" ref="H2:H67" si="2">IF(B2=D2,"",IF(B2&lt;D2,"2015_"&amp;B2&amp;"_"&amp;D2&amp;",1","2015_"&amp;D2&amp;"_"&amp;B2&amp;",0"))</f>
         <v>2015_1129_1173,0</v>
       </c>
@@ -6044,31 +6048,31 @@
         <f>results!B5</f>
         <v>X16</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <f>IF(results!G5=1,VLOOKUP(results!E5,teams!A$2:C$69,3,FALSE),IF(results!G5=2,VLOOKUP(results!F5,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1352</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="13" t="str">
         <f>IF(results!G5=1,VLOOKUP(results!E5,teams!A$2:C$69,1,FALSE),IF(results!G5=2,VLOOKUP(results!F5,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#16 Robert Morris</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f>IF(results!G5=2,VLOOKUP(results!E5,teams!A$2:C$69,3,FALSE),IF(results!G5=1,VLOOKUP(results!F5,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1316</v>
       </c>
-      <c r="E3" s="14" t="str">
+      <c r="E3" s="13" t="str">
         <f>IF(results!G5=2,VLOOKUP(results!E5,teams!A$2:C$69,1,FALSE),IF(results!G5=1,VLOOKUP(results!F5,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#16 North Florida</v>
       </c>
-      <c r="F3" s="14" t="str">
+      <c r="F3" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1316_1352</v>
       </c>
-      <c r="G3" s="14" t="str">
+      <c r="G3" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H3" s="14" t="str">
+      <c r="H3" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1316_1352,0</v>
       </c>
@@ -6078,31 +6082,31 @@
         <f>results!B2</f>
         <v>Y16</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <f>IF(results!G2=1,VLOOKUP(results!E2,teams!A$2:C$69,3,FALSE),IF(results!G2=2,VLOOKUP(results!F2,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1214</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="13" t="str">
         <f>IF(results!G2=1,VLOOKUP(results!E2,teams!A$2:C$69,1,FALSE),IF(results!G2=2,VLOOKUP(results!F2,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#16 Hampton</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f>IF(results!G2=2,VLOOKUP(results!E2,teams!A$2:C$69,3,FALSE),IF(results!G2=1,VLOOKUP(results!F2,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1264</v>
       </c>
-      <c r="E4" s="14" t="str">
+      <c r="E4" s="13" t="str">
         <f>IF(results!G2=2,VLOOKUP(results!E2,teams!A$2:C$69,1,FALSE),IF(results!G2=1,VLOOKUP(results!F2,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#16 Manhattan</v>
       </c>
-      <c r="F4" s="14" t="str">
+      <c r="F4" s="13" t="str">
         <f>IF(B4=D4,"",IF(B4&lt;D4,"2015_"&amp;B4&amp;"_"&amp;D4,"2015_"&amp;D4&amp;"_"&amp;B4))</f>
         <v>2015_1214_1264</v>
       </c>
-      <c r="G4" s="14" t="str">
+      <c r="G4" s="13" t="str">
         <f>IF(B4=D4,"",IF(B4&lt;D4,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H4" s="14" t="str">
+      <c r="H4" s="13" t="str">
         <f>IF(B4=D4,"",IF(B4&lt;D4,"2015_"&amp;B4&amp;"_"&amp;D4&amp;",1","2015_"&amp;D4&amp;"_"&amp;B4&amp;",0"))</f>
         <v>2015_1214_1264,1</v>
       </c>
@@ -6112,31 +6116,31 @@
         <f>results!B3</f>
         <v>Z11</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <f>IF(results!G3=1,VLOOKUP(results!E3,teams!A$2:C$69,3,FALSE),IF(results!G3=2,VLOOKUP(results!F3,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1279</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="13" t="str">
         <f>IF(results!G3=1,VLOOKUP(results!E3,teams!A$2:C$69,1,FALSE),IF(results!G3=2,VLOOKUP(results!F3,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 Mississippi</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f>IF(results!G3=2,VLOOKUP(results!E3,teams!A$2:C$69,3,FALSE),IF(results!G3=1,VLOOKUP(results!F3,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1140</v>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" s="13" t="str">
         <f>IF(results!G3=2,VLOOKUP(results!E3,teams!A$2:C$69,1,FALSE),IF(results!G3=1,VLOOKUP(results!F3,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 BYU</v>
       </c>
-      <c r="F5" s="14" t="str">
+      <c r="F5" s="13" t="str">
         <f>IF(B5=D5,"",IF(B5&lt;D5,"2015_"&amp;B5&amp;"_"&amp;D5,"2015_"&amp;D5&amp;"_"&amp;B5))</f>
         <v>2015_1140_1279</v>
       </c>
-      <c r="G5" s="14" t="str">
+      <c r="G5" s="13" t="str">
         <f>IF(B5=D5,"",IF(B5&lt;D5,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="14" t="str">
+      <c r="H5" s="13" t="str">
         <f>IF(B5=D5,"",IF(B5&lt;D5,"2015_"&amp;B5&amp;"_"&amp;D5&amp;",1","2015_"&amp;D5&amp;"_"&amp;B5&amp;",0"))</f>
         <v>2015_1140_1279,0</v>
       </c>
@@ -6146,31 +6150,31 @@
         <f>results!B6</f>
         <v>R1W1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <f>IF(results!G6=1,VLOOKUP(results!E6,teams!A$2:C$69,3,FALSE),IF(results!G6=2,VLOOKUP(results!F6,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1437</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="13" t="str">
         <f>IF(results!G6=1,VLOOKUP(results!E6,teams!A$2:C$69,1,FALSE),IF(results!G6=2,VLOOKUP(results!F6,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Villanova</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <f>IF(results!G6=2,VLOOKUP(results!E6,teams!A$2:C$69,3,FALSE),IF(results!G6=1,VLOOKUP(results!F6,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1248</v>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="13" t="str">
         <f>IF(results!G6=2,VLOOKUP(results!E6,teams!A$2:C$69,1,FALSE),IF(results!G6=1,VLOOKUP(results!F6,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#16 Lafayette</v>
       </c>
-      <c r="F6" s="14" t="str">
+      <c r="F6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1248_1437</v>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="H6" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1248_1437,0</v>
       </c>
@@ -6180,31 +6184,31 @@
         <f>results!B22</f>
         <v>R1W2</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <f>IF(results!G22=1,VLOOKUP(results!E22,teams!A$2:C$69,3,FALSE),IF(results!G22=2,VLOOKUP(results!F22,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1438</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="13" t="str">
         <f>IF(results!G22=1,VLOOKUP(results!E22,teams!A$2:C$69,1,FALSE),IF(results!G22=2,VLOOKUP(results!F22,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#2 Virginia</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <f>IF(results!G22=2,VLOOKUP(results!E22,teams!A$2:C$69,3,FALSE),IF(results!G22=1,VLOOKUP(results!F22,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1125</v>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="13" t="str">
         <f>IF(results!G22=2,VLOOKUP(results!E22,teams!A$2:C$69,1,FALSE),IF(results!G22=1,VLOOKUP(results!F22,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#15 Belmont</v>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="F7" s="13" t="str">
         <f t="shared" ref="F7:F12" si="3">IF(B7=D7,"",IF(B7&lt;D7,"2015_"&amp;B7&amp;"_"&amp;D7,"2015_"&amp;D7&amp;"_"&amp;B7))</f>
         <v>2015_1125_1438</v>
       </c>
-      <c r="G7" s="14" t="str">
+      <c r="G7" s="13" t="str">
         <f t="shared" ref="G7:G12" si="4">IF(B7=D7,"",IF(B7&lt;D7,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="14" t="str">
+      <c r="H7" s="13" t="str">
         <f t="shared" ref="H7:H12" si="5">IF(B7=D7,"",IF(B7&lt;D7,"2015_"&amp;B7&amp;"_"&amp;D7&amp;",1","2015_"&amp;D7&amp;"_"&amp;B7&amp;",0"))</f>
         <v>2015_1125_1438,0</v>
       </c>
@@ -6214,31 +6218,31 @@
         <f>results!B23</f>
         <v>R1W3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <f>IF(results!G23=1,VLOOKUP(results!E23,teams!A$2:C$69,3,FALSE),IF(results!G23=2,VLOOKUP(results!F23,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1328</v>
       </c>
-      <c r="C8" s="14" t="str">
+      <c r="C8" s="13" t="str">
         <f>IF(results!G23=1,VLOOKUP(results!E23,teams!A$2:C$69,1,FALSE),IF(results!G23=2,VLOOKUP(results!F23,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#3 Oklahoma</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <f>IF(results!G23=2,VLOOKUP(results!E23,teams!A$2:C$69,3,FALSE),IF(results!G23=1,VLOOKUP(results!F23,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1107</v>
       </c>
-      <c r="E8" s="14" t="str">
+      <c r="E8" s="13" t="str">
         <f>IF(results!G23=2,VLOOKUP(results!E23,teams!A$2:C$69,1,FALSE),IF(results!G23=1,VLOOKUP(results!F23,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#14 Albany NY</v>
       </c>
-      <c r="F8" s="14" t="str">
+      <c r="F8" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2015_1107_1328</v>
       </c>
-      <c r="G8" s="14" t="str">
+      <c r="G8" s="13" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H8" s="14" t="str">
+      <c r="H8" s="13" t="str">
         <f t="shared" si="5"/>
         <v>2015_1107_1328,0</v>
       </c>
@@ -6248,31 +6252,31 @@
         <f>results!B24</f>
         <v>R1W4</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <f>IF(results!G24=1,VLOOKUP(results!E24,teams!A$2:C$69,3,FALSE),IF(results!G24=2,VLOOKUP(results!F24,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1257</v>
       </c>
-      <c r="C9" s="14" t="str">
+      <c r="C9" s="13" t="str">
         <f>IF(results!G24=1,VLOOKUP(results!E24,teams!A$2:C$69,1,FALSE),IF(results!G24=2,VLOOKUP(results!F24,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#4 Louisville</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f>IF(results!G24=2,VLOOKUP(results!E24,teams!A$2:C$69,3,FALSE),IF(results!G24=1,VLOOKUP(results!F24,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1414</v>
       </c>
-      <c r="E9" s="14" t="str">
+      <c r="E9" s="13" t="str">
         <f>IF(results!G24=2,VLOOKUP(results!E24,teams!A$2:C$69,1,FALSE),IF(results!G24=1,VLOOKUP(results!F24,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#13 UC Irvine</v>
       </c>
-      <c r="F9" s="14" t="str">
+      <c r="F9" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2015_1257_1414</v>
       </c>
-      <c r="G9" s="14" t="str">
+      <c r="G9" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H9" s="14" t="str">
+      <c r="H9" s="13" t="str">
         <f t="shared" si="5"/>
         <v>2015_1257_1414,1</v>
       </c>
@@ -6282,31 +6286,31 @@
         <f>results!B25</f>
         <v>R1W5</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <f>IF(results!G25=1,VLOOKUP(results!E25,teams!A$2:C$69,3,FALSE),IF(results!G25=2,VLOOKUP(results!F25,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1320</v>
       </c>
-      <c r="C10" s="14" t="str">
+      <c r="C10" s="13" t="str">
         <f>IF(results!G25=1,VLOOKUP(results!E25,teams!A$2:C$69,1,FALSE),IF(results!G25=2,VLOOKUP(results!F25,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#5 Northern Iowa</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f>IF(results!G25=2,VLOOKUP(results!E25,teams!A$2:C$69,3,FALSE),IF(results!G25=1,VLOOKUP(results!F25,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1461</v>
       </c>
-      <c r="E10" s="14" t="str">
+      <c r="E10" s="13" t="str">
         <f>IF(results!G25=2,VLOOKUP(results!E25,teams!A$2:C$69,1,FALSE),IF(results!G25=1,VLOOKUP(results!F25,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#12 Wyoming</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2015_1320_1461</v>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="13" t="str">
         <f t="shared" si="5"/>
         <v>2015_1320_1461,1</v>
       </c>
@@ -6316,31 +6320,31 @@
         <f>results!B26</f>
         <v>R1W6</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <f>IF(results!G26=1,VLOOKUP(results!E26,teams!A$2:C$69,3,FALSE),IF(results!G26=2,VLOOKUP(results!F26,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1173</v>
       </c>
-      <c r="C11" s="14" t="str">
+      <c r="C11" s="13" t="str">
         <f>IF(results!G26=1,VLOOKUP(results!E26,teams!A$2:C$69,1,FALSE),IF(results!G26=2,VLOOKUP(results!F26,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 Dayton</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f>IF(results!G26=2,VLOOKUP(results!E26,teams!A$2:C$69,3,FALSE),IF(results!G26=1,VLOOKUP(results!F26,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1344</v>
       </c>
-      <c r="E11" s="14" t="str">
+      <c r="E11" s="13" t="str">
         <f>IF(results!G26=2,VLOOKUP(results!E26,teams!A$2:C$69,1,FALSE),IF(results!G26=1,VLOOKUP(results!F26,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#6 Providence</v>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="F11" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2015_1173_1344</v>
       </c>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H11" s="14" t="str">
+      <c r="H11" s="13" t="str">
         <f t="shared" si="5"/>
         <v>2015_1173_1344,1</v>
       </c>
@@ -6350,31 +6354,31 @@
         <f>results!B27</f>
         <v>R1W7</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <f>IF(results!G27=1,VLOOKUP(results!E27,teams!A$2:C$69,3,FALSE),IF(results!G27=2,VLOOKUP(results!F27,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1277</v>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="C12" s="13" t="str">
         <f>IF(results!G27=1,VLOOKUP(results!E27,teams!A$2:C$69,1,FALSE),IF(results!G27=2,VLOOKUP(results!F27,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#7 Michigan St</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f>IF(results!G27=2,VLOOKUP(results!E27,teams!A$2:C$69,3,FALSE),IF(results!G27=1,VLOOKUP(results!F27,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1208</v>
       </c>
-      <c r="E12" s="14" t="str">
+      <c r="E12" s="13" t="str">
         <f>IF(results!G27=2,VLOOKUP(results!E27,teams!A$2:C$69,1,FALSE),IF(results!G27=1,VLOOKUP(results!F27,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#10 Georgia</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="13" t="str">
         <f t="shared" si="3"/>
         <v>2015_1208_1277</v>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="13" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="13" t="str">
         <f t="shared" si="5"/>
         <v>2015_1208_1277,0</v>
       </c>
@@ -6384,31 +6388,31 @@
         <f>results!B7</f>
         <v>R1W8</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <f>IF(results!G7=1,VLOOKUP(results!E7,teams!A$2:C$69,3,FALSE),IF(results!G7=2,VLOOKUP(results!F7,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1301</v>
       </c>
-      <c r="C13" s="14" t="str">
+      <c r="C13" s="13" t="str">
         <f>IF(results!G7=1,VLOOKUP(results!E7,teams!A$2:C$69,1,FALSE),IF(results!G7=2,VLOOKUP(results!F7,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#8 NC State</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <f>IF(results!G7=2,VLOOKUP(results!E7,teams!A$2:C$69,3,FALSE),IF(results!G7=1,VLOOKUP(results!F7,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1261</v>
       </c>
-      <c r="E13" s="14" t="str">
+      <c r="E13" s="13" t="str">
         <f>IF(results!G7=2,VLOOKUP(results!E7,teams!A$2:C$69,1,FALSE),IF(results!G7=1,VLOOKUP(results!F7,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#9 LSU</v>
       </c>
-      <c r="F13" s="14" t="str">
+      <c r="F13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1261_1301</v>
       </c>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="14" t="str">
+      <c r="H13" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1261_1301,0</v>
       </c>
@@ -6418,31 +6422,31 @@
         <f>results!B28</f>
         <v>R1X1</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <f>IF(results!G28=1,VLOOKUP(results!E28,teams!A$2:C$69,3,FALSE),IF(results!G28=2,VLOOKUP(results!F28,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1181</v>
       </c>
-      <c r="C14" s="14" t="str">
+      <c r="C14" s="13" t="str">
         <f>IF(results!G28=1,VLOOKUP(results!E28,teams!A$2:C$69,1,FALSE),IF(results!G28=2,VLOOKUP(results!F28,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Duke</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <f>IF(results!G28=2,VLOOKUP(results!E28,teams!A$2:C$69,3,FALSE),IF(results!G28=1,VLOOKUP(results!F28,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1352</v>
       </c>
-      <c r="E14" s="14" t="str">
+      <c r="E14" s="13" t="str">
         <f>IF(results!G28=2,VLOOKUP(results!E28,teams!A$2:C$69,1,FALSE),IF(results!G28=1,VLOOKUP(results!F28,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#16 Robert Morris</v>
       </c>
-      <c r="F14" s="14" t="str">
+      <c r="F14" s="13" t="str">
         <f>IF(B14=D14,"",IF(B14&lt;D14,"2015_"&amp;B14&amp;"_"&amp;D14,"2015_"&amp;D14&amp;"_"&amp;B14))</f>
         <v>2015_1181_1352</v>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="13" t="str">
         <f>IF(B14=D14,"",IF(B14&lt;D14,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="13" t="str">
         <f>IF(B14=D14,"",IF(B14&lt;D14,"2015_"&amp;B14&amp;"_"&amp;D14&amp;",1","2015_"&amp;D14&amp;"_"&amp;B14&amp;",0"))</f>
         <v>2015_1181_1352,1</v>
       </c>
@@ -6452,31 +6456,31 @@
         <f>results!B29</f>
         <v>R1X2</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <f>IF(results!G29=1,VLOOKUP(results!E29,teams!A$2:C$69,3,FALSE),IF(results!G29=2,VLOOKUP(results!F29,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1211</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="13" t="str">
         <f>IF(results!G29=1,VLOOKUP(results!E29,teams!A$2:C$69,1,FALSE),IF(results!G29=2,VLOOKUP(results!F29,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#2 Gonzaga</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <f>IF(results!G29=2,VLOOKUP(results!E29,teams!A$2:C$69,3,FALSE),IF(results!G29=1,VLOOKUP(results!F29,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1295</v>
       </c>
-      <c r="E15" s="14" t="str">
+      <c r="E15" s="13" t="str">
         <f>IF(results!G29=2,VLOOKUP(results!E29,teams!A$2:C$69,1,FALSE),IF(results!G29=1,VLOOKUP(results!F29,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#15 N Dakota St</v>
       </c>
-      <c r="F15" s="14" t="str">
+      <c r="F15" s="13" t="str">
         <f>IF(B15=D15,"",IF(B15&lt;D15,"2015_"&amp;B15&amp;"_"&amp;D15,"2015_"&amp;D15&amp;"_"&amp;B15))</f>
         <v>2015_1211_1295</v>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="13" t="str">
         <f>IF(B15=D15,"",IF(B15&lt;D15,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="13" t="str">
         <f>IF(B15=D15,"",IF(B15&lt;D15,"2015_"&amp;B15&amp;"_"&amp;D15&amp;",1","2015_"&amp;D15&amp;"_"&amp;B15&amp;",0"))</f>
         <v>2015_1211_1295,1</v>
       </c>
@@ -6486,31 +6490,31 @@
         <f>results!B8</f>
         <v>R1X3</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <f>IF(results!G8=1,VLOOKUP(results!E8,teams!A$2:C$69,3,FALSE),IF(results!G8=2,VLOOKUP(results!F8,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1412</v>
       </c>
-      <c r="C16" s="14" t="str">
+      <c r="C16" s="13" t="str">
         <f>IF(results!G8=1,VLOOKUP(results!E8,teams!A$2:C$69,1,FALSE),IF(results!G8=2,VLOOKUP(results!F8,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#14 UAB</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <f>IF(results!G8=2,VLOOKUP(results!E8,teams!A$2:C$69,3,FALSE),IF(results!G8=1,VLOOKUP(results!F8,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1235</v>
       </c>
-      <c r="E16" s="14" t="str">
+      <c r="E16" s="13" t="str">
         <f>IF(results!G8=2,VLOOKUP(results!E8,teams!A$2:C$69,1,FALSE),IF(results!G8=1,VLOOKUP(results!F8,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#3 Iowa St</v>
       </c>
-      <c r="F16" s="14" t="str">
+      <c r="F16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1235_1412</v>
       </c>
-      <c r="G16" s="14" t="str">
+      <c r="G16" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="14" t="str">
+      <c r="H16" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1235_1412,0</v>
       </c>
@@ -6520,31 +6524,31 @@
         <f>results!B9</f>
         <v>R1X4</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <f>IF(results!G9=1,VLOOKUP(results!E9,teams!A$2:C$69,3,FALSE),IF(results!G9=2,VLOOKUP(results!F9,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1207</v>
       </c>
-      <c r="C17" s="14" t="str">
+      <c r="C17" s="13" t="str">
         <f>IF(results!G9=1,VLOOKUP(results!E9,teams!A$2:C$69,1,FALSE),IF(results!G9=2,VLOOKUP(results!F9,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#4 Georgetown</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <f>IF(results!G9=2,VLOOKUP(results!E9,teams!A$2:C$69,3,FALSE),IF(results!G9=1,VLOOKUP(results!F9,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1186</v>
       </c>
-      <c r="E17" s="14" t="str">
+      <c r="E17" s="13" t="str">
         <f>IF(results!G9=2,VLOOKUP(results!E9,teams!A$2:C$69,1,FALSE),IF(results!G9=1,VLOOKUP(results!F9,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#13 E Washington</v>
       </c>
-      <c r="F17" s="14" t="str">
+      <c r="F17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1186_1207</v>
       </c>
-      <c r="G17" s="14" t="str">
+      <c r="G17" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="H17" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1186_1207,0</v>
       </c>
@@ -6554,31 +6558,31 @@
         <f>results!B10</f>
         <v>R1X5</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <f>IF(results!G10=1,VLOOKUP(results!E10,teams!A$2:C$69,3,FALSE),IF(results!G10=2,VLOOKUP(results!F10,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1428</v>
       </c>
-      <c r="C18" s="14" t="str">
+      <c r="C18" s="13" t="str">
         <f>IF(results!G10=1,VLOOKUP(results!E10,teams!A$2:C$69,1,FALSE),IF(results!G10=2,VLOOKUP(results!F10,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#5 Utah</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <f>IF(results!G10=2,VLOOKUP(results!E10,teams!A$2:C$69,3,FALSE),IF(results!G10=1,VLOOKUP(results!F10,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1372</v>
       </c>
-      <c r="E18" s="14" t="str">
+      <c r="E18" s="13" t="str">
         <f>IF(results!G10=2,VLOOKUP(results!E10,teams!A$2:C$69,1,FALSE),IF(results!G10=1,VLOOKUP(results!F10,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#12 SF Austin</v>
       </c>
-      <c r="F18" s="14" t="str">
+      <c r="F18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1372_1428</v>
       </c>
-      <c r="G18" s="14" t="str">
+      <c r="G18" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="14" t="str">
+      <c r="H18" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1372_1428,0</v>
       </c>
@@ -6588,31 +6592,31 @@
         <f>results!B11</f>
         <v>R1X6</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <f>IF(results!G11=1,VLOOKUP(results!E11,teams!A$2:C$69,3,FALSE),IF(results!G11=2,VLOOKUP(results!F11,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1417</v>
       </c>
-      <c r="C19" s="14" t="str">
+      <c r="C19" s="13" t="str">
         <f>IF(results!G11=1,VLOOKUP(results!E11,teams!A$2:C$69,1,FALSE),IF(results!G11=2,VLOOKUP(results!F11,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 UCLA</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <f>IF(results!G11=2,VLOOKUP(results!E11,teams!A$2:C$69,3,FALSE),IF(results!G11=1,VLOOKUP(results!F11,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1374</v>
       </c>
-      <c r="E19" s="14" t="str">
+      <c r="E19" s="13" t="str">
         <f>IF(results!G11=2,VLOOKUP(results!E11,teams!A$2:C$69,1,FALSE),IF(results!G11=1,VLOOKUP(results!F11,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#6 SMU</v>
       </c>
-      <c r="F19" s="14" t="str">
+      <c r="F19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1374_1417</v>
       </c>
-      <c r="G19" s="14" t="str">
+      <c r="G19" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="14" t="str">
+      <c r="H19" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1374_1417,0</v>
       </c>
@@ -6622,31 +6626,31 @@
         <f>results!B30</f>
         <v>R1X7</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <f>IF(results!G30=1,VLOOKUP(results!E30,teams!A$2:C$69,3,FALSE),IF(results!G30=2,VLOOKUP(results!F30,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1234</v>
       </c>
-      <c r="C20" s="14" t="str">
+      <c r="C20" s="13" t="str">
         <f>IF(results!G30=1,VLOOKUP(results!E30,teams!A$2:C$69,1,FALSE),IF(results!G30=2,VLOOKUP(results!F30,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#7 Iowa</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <f>IF(results!G30=2,VLOOKUP(results!E30,teams!A$2:C$69,3,FALSE),IF(results!G30=1,VLOOKUP(results!F30,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1172</v>
       </c>
-      <c r="E20" s="14" t="str">
+      <c r="E20" s="13" t="str">
         <f>IF(results!G30=2,VLOOKUP(results!E30,teams!A$2:C$69,1,FALSE),IF(results!G30=1,VLOOKUP(results!F30,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#10 Davidson</v>
       </c>
-      <c r="F20" s="14" t="str">
+      <c r="F20" s="13" t="str">
         <f>IF(B20=D20,"",IF(B20&lt;D20,"2015_"&amp;B20&amp;"_"&amp;D20,"2015_"&amp;D20&amp;"_"&amp;B20))</f>
         <v>2015_1172_1234</v>
       </c>
-      <c r="G20" s="14" t="str">
+      <c r="G20" s="13" t="str">
         <f>IF(B20=D20,"",IF(B20&lt;D20,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="13" t="str">
         <f>IF(B20=D20,"",IF(B20&lt;D20,"2015_"&amp;B20&amp;"_"&amp;D20&amp;",1","2015_"&amp;D20&amp;"_"&amp;B20&amp;",0"))</f>
         <v>2015_1172_1234,0</v>
       </c>
@@ -6656,31 +6660,31 @@
         <f>results!B31</f>
         <v>R1X8</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <f>IF(results!G31=1,VLOOKUP(results!E31,teams!A$2:C$69,3,FALSE),IF(results!G31=2,VLOOKUP(results!F31,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1361</v>
       </c>
-      <c r="C21" s="14" t="str">
+      <c r="C21" s="13" t="str">
         <f>IF(results!G31=1,VLOOKUP(results!E31,teams!A$2:C$69,1,FALSE),IF(results!G31=2,VLOOKUP(results!F31,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#8 San Diego St</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <f>IF(results!G31=2,VLOOKUP(results!E31,teams!A$2:C$69,3,FALSE),IF(results!G31=1,VLOOKUP(results!F31,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1385</v>
       </c>
-      <c r="E21" s="14" t="str">
+      <c r="E21" s="13" t="str">
         <f>IF(results!G31=2,VLOOKUP(results!E31,teams!A$2:C$69,1,FALSE),IF(results!G31=1,VLOOKUP(results!F31,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#9 St John's</v>
       </c>
-      <c r="F21" s="14" t="str">
+      <c r="F21" s="13" t="str">
         <f>IF(B21=D21,"",IF(B21&lt;D21,"2015_"&amp;B21&amp;"_"&amp;D21,"2015_"&amp;D21&amp;"_"&amp;B21))</f>
         <v>2015_1361_1385</v>
       </c>
-      <c r="G21" s="14" t="str">
+      <c r="G21" s="13" t="str">
         <f>IF(B21=D21,"",IF(B21&lt;D21,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H21" s="14" t="str">
+      <c r="H21" s="13" t="str">
         <f>IF(B21=D21,"",IF(B21&lt;D21,"2015_"&amp;B21&amp;"_"&amp;D21&amp;",1","2015_"&amp;D21&amp;"_"&amp;B21&amp;",0"))</f>
         <v>2015_1361_1385,1</v>
       </c>
@@ -6690,31 +6694,31 @@
         <f>results!B12</f>
         <v>R1Y1</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <f>IF(results!G12=1,VLOOKUP(results!E12,teams!A$2:C$69,3,FALSE),IF(results!G12=2,VLOOKUP(results!F12,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1246</v>
       </c>
-      <c r="C22" s="14" t="str">
+      <c r="C22" s="13" t="str">
         <f>IF(results!G12=1,VLOOKUP(results!E12,teams!A$2:C$69,1,FALSE),IF(results!G12=2,VLOOKUP(results!F12,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Kentucky</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <f>IF(results!G12=2,VLOOKUP(results!E12,teams!A$2:C$69,3,FALSE),IF(results!G12=1,VLOOKUP(results!F12,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1214</v>
       </c>
-      <c r="E22" s="14" t="str">
+      <c r="E22" s="13" t="str">
         <f>IF(results!G12=2,VLOOKUP(results!E12,teams!A$2:C$69,1,FALSE),IF(results!G12=1,VLOOKUP(results!F12,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#16 Hampton</v>
       </c>
-      <c r="F22" s="14" t="str">
+      <c r="F22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1214_1246</v>
       </c>
-      <c r="G22" s="14" t="str">
+      <c r="G22" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1214_1246,0</v>
       </c>
@@ -6724,31 +6728,31 @@
         <f>results!B32</f>
         <v>R1Y2</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <f>IF(results!G32=1,VLOOKUP(results!E32,teams!A$2:C$69,3,FALSE),IF(results!G32=2,VLOOKUP(results!F32,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1242</v>
       </c>
-      <c r="C23" s="14" t="str">
+      <c r="C23" s="13" t="str">
         <f>IF(results!G32=1,VLOOKUP(results!E32,teams!A$2:C$69,1,FALSE),IF(results!G32=2,VLOOKUP(results!F32,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#2 Kansas</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <f>IF(results!G32=2,VLOOKUP(results!E32,teams!A$2:C$69,3,FALSE),IF(results!G32=1,VLOOKUP(results!F32,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1308</v>
       </c>
-      <c r="E23" s="14" t="str">
+      <c r="E23" s="13" t="str">
         <f>IF(results!G32=2,VLOOKUP(results!E32,teams!A$2:C$69,1,FALSE),IF(results!G32=1,VLOOKUP(results!F32,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#15 New Mexico St</v>
       </c>
-      <c r="F23" s="14" t="str">
+      <c r="F23" s="13" t="str">
         <f>IF(B23=D23,"",IF(B23&lt;D23,"2015_"&amp;B23&amp;"_"&amp;D23,"2015_"&amp;D23&amp;"_"&amp;B23))</f>
         <v>2015_1242_1308</v>
       </c>
-      <c r="G23" s="14" t="str">
+      <c r="G23" s="13" t="str">
         <f>IF(B23=D23,"",IF(B23&lt;D23,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H23" s="14" t="str">
+      <c r="H23" s="13" t="str">
         <f>IF(B23=D23,"",IF(B23&lt;D23,"2015_"&amp;B23&amp;"_"&amp;D23&amp;",1","2015_"&amp;D23&amp;"_"&amp;B23&amp;",0"))</f>
         <v>2015_1242_1308,1</v>
       </c>
@@ -6758,31 +6762,31 @@
         <f>results!B13</f>
         <v>R1Y3</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <f>IF(results!G13=1,VLOOKUP(results!E13,teams!A$2:C$69,3,FALSE),IF(results!G13=2,VLOOKUP(results!F13,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1323</v>
       </c>
-      <c r="C24" s="14" t="str">
+      <c r="C24" s="13" t="str">
         <f>IF(results!G13=1,VLOOKUP(results!E13,teams!A$2:C$69,1,FALSE),IF(results!G13=2,VLOOKUP(results!F13,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#3 Notre Dame</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <f>IF(results!G13=2,VLOOKUP(results!E13,teams!A$2:C$69,3,FALSE),IF(results!G13=1,VLOOKUP(results!F13,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1318</v>
       </c>
-      <c r="E24" s="14" t="str">
+      <c r="E24" s="13" t="str">
         <f>IF(results!G13=2,VLOOKUP(results!E13,teams!A$2:C$69,1,FALSE),IF(results!G13=1,VLOOKUP(results!F13,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#14 Northeastern</v>
       </c>
-      <c r="F24" s="14" t="str">
+      <c r="F24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1318_1323</v>
       </c>
-      <c r="G24" s="14" t="str">
+      <c r="G24" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="14" t="str">
+      <c r="H24" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1318_1323,0</v>
       </c>
@@ -6792,31 +6796,31 @@
         <f>results!B33</f>
         <v>R1Y4</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <f>IF(results!G33=1,VLOOKUP(results!E33,teams!A$2:C$69,3,FALSE),IF(results!G33=2,VLOOKUP(results!F33,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1268</v>
       </c>
-      <c r="C25" s="14" t="str">
+      <c r="C25" s="13" t="str">
         <f>IF(results!G33=1,VLOOKUP(results!E33,teams!A$2:C$69,1,FALSE),IF(results!G33=2,VLOOKUP(results!F33,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#4 Maryland</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <f>IF(results!G33=2,VLOOKUP(results!E33,teams!A$2:C$69,3,FALSE),IF(results!G33=1,VLOOKUP(results!F33,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1434</v>
       </c>
-      <c r="E25" s="14" t="str">
+      <c r="E25" s="13" t="str">
         <f>IF(results!G33=2,VLOOKUP(results!E33,teams!A$2:C$69,1,FALSE),IF(results!G33=1,VLOOKUP(results!F33,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#13 Valparaiso</v>
       </c>
-      <c r="F25" s="14" t="str">
+      <c r="F25" s="13" t="str">
         <f>IF(B25=D25,"",IF(B25&lt;D25,"2015_"&amp;B25&amp;"_"&amp;D25,"2015_"&amp;D25&amp;"_"&amp;B25))</f>
         <v>2015_1268_1434</v>
       </c>
-      <c r="G25" s="14" t="str">
+      <c r="G25" s="13" t="str">
         <f>IF(B25=D25,"",IF(B25&lt;D25,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H25" s="14" t="str">
+      <c r="H25" s="13" t="str">
         <f>IF(B25=D25,"",IF(B25&lt;D25,"2015_"&amp;B25&amp;"_"&amp;D25&amp;",1","2015_"&amp;D25&amp;"_"&amp;B25&amp;",0"))</f>
         <v>2015_1268_1434,1</v>
       </c>
@@ -6826,31 +6830,31 @@
         <f>results!B34</f>
         <v>R1Y5</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <f>IF(results!G34=1,VLOOKUP(results!E34,teams!A$2:C$69,3,FALSE),IF(results!G34=2,VLOOKUP(results!F34,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1452</v>
       </c>
-      <c r="C26" s="14" t="str">
+      <c r="C26" s="13" t="str">
         <f>IF(results!G34=1,VLOOKUP(results!E34,teams!A$2:C$69,1,FALSE),IF(results!G34=2,VLOOKUP(results!F34,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#5 West Virginia</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <f>IF(results!G34=2,VLOOKUP(results!E34,teams!A$2:C$69,3,FALSE),IF(results!G34=1,VLOOKUP(results!F34,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1138</v>
       </c>
-      <c r="E26" s="14" t="str">
+      <c r="E26" s="13" t="str">
         <f>IF(results!G34=2,VLOOKUP(results!E34,teams!A$2:C$69,1,FALSE),IF(results!G34=1,VLOOKUP(results!F34,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#12 Buffalo</v>
       </c>
-      <c r="F26" s="14" t="str">
+      <c r="F26" s="13" t="str">
         <f>IF(B26=D26,"",IF(B26&lt;D26,"2015_"&amp;B26&amp;"_"&amp;D26,"2015_"&amp;D26&amp;"_"&amp;B26))</f>
         <v>2015_1138_1452</v>
       </c>
-      <c r="G26" s="14" t="str">
+      <c r="G26" s="13" t="str">
         <f>IF(B26=D26,"",IF(B26&lt;D26,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H26" s="14" t="str">
+      <c r="H26" s="13" t="str">
         <f>IF(B26=D26,"",IF(B26&lt;D26,"2015_"&amp;B26&amp;"_"&amp;D26&amp;",1","2015_"&amp;D26&amp;"_"&amp;B26&amp;",0"))</f>
         <v>2015_1138_1452,0</v>
       </c>
@@ -6860,31 +6864,31 @@
         <f>results!B14</f>
         <v>R1Y6</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <f>IF(results!G14=1,VLOOKUP(results!E14,teams!A$2:C$69,3,FALSE),IF(results!G14=2,VLOOKUP(results!F14,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1139</v>
       </c>
-      <c r="C27" s="14" t="str">
+      <c r="C27" s="13" t="str">
         <f>IF(results!G14=1,VLOOKUP(results!E14,teams!A$2:C$69,1,FALSE),IF(results!G14=2,VLOOKUP(results!F14,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#6 Butler</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <f>IF(results!G14=2,VLOOKUP(results!E14,teams!A$2:C$69,3,FALSE),IF(results!G14=1,VLOOKUP(results!F14,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1400</v>
       </c>
-      <c r="E27" s="14" t="str">
+      <c r="E27" s="13" t="str">
         <f>IF(results!G14=2,VLOOKUP(results!E14,teams!A$2:C$69,1,FALSE),IF(results!G14=1,VLOOKUP(results!F14,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 Texas</v>
       </c>
-      <c r="F27" s="14" t="str">
+      <c r="F27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1139_1400</v>
       </c>
-      <c r="G27" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="14" t="str">
+      <c r="G27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1139_1400,1</v>
       </c>
@@ -6894,31 +6898,31 @@
         <f>results!B35</f>
         <v>R1Y7</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <f>IF(results!G35=1,VLOOKUP(results!E35,teams!A$2:C$69,3,FALSE),IF(results!G35=2,VLOOKUP(results!F35,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1455</v>
       </c>
-      <c r="C28" s="14" t="str">
+      <c r="C28" s="13" t="str">
         <f>IF(results!G35=1,VLOOKUP(results!E35,teams!A$2:C$69,1,FALSE),IF(results!G35=2,VLOOKUP(results!F35,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#7 Wichita St</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <f>IF(results!G35=2,VLOOKUP(results!E35,teams!A$2:C$69,3,FALSE),IF(results!G35=1,VLOOKUP(results!F35,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1231</v>
       </c>
-      <c r="E28" s="14" t="str">
+      <c r="E28" s="13" t="str">
         <f>IF(results!G35=2,VLOOKUP(results!E35,teams!A$2:C$69,1,FALSE),IF(results!G35=1,VLOOKUP(results!F35,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#10 Indiana</v>
       </c>
-      <c r="F28" s="14" t="str">
+      <c r="F28" s="13" t="str">
         <f>IF(B28=D28,"",IF(B28&lt;D28,"2015_"&amp;B28&amp;"_"&amp;D28,"2015_"&amp;D28&amp;"_"&amp;B28))</f>
         <v>2015_1231_1455</v>
       </c>
-      <c r="G28" s="14" t="str">
+      <c r="G28" s="13" t="str">
         <f>IF(B28=D28,"",IF(B28&lt;D28,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H28" s="14" t="str">
+      <c r="H28" s="13" t="str">
         <f>IF(B28=D28,"",IF(B28&lt;D28,"2015_"&amp;B28&amp;"_"&amp;D28&amp;",1","2015_"&amp;D28&amp;"_"&amp;B28&amp;",0"))</f>
         <v>2015_1231_1455,0</v>
       </c>
@@ -6928,31 +6932,31 @@
         <f>results!B15</f>
         <v>R1Y8</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <f>IF(results!G15=1,VLOOKUP(results!E15,teams!A$2:C$69,3,FALSE),IF(results!G15=2,VLOOKUP(results!F15,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1153</v>
       </c>
-      <c r="C29" s="14" t="str">
+      <c r="C29" s="13" t="str">
         <f>IF(results!G15=1,VLOOKUP(results!E15,teams!A$2:C$69,1,FALSE),IF(results!G15=2,VLOOKUP(results!F15,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#8 Cincinnati</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <f>IF(results!G15=2,VLOOKUP(results!E15,teams!A$2:C$69,3,FALSE),IF(results!G15=1,VLOOKUP(results!F15,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1345</v>
       </c>
-      <c r="E29" s="14" t="str">
+      <c r="E29" s="13" t="str">
         <f>IF(results!G15=2,VLOOKUP(results!E15,teams!A$2:C$69,1,FALSE),IF(results!G15=1,VLOOKUP(results!F15,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#9 Purdue</v>
       </c>
-      <c r="F29" s="14" t="str">
+      <c r="F29" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1153_1345</v>
       </c>
-      <c r="G29" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H29" s="14" t="str">
+      <c r="G29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1153_1345,1</v>
       </c>
@@ -6962,31 +6966,31 @@
         <f>results!B36</f>
         <v>R1Z1</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <f>IF(results!G36=1,VLOOKUP(results!E36,teams!A$2:C$69,3,FALSE),IF(results!G36=2,VLOOKUP(results!F36,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1458</v>
       </c>
-      <c r="C30" s="14" t="str">
+      <c r="C30" s="13" t="str">
         <f>IF(results!G36=1,VLOOKUP(results!E36,teams!A$2:C$69,1,FALSE),IF(results!G36=2,VLOOKUP(results!F36,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Wisconsin</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <f>IF(results!G36=2,VLOOKUP(results!E36,teams!A$2:C$69,3,FALSE),IF(results!G36=1,VLOOKUP(results!F36,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1157</v>
       </c>
-      <c r="E30" s="14" t="str">
+      <c r="E30" s="13" t="str">
         <f>IF(results!G36=2,VLOOKUP(results!E36,teams!A$2:C$69,1,FALSE),IF(results!G36=1,VLOOKUP(results!F36,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#16 Coastal Car</v>
       </c>
-      <c r="F30" s="14" t="str">
+      <c r="F30" s="13" t="str">
         <f>IF(B30=D30,"",IF(B30&lt;D30,"2015_"&amp;B30&amp;"_"&amp;D30,"2015_"&amp;D30&amp;"_"&amp;B30))</f>
         <v>2015_1157_1458</v>
       </c>
-      <c r="G30" s="14" t="str">
+      <c r="G30" s="13" t="str">
         <f>IF(B30=D30,"",IF(B30&lt;D30,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H30" s="14" t="str">
+      <c r="H30" s="13" t="str">
         <f>IF(B30=D30,"",IF(B30&lt;D30,"2015_"&amp;B30&amp;"_"&amp;D30&amp;",1","2015_"&amp;D30&amp;"_"&amp;B30&amp;",0"))</f>
         <v>2015_1157_1458,0</v>
       </c>
@@ -6996,31 +7000,31 @@
         <f>results!B16</f>
         <v>R1Z2</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <f>IF(results!G16=1,VLOOKUP(results!E16,teams!A$2:C$69,3,FALSE),IF(results!G16=2,VLOOKUP(results!F16,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1112</v>
       </c>
-      <c r="C31" s="14" t="str">
+      <c r="C31" s="13" t="str">
         <f>IF(results!G16=1,VLOOKUP(results!E16,teams!A$2:C$69,1,FALSE),IF(results!G16=2,VLOOKUP(results!F16,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#2 Arizona</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <f>IF(results!G16=2,VLOOKUP(results!E16,teams!A$2:C$69,3,FALSE),IF(results!G16=1,VLOOKUP(results!F16,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1411</v>
       </c>
-      <c r="E31" s="14" t="str">
+      <c r="E31" s="13" t="str">
         <f>IF(results!G16=2,VLOOKUP(results!E16,teams!A$2:C$69,1,FALSE),IF(results!G16=1,VLOOKUP(results!F16,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#15 TX Southern</v>
       </c>
-      <c r="F31" s="14" t="str">
+      <c r="F31" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1112_1411</v>
       </c>
-      <c r="G31" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="14" t="str">
+      <c r="G31" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1112_1411,1</v>
       </c>
@@ -7030,31 +7034,31 @@
         <f>results!B17</f>
         <v>R1Z3</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <f>IF(results!G17=1,VLOOKUP(results!E17,teams!A$2:C$69,3,FALSE),IF(results!G17=2,VLOOKUP(results!F17,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1209</v>
       </c>
-      <c r="C32" s="14" t="str">
+      <c r="C32" s="13" t="str">
         <f>IF(results!G17=1,VLOOKUP(results!E17,teams!A$2:C$69,1,FALSE),IF(results!G17=2,VLOOKUP(results!F17,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#14 Georgia St</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <f>IF(results!G17=2,VLOOKUP(results!E17,teams!A$2:C$69,3,FALSE),IF(results!G17=1,VLOOKUP(results!F17,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1124</v>
       </c>
-      <c r="E32" s="14" t="str">
+      <c r="E32" s="13" t="str">
         <f>IF(results!G17=2,VLOOKUP(results!E17,teams!A$2:C$69,1,FALSE),IF(results!G17=1,VLOOKUP(results!F17,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#3 Baylor</v>
       </c>
-      <c r="F32" s="14" t="str">
+      <c r="F32" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1124_1209</v>
       </c>
-      <c r="G32" s="14" t="str">
+      <c r="G32" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="14" t="str">
+      <c r="H32" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1124_1209,0</v>
       </c>
@@ -7064,31 +7068,31 @@
         <f>results!B18</f>
         <v>R1Z4</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <f>IF(results!G18=1,VLOOKUP(results!E18,teams!A$2:C$69,3,FALSE),IF(results!G18=2,VLOOKUP(results!F18,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1314</v>
       </c>
-      <c r="C33" s="14" t="str">
+      <c r="C33" s="13" t="str">
         <f>IF(results!G18=1,VLOOKUP(results!E18,teams!A$2:C$69,1,FALSE),IF(results!G18=2,VLOOKUP(results!F18,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#4 North Carolina</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <f>IF(results!G18=2,VLOOKUP(results!E18,teams!A$2:C$69,3,FALSE),IF(results!G18=1,VLOOKUP(results!F18,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1217</v>
       </c>
-      <c r="E33" s="14" t="str">
+      <c r="E33" s="13" t="str">
         <f>IF(results!G18=2,VLOOKUP(results!E18,teams!A$2:C$69,1,FALSE),IF(results!G18=1,VLOOKUP(results!F18,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#13 Harvard</v>
       </c>
-      <c r="F33" s="14" t="str">
+      <c r="F33" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1217_1314</v>
       </c>
-      <c r="G33" s="14" t="str">
+      <c r="G33" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="14" t="str">
+      <c r="H33" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1217_1314,0</v>
       </c>
@@ -7098,31 +7102,31 @@
         <f>results!B19</f>
         <v>R1Z5</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <f>IF(results!G19=1,VLOOKUP(results!E19,teams!A$2:C$69,3,FALSE),IF(results!G19=2,VLOOKUP(results!F19,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1116</v>
       </c>
-      <c r="C34" s="14" t="str">
+      <c r="C34" s="13" t="str">
         <f>IF(results!G19=1,VLOOKUP(results!E19,teams!A$2:C$69,1,FALSE),IF(results!G19=2,VLOOKUP(results!F19,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#5 Arkansas</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <f>IF(results!G19=2,VLOOKUP(results!E19,teams!A$2:C$69,3,FALSE),IF(results!G19=1,VLOOKUP(results!F19,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1459</v>
       </c>
-      <c r="E34" s="14" t="str">
+      <c r="E34" s="13" t="str">
         <f>IF(results!G19=2,VLOOKUP(results!E19,teams!A$2:C$69,1,FALSE),IF(results!G19=1,VLOOKUP(results!F19,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#12 Wofford</v>
       </c>
-      <c r="F34" s="14" t="str">
+      <c r="F34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1116_1459</v>
       </c>
-      <c r="G34" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="14" t="str">
+      <c r="G34" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1116_1459,1</v>
       </c>
@@ -7132,31 +7136,31 @@
         <f>results!B20</f>
         <v>R1Z6</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <f>IF(results!G20=1,VLOOKUP(results!E20,teams!A$2:C$69,3,FALSE),IF(results!G20=2,VLOOKUP(results!F20,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1462</v>
       </c>
-      <c r="C35" s="14" t="str">
+      <c r="C35" s="13" t="str">
         <f>IF(results!G20=1,VLOOKUP(results!E20,teams!A$2:C$69,1,FALSE),IF(results!G20=2,VLOOKUP(results!F20,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#6 Xavier</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <f>IF(results!G20=2,VLOOKUP(results!E20,teams!A$2:C$69,3,FALSE),IF(results!G20=1,VLOOKUP(results!F20,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1279</v>
       </c>
-      <c r="E35" s="14" t="str">
+      <c r="E35" s="13" t="str">
         <f>IF(results!G20=2,VLOOKUP(results!E20,teams!A$2:C$69,1,FALSE),IF(results!G20=1,VLOOKUP(results!F20,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 Mississippi</v>
       </c>
-      <c r="F35" s="14" t="str">
+      <c r="F35" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1279_1462</v>
       </c>
-      <c r="G35" s="14" t="str">
+      <c r="G35" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="14" t="str">
+      <c r="H35" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1279_1462,0</v>
       </c>
@@ -7166,31 +7170,31 @@
         <f>results!B21</f>
         <v>R1Z7</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <f>IF(results!G21=1,VLOOKUP(results!E21,teams!A$2:C$69,3,FALSE),IF(results!G21=2,VLOOKUP(results!F21,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1326</v>
       </c>
-      <c r="C36" s="14" t="str">
+      <c r="C36" s="13" t="str">
         <f>IF(results!G21=1,VLOOKUP(results!E21,teams!A$2:C$69,1,FALSE),IF(results!G21=2,VLOOKUP(results!F21,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#10 Ohio St</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <f>IF(results!G21=2,VLOOKUP(results!E21,teams!A$2:C$69,3,FALSE),IF(results!G21=1,VLOOKUP(results!F21,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1433</v>
       </c>
-      <c r="E36" s="14" t="str">
+      <c r="E36" s="13" t="str">
         <f>IF(results!G21=2,VLOOKUP(results!E21,teams!A$2:C$69,1,FALSE),IF(results!G21=1,VLOOKUP(results!F21,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#7 VA Commonwealth</v>
       </c>
-      <c r="F36" s="14" t="str">
+      <c r="F36" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1326_1433</v>
       </c>
-      <c r="G36" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="14" t="str">
+      <c r="G36" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1326_1433,1</v>
       </c>
@@ -7200,31 +7204,31 @@
         <f>results!B37</f>
         <v>R1Z8</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <f>IF(results!G37=1,VLOOKUP(results!E37,teams!A$2:C$69,3,FALSE),IF(results!G37=2,VLOOKUP(results!F37,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1332</v>
       </c>
-      <c r="C37" s="14" t="str">
+      <c r="C37" s="13" t="str">
         <f>IF(results!G37=1,VLOOKUP(results!E37,teams!A$2:C$69,1,FALSE),IF(results!G37=2,VLOOKUP(results!F37,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#8 Oregon</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <f>IF(results!G37=2,VLOOKUP(results!E37,teams!A$2:C$69,3,FALSE),IF(results!G37=1,VLOOKUP(results!F37,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1329</v>
       </c>
-      <c r="E37" s="14" t="str">
+      <c r="E37" s="13" t="str">
         <f>IF(results!G37=2,VLOOKUP(results!E37,teams!A$2:C$69,1,FALSE),IF(results!G37=1,VLOOKUP(results!F37,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#9 Oklahoma St</v>
       </c>
-      <c r="F37" s="14" t="str">
+      <c r="F37" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1329_1332</v>
       </c>
-      <c r="G37" s="14" t="str">
+      <c r="G37" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="14" t="str">
+      <c r="H37" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1329_1332,0</v>
       </c>
@@ -7234,31 +7238,31 @@
         <f>results!B38</f>
         <v>R2W1</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <f>IF(results!G38=1,VLOOKUP(results!E38,teams!A$2:C$69,3,FALSE),IF(results!G38=2,VLOOKUP(results!F38,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1301</v>
       </c>
-      <c r="C38" s="14" t="str">
+      <c r="C38" s="13" t="str">
         <f>IF(results!G38=1,VLOOKUP(results!E38,teams!A$2:C$69,1,FALSE),IF(results!G38=2,VLOOKUP(results!F38,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#8 NC State</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <f>IF(results!G38=2,VLOOKUP(results!E38,teams!A$2:C$69,3,FALSE),IF(results!G38=1,VLOOKUP(results!F38,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1437</v>
       </c>
-      <c r="E38" s="14" t="str">
+      <c r="E38" s="13" t="str">
         <f>IF(results!G38=2,VLOOKUP(results!E38,teams!A$2:C$69,1,FALSE),IF(results!G38=1,VLOOKUP(results!F38,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Villanova</v>
       </c>
-      <c r="F38" s="14" t="str">
+      <c r="F38" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1301_1437</v>
       </c>
-      <c r="G38" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H38" s="14" t="str">
+      <c r="G38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1301_1437,1</v>
       </c>
@@ -7268,31 +7272,31 @@
         <f>results!B46</f>
         <v>R2W2</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <f>IF(results!G46=1,VLOOKUP(results!E46,teams!A$2:C$69,3,FALSE),IF(results!G46=2,VLOOKUP(results!F46,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1277</v>
       </c>
-      <c r="C39" s="14" t="str">
+      <c r="C39" s="13" t="str">
         <f>IF(results!G46=1,VLOOKUP(results!E46,teams!A$2:C$69,1,FALSE),IF(results!G46=2,VLOOKUP(results!F46,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#7 Michigan St</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <f>IF(results!G46=2,VLOOKUP(results!E46,teams!A$2:C$69,3,FALSE),IF(results!G46=1,VLOOKUP(results!F46,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1438</v>
       </c>
-      <c r="E39" s="14" t="str">
+      <c r="E39" s="13" t="str">
         <f>IF(results!G46=2,VLOOKUP(results!E46,teams!A$2:C$69,1,FALSE),IF(results!G46=1,VLOOKUP(results!F46,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#2 Virginia</v>
       </c>
-      <c r="F39" s="14" t="str">
+      <c r="F39" s="13" t="str">
         <f>IF(B39=D39,"",IF(B39&lt;D39,"2015_"&amp;B39&amp;"_"&amp;D39,"2015_"&amp;D39&amp;"_"&amp;B39))</f>
         <v>2015_1277_1438</v>
       </c>
-      <c r="G39" s="14" t="str">
+      <c r="G39" s="13" t="str">
         <f>IF(B39=D39,"",IF(B39&lt;D39,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H39" s="14" t="str">
+      <c r="H39" s="13" t="str">
         <f>IF(B39=D39,"",IF(B39&lt;D39,"2015_"&amp;B39&amp;"_"&amp;D39&amp;",1","2015_"&amp;D39&amp;"_"&amp;B39&amp;",0"))</f>
         <v>2015_1277_1438,1</v>
       </c>
@@ -7302,31 +7306,31 @@
         <f>results!B47</f>
         <v>R2W3</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <f>IF(results!G47=1,VLOOKUP(results!E47,teams!A$2:C$69,3,FALSE),IF(results!G47=2,VLOOKUP(results!F47,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1328</v>
       </c>
-      <c r="C40" s="14" t="str">
+      <c r="C40" s="13" t="str">
         <f>IF(results!G47=1,VLOOKUP(results!E47,teams!A$2:C$69,1,FALSE),IF(results!G47=2,VLOOKUP(results!F47,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#3 Oklahoma</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <f>IF(results!G47=2,VLOOKUP(results!E47,teams!A$2:C$69,3,FALSE),IF(results!G47=1,VLOOKUP(results!F47,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1173</v>
       </c>
-      <c r="E40" s="14" t="str">
+      <c r="E40" s="13" t="str">
         <f>IF(results!G47=2,VLOOKUP(results!E47,teams!A$2:C$69,1,FALSE),IF(results!G47=1,VLOOKUP(results!F47,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 Dayton</v>
       </c>
-      <c r="F40" s="14" t="str">
+      <c r="F40" s="13" t="str">
         <f>IF(B40=D40,"",IF(B40&lt;D40,"2015_"&amp;B40&amp;"_"&amp;D40,"2015_"&amp;D40&amp;"_"&amp;B40))</f>
         <v>2015_1173_1328</v>
       </c>
-      <c r="G40" s="14" t="str">
+      <c r="G40" s="13" t="str">
         <f>IF(B40=D40,"",IF(B40&lt;D40,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H40" s="14" t="str">
+      <c r="H40" s="13" t="str">
         <f>IF(B40=D40,"",IF(B40&lt;D40,"2015_"&amp;B40&amp;"_"&amp;D40&amp;",1","2015_"&amp;D40&amp;"_"&amp;B40&amp;",0"))</f>
         <v>2015_1173_1328,0</v>
       </c>
@@ -7336,31 +7340,31 @@
         <f>results!B48</f>
         <v>R2W4</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <f>IF(results!G48=1,VLOOKUP(results!E48,teams!A$2:C$69,3,FALSE),IF(results!G48=2,VLOOKUP(results!F48,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1257</v>
       </c>
-      <c r="C41" s="14" t="str">
+      <c r="C41" s="13" t="str">
         <f>IF(results!G48=1,VLOOKUP(results!E48,teams!A$2:C$69,1,FALSE),IF(results!G48=2,VLOOKUP(results!F48,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#4 Louisville</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <f>IF(results!G48=2,VLOOKUP(results!E48,teams!A$2:C$69,3,FALSE),IF(results!G48=1,VLOOKUP(results!F48,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1320</v>
       </c>
-      <c r="E41" s="14" t="str">
+      <c r="E41" s="13" t="str">
         <f>IF(results!G48=2,VLOOKUP(results!E48,teams!A$2:C$69,1,FALSE),IF(results!G48=1,VLOOKUP(results!F48,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#5 Northern Iowa</v>
       </c>
-      <c r="F41" s="14" t="str">
+      <c r="F41" s="13" t="str">
         <f>IF(B41=D41,"",IF(B41&lt;D41,"2015_"&amp;B41&amp;"_"&amp;D41,"2015_"&amp;D41&amp;"_"&amp;B41))</f>
         <v>2015_1257_1320</v>
       </c>
-      <c r="G41" s="14" t="str">
+      <c r="G41" s="13" t="str">
         <f>IF(B41=D41,"",IF(B41&lt;D41,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H41" s="14" t="str">
+      <c r="H41" s="13" t="str">
         <f>IF(B41=D41,"",IF(B41&lt;D41,"2015_"&amp;B41&amp;"_"&amp;D41&amp;",1","2015_"&amp;D41&amp;"_"&amp;B41&amp;",0"))</f>
         <v>2015_1257_1320,1</v>
       </c>
@@ -7370,31 +7374,31 @@
         <f>results!B49</f>
         <v>R2X1</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <f>IF(results!G49=1,VLOOKUP(results!E49,teams!A$2:C$69,3,FALSE),IF(results!G49=2,VLOOKUP(results!F49,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1181</v>
       </c>
-      <c r="C42" s="14" t="str">
+      <c r="C42" s="13" t="str">
         <f>IF(results!G49=1,VLOOKUP(results!E49,teams!A$2:C$69,1,FALSE),IF(results!G49=2,VLOOKUP(results!F49,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Duke</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <f>IF(results!G49=2,VLOOKUP(results!E49,teams!A$2:C$69,3,FALSE),IF(results!G49=1,VLOOKUP(results!F49,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1361</v>
       </c>
-      <c r="E42" s="14" t="str">
+      <c r="E42" s="13" t="str">
         <f>IF(results!G49=2,VLOOKUP(results!E49,teams!A$2:C$69,1,FALSE),IF(results!G49=1,VLOOKUP(results!F49,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#8 San Diego St</v>
       </c>
-      <c r="F42" s="14" t="str">
+      <c r="F42" s="13" t="str">
         <f>IF(B42=D42,"",IF(B42&lt;D42,"2015_"&amp;B42&amp;"_"&amp;D42,"2015_"&amp;D42&amp;"_"&amp;B42))</f>
         <v>2015_1181_1361</v>
       </c>
-      <c r="G42" s="14" t="str">
+      <c r="G42" s="13" t="str">
         <f>IF(B42=D42,"",IF(B42&lt;D42,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H42" s="14" t="str">
+      <c r="H42" s="13" t="str">
         <f>IF(B42=D42,"",IF(B42&lt;D42,"2015_"&amp;B42&amp;"_"&amp;D42&amp;",1","2015_"&amp;D42&amp;"_"&amp;B42&amp;",0"))</f>
         <v>2015_1181_1361,1</v>
       </c>
@@ -7404,31 +7408,31 @@
         <f>results!B50</f>
         <v>R2X2</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <f>IF(results!G50=1,VLOOKUP(results!E50,teams!A$2:C$69,3,FALSE),IF(results!G50=2,VLOOKUP(results!F50,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1211</v>
       </c>
-      <c r="C43" s="14" t="str">
+      <c r="C43" s="13" t="str">
         <f>IF(results!G50=1,VLOOKUP(results!E50,teams!A$2:C$69,1,FALSE),IF(results!G50=2,VLOOKUP(results!F50,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#2 Gonzaga</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <f>IF(results!G50=2,VLOOKUP(results!E50,teams!A$2:C$69,3,FALSE),IF(results!G50=1,VLOOKUP(results!F50,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1234</v>
       </c>
-      <c r="E43" s="14" t="str">
+      <c r="E43" s="13" t="str">
         <f>IF(results!G50=2,VLOOKUP(results!E50,teams!A$2:C$69,1,FALSE),IF(results!G50=1,VLOOKUP(results!F50,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#7 Iowa</v>
       </c>
-      <c r="F43" s="14" t="str">
+      <c r="F43" s="13" t="str">
         <f>IF(B43=D43,"",IF(B43&lt;D43,"2015_"&amp;B43&amp;"_"&amp;D43,"2015_"&amp;D43&amp;"_"&amp;B43))</f>
         <v>2015_1211_1234</v>
       </c>
-      <c r="G43" s="14" t="str">
+      <c r="G43" s="13" t="str">
         <f>IF(B43=D43,"",IF(B43&lt;D43,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H43" s="14" t="str">
+      <c r="H43" s="13" t="str">
         <f>IF(B43=D43,"",IF(B43&lt;D43,"2015_"&amp;B43&amp;"_"&amp;D43&amp;",1","2015_"&amp;D43&amp;"_"&amp;B43&amp;",0"))</f>
         <v>2015_1211_1234,1</v>
       </c>
@@ -7438,31 +7442,31 @@
         <f>results!B39</f>
         <v>R2X3</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <f>IF(results!G39=1,VLOOKUP(results!E39,teams!A$2:C$69,3,FALSE),IF(results!G39=2,VLOOKUP(results!F39,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1417</v>
       </c>
-      <c r="C44" s="14" t="str">
+      <c r="C44" s="13" t="str">
         <f>IF(results!G39=1,VLOOKUP(results!E39,teams!A$2:C$69,1,FALSE),IF(results!G39=2,VLOOKUP(results!F39,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 UCLA</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <f>IF(results!G39=2,VLOOKUP(results!E39,teams!A$2:C$69,3,FALSE),IF(results!G39=1,VLOOKUP(results!F39,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1412</v>
       </c>
-      <c r="E44" s="14" t="str">
+      <c r="E44" s="13" t="str">
         <f>IF(results!G39=2,VLOOKUP(results!E39,teams!A$2:C$69,1,FALSE),IF(results!G39=1,VLOOKUP(results!F39,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#14 UAB</v>
       </c>
-      <c r="F44" s="14" t="str">
+      <c r="F44" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1412_1417</v>
       </c>
-      <c r="G44" s="14" t="str">
+      <c r="G44" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H44" s="14" t="str">
+      <c r="H44" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1412_1417,0</v>
       </c>
@@ -7472,31 +7476,31 @@
         <f>results!B40</f>
         <v>R2X4</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <f>IF(results!G40=1,VLOOKUP(results!E40,teams!A$2:C$69,3,FALSE),IF(results!G40=2,VLOOKUP(results!F40,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1428</v>
       </c>
-      <c r="C45" s="14" t="str">
+      <c r="C45" s="13" t="str">
         <f>IF(results!G40=1,VLOOKUP(results!E40,teams!A$2:C$69,1,FALSE),IF(results!G40=2,VLOOKUP(results!F40,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#5 Utah</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <f>IF(results!G40=2,VLOOKUP(results!E40,teams!A$2:C$69,3,FALSE),IF(results!G40=1,VLOOKUP(results!F40,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1207</v>
       </c>
-      <c r="E45" s="14" t="str">
+      <c r="E45" s="13" t="str">
         <f>IF(results!G40=2,VLOOKUP(results!E40,teams!A$2:C$69,1,FALSE),IF(results!G40=1,VLOOKUP(results!F40,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#4 Georgetown</v>
       </c>
-      <c r="F45" s="14" t="str">
+      <c r="F45" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1207_1428</v>
       </c>
-      <c r="G45" s="14" t="str">
+      <c r="G45" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="14" t="str">
+      <c r="H45" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1207_1428,0</v>
       </c>
@@ -7506,31 +7510,31 @@
         <f>results!B41</f>
         <v>R2Y1</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <f>IF(results!G41=1,VLOOKUP(results!E41,teams!A$2:C$69,3,FALSE),IF(results!G41=2,VLOOKUP(results!F41,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1246</v>
       </c>
-      <c r="C46" s="14" t="str">
+      <c r="C46" s="13" t="str">
         <f>IF(results!G41=1,VLOOKUP(results!E41,teams!A$2:C$69,1,FALSE),IF(results!G41=2,VLOOKUP(results!F41,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Kentucky</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <f>IF(results!G41=2,VLOOKUP(results!E41,teams!A$2:C$69,3,FALSE),IF(results!G41=1,VLOOKUP(results!F41,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1153</v>
       </c>
-      <c r="E46" s="14" t="str">
+      <c r="E46" s="13" t="str">
         <f>IF(results!G41=2,VLOOKUP(results!E41,teams!A$2:C$69,1,FALSE),IF(results!G41=1,VLOOKUP(results!F41,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#8 Cincinnati</v>
       </c>
-      <c r="F46" s="14" t="str">
+      <c r="F46" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1153_1246</v>
       </c>
-      <c r="G46" s="14" t="str">
+      <c r="G46" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H46" s="14" t="str">
+      <c r="H46" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1153_1246,0</v>
       </c>
@@ -7540,31 +7544,31 @@
         <f>results!B51</f>
         <v>R2Y2</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <f>IF(results!G51=1,VLOOKUP(results!E51,teams!A$2:C$69,3,FALSE),IF(results!G51=2,VLOOKUP(results!F51,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1455</v>
       </c>
-      <c r="C47" s="14" t="str">
+      <c r="C47" s="13" t="str">
         <f>IF(results!G51=1,VLOOKUP(results!E51,teams!A$2:C$69,1,FALSE),IF(results!G51=2,VLOOKUP(results!F51,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#7 Wichita St</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <f>IF(results!G51=2,VLOOKUP(results!E51,teams!A$2:C$69,3,FALSE),IF(results!G51=1,VLOOKUP(results!F51,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1242</v>
       </c>
-      <c r="E47" s="14" t="str">
+      <c r="E47" s="13" t="str">
         <f>IF(results!G51=2,VLOOKUP(results!E51,teams!A$2:C$69,1,FALSE),IF(results!G51=1,VLOOKUP(results!F51,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#2 Kansas</v>
       </c>
-      <c r="F47" s="14" t="str">
+      <c r="F47" s="13" t="str">
         <f>IF(B47=D47,"",IF(B47&lt;D47,"2015_"&amp;B47&amp;"_"&amp;D47,"2015_"&amp;D47&amp;"_"&amp;B47))</f>
         <v>2015_1242_1455</v>
       </c>
-      <c r="G47" s="14" t="str">
+      <c r="G47" s="13" t="str">
         <f>IF(B47=D47,"",IF(B47&lt;D47,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H47" s="14" t="str">
+      <c r="H47" s="13" t="str">
         <f>IF(B47=D47,"",IF(B47&lt;D47,"2015_"&amp;B47&amp;"_"&amp;D47&amp;",1","2015_"&amp;D47&amp;"_"&amp;B47&amp;",0"))</f>
         <v>2015_1242_1455,0</v>
       </c>
@@ -7574,31 +7578,31 @@
         <f>results!B42</f>
         <v>R2Y3</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <f>IF(results!G42=1,VLOOKUP(results!E42,teams!A$2:C$69,3,FALSE),IF(results!G42=2,VLOOKUP(results!F42,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1323</v>
       </c>
-      <c r="C48" s="14" t="str">
+      <c r="C48" s="13" t="str">
         <f>IF(results!G42=1,VLOOKUP(results!E42,teams!A$2:C$69,1,FALSE),IF(results!G42=2,VLOOKUP(results!F42,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#3 Notre Dame</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <f>IF(results!G42=2,VLOOKUP(results!E42,teams!A$2:C$69,3,FALSE),IF(results!G42=1,VLOOKUP(results!F42,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1139</v>
       </c>
-      <c r="E48" s="14" t="str">
+      <c r="E48" s="13" t="str">
         <f>IF(results!G42=2,VLOOKUP(results!E42,teams!A$2:C$69,1,FALSE),IF(results!G42=1,VLOOKUP(results!F42,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#6 Butler</v>
       </c>
-      <c r="F48" s="14" t="str">
+      <c r="F48" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1139_1323</v>
       </c>
-      <c r="G48" s="14" t="str">
+      <c r="G48" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H48" s="14" t="str">
+      <c r="H48" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1139_1323,0</v>
       </c>
@@ -7608,31 +7612,31 @@
         <f>results!B52</f>
         <v>R2Y4</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <f>IF(results!G52=1,VLOOKUP(results!E52,teams!A$2:C$69,3,FALSE),IF(results!G52=2,VLOOKUP(results!F52,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1452</v>
       </c>
-      <c r="C49" s="14" t="str">
+      <c r="C49" s="13" t="str">
         <f>IF(results!G52=1,VLOOKUP(results!E52,teams!A$2:C$69,1,FALSE),IF(results!G52=2,VLOOKUP(results!F52,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#5 West Virginia</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="12">
         <f>IF(results!G52=2,VLOOKUP(results!E52,teams!A$2:C$69,3,FALSE),IF(results!G52=1,VLOOKUP(results!F52,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1268</v>
       </c>
-      <c r="E49" s="14" t="str">
+      <c r="E49" s="13" t="str">
         <f>IF(results!G52=2,VLOOKUP(results!E52,teams!A$2:C$69,1,FALSE),IF(results!G52=1,VLOOKUP(results!F52,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#4 Maryland</v>
       </c>
-      <c r="F49" s="14" t="str">
+      <c r="F49" s="13" t="str">
         <f>IF(B49=D49,"",IF(B49&lt;D49,"2015_"&amp;B49&amp;"_"&amp;D49,"2015_"&amp;D49&amp;"_"&amp;B49))</f>
         <v>2015_1268_1452</v>
       </c>
-      <c r="G49" s="14" t="str">
+      <c r="G49" s="13" t="str">
         <f>IF(B49=D49,"",IF(B49&lt;D49,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H49" s="14" t="str">
+      <c r="H49" s="13" t="str">
         <f>IF(B49=D49,"",IF(B49&lt;D49,"2015_"&amp;B49&amp;"_"&amp;D49&amp;",1","2015_"&amp;D49&amp;"_"&amp;B49&amp;",0"))</f>
         <v>2015_1268_1452,0</v>
       </c>
@@ -7642,31 +7646,31 @@
         <f>results!B53</f>
         <v>R2Z1</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <f>IF(results!G53=1,VLOOKUP(results!E53,teams!A$2:C$69,3,FALSE),IF(results!G53=2,VLOOKUP(results!F53,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1458</v>
       </c>
-      <c r="C50" s="14" t="str">
+      <c r="C50" s="13" t="str">
         <f>IF(results!G53=1,VLOOKUP(results!E53,teams!A$2:C$69,1,FALSE),IF(results!G53=2,VLOOKUP(results!F53,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Wisconsin</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <f>IF(results!G53=2,VLOOKUP(results!E53,teams!A$2:C$69,3,FALSE),IF(results!G53=1,VLOOKUP(results!F53,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1332</v>
       </c>
-      <c r="E50" s="14" t="str">
+      <c r="E50" s="13" t="str">
         <f>IF(results!G53=2,VLOOKUP(results!E53,teams!A$2:C$69,1,FALSE),IF(results!G53=1,VLOOKUP(results!F53,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#8 Oregon</v>
       </c>
-      <c r="F50" s="14" t="str">
+      <c r="F50" s="13" t="str">
         <f>IF(B50=D50,"",IF(B50&lt;D50,"2015_"&amp;B50&amp;"_"&amp;D50,"2015_"&amp;D50&amp;"_"&amp;B50))</f>
         <v>2015_1332_1458</v>
       </c>
-      <c r="G50" s="14" t="str">
+      <c r="G50" s="13" t="str">
         <f>IF(B50=D50,"",IF(B50&lt;D50,"1","0"))</f>
         <v>0</v>
       </c>
-      <c r="H50" s="14" t="str">
+      <c r="H50" s="13" t="str">
         <f>IF(B50=D50,"",IF(B50&lt;D50,"2015_"&amp;B50&amp;"_"&amp;D50&amp;",1","2015_"&amp;D50&amp;"_"&amp;B50&amp;",0"))</f>
         <v>2015_1332_1458,0</v>
       </c>
@@ -7676,31 +7680,31 @@
         <f>results!B43</f>
         <v>R2Z2</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <f>IF(results!G43=1,VLOOKUP(results!E43,teams!A$2:C$69,3,FALSE),IF(results!G43=2,VLOOKUP(results!F43,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1112</v>
       </c>
-      <c r="C51" s="14" t="str">
+      <c r="C51" s="13" t="str">
         <f>IF(results!G43=1,VLOOKUP(results!E43,teams!A$2:C$69,1,FALSE),IF(results!G43=2,VLOOKUP(results!F43,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#2 Arizona</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="12">
         <f>IF(results!G43=2,VLOOKUP(results!E43,teams!A$2:C$69,3,FALSE),IF(results!G43=1,VLOOKUP(results!F43,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1326</v>
       </c>
-      <c r="E51" s="14" t="str">
+      <c r="E51" s="13" t="str">
         <f>IF(results!G43=2,VLOOKUP(results!E43,teams!A$2:C$69,1,FALSE),IF(results!G43=1,VLOOKUP(results!F43,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#10 Ohio St</v>
       </c>
-      <c r="F51" s="14" t="str">
+      <c r="F51" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1112_1326</v>
       </c>
-      <c r="G51" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H51" s="14" t="str">
+      <c r="G51" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1112_1326,1</v>
       </c>
@@ -7710,31 +7714,31 @@
         <f>results!B44</f>
         <v>R2Z3</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <f>IF(results!G44=1,VLOOKUP(results!E44,teams!A$2:C$69,3,FALSE),IF(results!G44=2,VLOOKUP(results!F44,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1462</v>
       </c>
-      <c r="C52" s="14" t="str">
+      <c r="C52" s="13" t="str">
         <f>IF(results!G44=1,VLOOKUP(results!E44,teams!A$2:C$69,1,FALSE),IF(results!G44=2,VLOOKUP(results!F44,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#6 Xavier</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="12">
         <f>IF(results!G44=2,VLOOKUP(results!E44,teams!A$2:C$69,3,FALSE),IF(results!G44=1,VLOOKUP(results!F44,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1209</v>
       </c>
-      <c r="E52" s="14" t="str">
+      <c r="E52" s="13" t="str">
         <f>IF(results!G44=2,VLOOKUP(results!E44,teams!A$2:C$69,1,FALSE),IF(results!G44=1,VLOOKUP(results!F44,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#14 Georgia St</v>
       </c>
-      <c r="F52" s="14" t="str">
+      <c r="F52" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1209_1462</v>
       </c>
-      <c r="G52" s="14" t="str">
+      <c r="G52" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H52" s="14" t="str">
+      <c r="H52" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1209_1462,0</v>
       </c>
@@ -7744,31 +7748,31 @@
         <f>results!B45</f>
         <v>R2Z4</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <f>IF(results!G45=1,VLOOKUP(results!E45,teams!A$2:C$69,3,FALSE),IF(results!G45=2,VLOOKUP(results!F45,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1314</v>
       </c>
-      <c r="C53" s="14" t="str">
+      <c r="C53" s="13" t="str">
         <f>IF(results!G45=1,VLOOKUP(results!E45,teams!A$2:C$69,1,FALSE),IF(results!G45=2,VLOOKUP(results!F45,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#4 North Carolina</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="12">
         <f>IF(results!G45=2,VLOOKUP(results!E45,teams!A$2:C$69,3,FALSE),IF(results!G45=1,VLOOKUP(results!F45,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1116</v>
       </c>
-      <c r="E53" s="14" t="str">
+      <c r="E53" s="13" t="str">
         <f>IF(results!G45=2,VLOOKUP(results!E45,teams!A$2:C$69,1,FALSE),IF(results!G45=1,VLOOKUP(results!F45,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#5 Arkansas</v>
       </c>
-      <c r="F53" s="14" t="str">
+      <c r="F53" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1116_1314</v>
       </c>
-      <c r="G53" s="14" t="str">
+      <c r="G53" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H53" s="14" t="str">
+      <c r="H53" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1116_1314,0</v>
       </c>
@@ -7778,31 +7782,31 @@
         <f>results!B58</f>
         <v>R3W1</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <f>IF(results!G58=1,VLOOKUP(results!E58,teams!A$2:C$69,3,FALSE),IF(results!G58=2,VLOOKUP(results!F58,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1257</v>
       </c>
-      <c r="C54" s="14" t="str">
+      <c r="C54" s="13" t="str">
         <f>IF(results!G58=1,VLOOKUP(results!E58,teams!A$2:C$69,1,FALSE),IF(results!G58=2,VLOOKUP(results!F58,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#4 Louisville</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="12">
         <f>IF(results!G58=2,VLOOKUP(results!E58,teams!A$2:C$69,3,FALSE),IF(results!G58=1,VLOOKUP(results!F58,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1301</v>
       </c>
-      <c r="E54" s="14" t="str">
+      <c r="E54" s="13" t="str">
         <f>IF(results!G58=2,VLOOKUP(results!E58,teams!A$2:C$69,1,FALSE),IF(results!G58=1,VLOOKUP(results!F58,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#8 NC State</v>
       </c>
-      <c r="F54" s="14" t="str">
+      <c r="F54" s="13" t="str">
         <f>IF(B54=D54,"",IF(B54&lt;D54,"2015_"&amp;B54&amp;"_"&amp;D54,"2015_"&amp;D54&amp;"_"&amp;B54))</f>
         <v>2015_1257_1301</v>
       </c>
-      <c r="G54" s="14" t="str">
+      <c r="G54" s="13" t="str">
         <f>IF(B54=D54,"",IF(B54&lt;D54,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H54" s="14" t="str">
+      <c r="H54" s="13" t="str">
         <f>IF(B54=D54,"",IF(B54&lt;D54,"2015_"&amp;B54&amp;"_"&amp;D54&amp;",1","2015_"&amp;D54&amp;"_"&amp;B54&amp;",0"))</f>
         <v>2015_1257_1301,1</v>
       </c>
@@ -7812,31 +7816,31 @@
         <f>results!B59</f>
         <v>R3W2</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <f>IF(results!G59=1,VLOOKUP(results!E59,teams!A$2:C$69,3,FALSE),IF(results!G59=2,VLOOKUP(results!F59,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1277</v>
       </c>
-      <c r="C55" s="14" t="str">
+      <c r="C55" s="13" t="str">
         <f>IF(results!G59=1,VLOOKUP(results!E59,teams!A$2:C$69,1,FALSE),IF(results!G59=2,VLOOKUP(results!F59,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#7 Michigan St</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="12">
         <f>IF(results!G59=2,VLOOKUP(results!E59,teams!A$2:C$69,3,FALSE),IF(results!G59=1,VLOOKUP(results!F59,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1328</v>
       </c>
-      <c r="E55" s="14" t="str">
+      <c r="E55" s="13" t="str">
         <f>IF(results!G59=2,VLOOKUP(results!E59,teams!A$2:C$69,1,FALSE),IF(results!G59=1,VLOOKUP(results!F59,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#3 Oklahoma</v>
       </c>
-      <c r="F55" s="14" t="str">
+      <c r="F55" s="13" t="str">
         <f>IF(B55=D55,"",IF(B55&lt;D55,"2015_"&amp;B55&amp;"_"&amp;D55,"2015_"&amp;D55&amp;"_"&amp;B55))</f>
         <v>2015_1277_1328</v>
       </c>
-      <c r="G55" s="14" t="str">
+      <c r="G55" s="13" t="str">
         <f>IF(B55=D55,"",IF(B55&lt;D55,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H55" s="14" t="str">
+      <c r="H55" s="13" t="str">
         <f>IF(B55=D55,"",IF(B55&lt;D55,"2015_"&amp;B55&amp;"_"&amp;D55&amp;",1","2015_"&amp;D55&amp;"_"&amp;B55&amp;",0"))</f>
         <v>2015_1277_1328,1</v>
       </c>
@@ -7846,31 +7850,31 @@
         <f>results!B60</f>
         <v>R3X1</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <f>IF(results!G60=1,VLOOKUP(results!E60,teams!A$2:C$69,3,FALSE),IF(results!G60=2,VLOOKUP(results!F60,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1181</v>
       </c>
-      <c r="C56" s="14" t="str">
+      <c r="C56" s="13" t="str">
         <f>IF(results!G60=1,VLOOKUP(results!E60,teams!A$2:C$69,1,FALSE),IF(results!G60=2,VLOOKUP(results!F60,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Duke</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="12">
         <f>IF(results!G60=2,VLOOKUP(results!E60,teams!A$2:C$69,3,FALSE),IF(results!G60=1,VLOOKUP(results!F60,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1428</v>
       </c>
-      <c r="E56" s="14" t="str">
+      <c r="E56" s="13" t="str">
         <f>IF(results!G60=2,VLOOKUP(results!E60,teams!A$2:C$69,1,FALSE),IF(results!G60=1,VLOOKUP(results!F60,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#5 Utah</v>
       </c>
-      <c r="F56" s="14" t="str">
+      <c r="F56" s="13" t="str">
         <f>IF(B56=D56,"",IF(B56&lt;D56,"2015_"&amp;B56&amp;"_"&amp;D56,"2015_"&amp;D56&amp;"_"&amp;B56))</f>
         <v>2015_1181_1428</v>
       </c>
-      <c r="G56" s="14" t="str">
+      <c r="G56" s="13" t="str">
         <f>IF(B56=D56,"",IF(B56&lt;D56,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H56" s="14" t="str">
+      <c r="H56" s="13" t="str">
         <f>IF(B56=D56,"",IF(B56&lt;D56,"2015_"&amp;B56&amp;"_"&amp;D56&amp;",1","2015_"&amp;D56&amp;"_"&amp;B56&amp;",0"))</f>
         <v>2015_1181_1428,1</v>
       </c>
@@ -7880,31 +7884,31 @@
         <f>results!B61</f>
         <v>R3X2</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <f>IF(results!G61=1,VLOOKUP(results!E61,teams!A$2:C$69,3,FALSE),IF(results!G61=2,VLOOKUP(results!F61,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1211</v>
       </c>
-      <c r="C57" s="14" t="str">
+      <c r="C57" s="13" t="str">
         <f>IF(results!G61=1,VLOOKUP(results!E61,teams!A$2:C$69,1,FALSE),IF(results!G61=2,VLOOKUP(results!F61,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#2 Gonzaga</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <f>IF(results!G61=2,VLOOKUP(results!E61,teams!A$2:C$69,3,FALSE),IF(results!G61=1,VLOOKUP(results!F61,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1417</v>
       </c>
-      <c r="E57" s="14" t="str">
+      <c r="E57" s="13" t="str">
         <f>IF(results!G61=2,VLOOKUP(results!E61,teams!A$2:C$69,1,FALSE),IF(results!G61=1,VLOOKUP(results!F61,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#11 UCLA</v>
       </c>
-      <c r="F57" s="14" t="str">
+      <c r="F57" s="13" t="str">
         <f>IF(B57=D57,"",IF(B57&lt;D57,"2015_"&amp;B57&amp;"_"&amp;D57,"2015_"&amp;D57&amp;"_"&amp;B57))</f>
         <v>2015_1211_1417</v>
       </c>
-      <c r="G57" s="14" t="str">
+      <c r="G57" s="13" t="str">
         <f>IF(B57=D57,"",IF(B57&lt;D57,"1","0"))</f>
         <v>1</v>
       </c>
-      <c r="H57" s="14" t="str">
+      <c r="H57" s="13" t="str">
         <f>IF(B57=D57,"",IF(B57&lt;D57,"2015_"&amp;B57&amp;"_"&amp;D57&amp;",1","2015_"&amp;D57&amp;"_"&amp;B57&amp;",0"))</f>
         <v>2015_1211_1417,1</v>
       </c>
@@ -7914,31 +7918,31 @@
         <f>results!B54</f>
         <v>R3Y1</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <f>IF(results!G54=1,VLOOKUP(results!E54,teams!A$2:C$69,3,FALSE),IF(results!G54=2,VLOOKUP(results!F54,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1246</v>
       </c>
-      <c r="C58" s="14" t="str">
+      <c r="C58" s="13" t="str">
         <f>IF(results!G54=1,VLOOKUP(results!E54,teams!A$2:C$69,1,FALSE),IF(results!G54=2,VLOOKUP(results!F54,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Kentucky</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="12">
         <f>IF(results!G54=2,VLOOKUP(results!E54,teams!A$2:C$69,3,FALSE),IF(results!G54=1,VLOOKUP(results!F54,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1452</v>
       </c>
-      <c r="E58" s="14" t="str">
+      <c r="E58" s="13" t="str">
         <f>IF(results!G54=2,VLOOKUP(results!E54,teams!A$2:C$69,1,FALSE),IF(results!G54=1,VLOOKUP(results!F54,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#5 West Virginia</v>
       </c>
-      <c r="F58" s="14" t="str">
+      <c r="F58" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1246_1452</v>
       </c>
-      <c r="G58" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H58" s="14" t="str">
+      <c r="G58" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1246_1452,1</v>
       </c>
@@ -7948,31 +7952,31 @@
         <f>results!B55</f>
         <v>R3Y2</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <f>IF(results!G55=1,VLOOKUP(results!E55,teams!A$2:C$69,3,FALSE),IF(results!G55=2,VLOOKUP(results!F55,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1323</v>
       </c>
-      <c r="C59" s="14" t="str">
+      <c r="C59" s="13" t="str">
         <f>IF(results!G55=1,VLOOKUP(results!E55,teams!A$2:C$69,1,FALSE),IF(results!G55=2,VLOOKUP(results!F55,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#3 Notre Dame</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="12">
         <f>IF(results!G55=2,VLOOKUP(results!E55,teams!A$2:C$69,3,FALSE),IF(results!G55=1,VLOOKUP(results!F55,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1455</v>
       </c>
-      <c r="E59" s="14" t="str">
+      <c r="E59" s="13" t="str">
         <f>IF(results!G55=2,VLOOKUP(results!E55,teams!A$2:C$69,1,FALSE),IF(results!G55=1,VLOOKUP(results!F55,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#7 Wichita St</v>
       </c>
-      <c r="F59" s="14" t="str">
+      <c r="F59" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1323_1455</v>
       </c>
-      <c r="G59" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H59" s="14" t="str">
+      <c r="G59" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1323_1455,1</v>
       </c>
@@ -7982,31 +7986,31 @@
         <f>results!B56</f>
         <v>R3Z1</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <f>IF(results!G56=1,VLOOKUP(results!E56,teams!A$2:C$69,3,FALSE),IF(results!G56=2,VLOOKUP(results!F56,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1458</v>
       </c>
-      <c r="C60" s="14" t="str">
+      <c r="C60" s="13" t="str">
         <f>IF(results!G56=1,VLOOKUP(results!E56,teams!A$2:C$69,1,FALSE),IF(results!G56=2,VLOOKUP(results!F56,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#1 Wisconsin</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="12">
         <f>IF(results!G56=2,VLOOKUP(results!E56,teams!A$2:C$69,3,FALSE),IF(results!G56=1,VLOOKUP(results!F56,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1314</v>
       </c>
-      <c r="E60" s="14" t="str">
+      <c r="E60" s="13" t="str">
         <f>IF(results!G56=2,VLOOKUP(results!E56,teams!A$2:C$69,1,FALSE),IF(results!G56=1,VLOOKUP(results!F56,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#4 North Carolina</v>
       </c>
-      <c r="F60" s="14" t="str">
+      <c r="F60" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1314_1458</v>
       </c>
-      <c r="G60" s="14" t="str">
+      <c r="G60" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H60" s="14" t="str">
+      <c r="H60" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1314_1458,0</v>
       </c>
@@ -8016,31 +8020,31 @@
         <f>results!B57</f>
         <v>R3Z2</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <f>IF(results!G57=1,VLOOKUP(results!E57,teams!A$2:C$69,3,FALSE),IF(results!G57=2,VLOOKUP(results!F57,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1112</v>
       </c>
-      <c r="C61" s="14" t="str">
+      <c r="C61" s="13" t="str">
         <f>IF(results!G57=1,VLOOKUP(results!E57,teams!A$2:C$69,1,FALSE),IF(results!G57=2,VLOOKUP(results!F57,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#2 Arizona</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="12">
         <f>IF(results!G57=2,VLOOKUP(results!E57,teams!A$2:C$69,3,FALSE),IF(results!G57=1,VLOOKUP(results!F57,teams!A$2:C$69,3,FALSE),""))</f>
         <v>1462</v>
       </c>
-      <c r="E61" s="14" t="str">
+      <c r="E61" s="13" t="str">
         <f>IF(results!G57=2,VLOOKUP(results!E57,teams!A$2:C$69,1,FALSE),IF(results!G57=1,VLOOKUP(results!F57,teams!A$2:C$69,1,FALSE),""))</f>
         <v>#6 Xavier</v>
       </c>
-      <c r="F61" s="14" t="str">
+      <c r="F61" s="13" t="str">
         <f t="shared" si="0"/>
         <v>2015_1112_1462</v>
       </c>
-      <c r="G61" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H61" s="14" t="str">
+      <c r="G61" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="13" t="str">
         <f t="shared" si="2"/>
         <v>2015_1112_1462,1</v>
       </c>
@@ -8050,33 +8054,33 @@
         <f>results!B64</f>
         <v>R4W1</v>
       </c>
-      <c r="B62" s="13" t="str">
+      <c r="B62" s="12">
         <f>IF(results!G64=1,VLOOKUP(results!E64,teams!A$2:C$69,3,FALSE),IF(results!G64=2,VLOOKUP(results!F64,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="C62" s="14" t="str">
+        <v>1277</v>
+      </c>
+      <c r="C62" s="13" t="str">
         <f>IF(results!G64=1,VLOOKUP(results!E64,teams!A$2:C$69,1,FALSE),IF(results!G64=2,VLOOKUP(results!F64,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D62" s="13" t="str">
+        <v>#7 Michigan St</v>
+      </c>
+      <c r="D62" s="12">
         <f>IF(results!G64=2,VLOOKUP(results!E64,teams!A$2:C$69,3,FALSE),IF(results!G64=1,VLOOKUP(results!F64,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="E62" s="14" t="str">
+        <v>1257</v>
+      </c>
+      <c r="E62" s="13" t="str">
         <f>IF(results!G64=2,VLOOKUP(results!E64,teams!A$2:C$69,1,FALSE),IF(results!G64=1,VLOOKUP(results!F64,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F62" s="14" t="str">
+        <v>#4 Louisville</v>
+      </c>
+      <c r="F62" s="13" t="str">
         <f>IF(B62=D62,"",IF(B62&lt;D62,"2015_"&amp;B62&amp;"_"&amp;D62,"2015_"&amp;D62&amp;"_"&amp;B62))</f>
-        <v/>
-      </c>
-      <c r="G62" s="14" t="str">
+        <v>2015_1257_1277</v>
+      </c>
+      <c r="G62" s="13" t="str">
         <f>IF(B62=D62,"",IF(B62&lt;D62,"1","0"))</f>
-        <v/>
-      </c>
-      <c r="H62" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="H62" s="13" t="str">
         <f>IF(B62=D62,"",IF(B62&lt;D62,"2015_"&amp;B62&amp;"_"&amp;D62&amp;",1","2015_"&amp;D62&amp;"_"&amp;B62&amp;",0"))</f>
-        <v/>
+        <v>2015_1257_1277,0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -8084,33 +8088,33 @@
         <f>results!B65</f>
         <v>R4X1</v>
       </c>
-      <c r="B63" s="13" t="str">
+      <c r="B63" s="12">
         <f>IF(results!G65=1,VLOOKUP(results!E65,teams!A$2:C$69,3,FALSE),IF(results!G65=2,VLOOKUP(results!F65,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="C63" s="14" t="str">
+        <v>1181</v>
+      </c>
+      <c r="C63" s="13" t="str">
         <f>IF(results!G65=1,VLOOKUP(results!E65,teams!A$2:C$69,1,FALSE),IF(results!G65=2,VLOOKUP(results!F65,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D63" s="13" t="str">
+        <v>#1 Duke</v>
+      </c>
+      <c r="D63" s="12">
         <f>IF(results!G65=2,VLOOKUP(results!E65,teams!A$2:C$69,3,FALSE),IF(results!G65=1,VLOOKUP(results!F65,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="E63" s="14" t="str">
+        <v>1211</v>
+      </c>
+      <c r="E63" s="13" t="str">
         <f>IF(results!G65=2,VLOOKUP(results!E65,teams!A$2:C$69,1,FALSE),IF(results!G65=1,VLOOKUP(results!F65,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F63" s="14" t="str">
+        <v>#2 Gonzaga</v>
+      </c>
+      <c r="F63" s="13" t="str">
         <f>IF(B63=D63,"",IF(B63&lt;D63,"2015_"&amp;B63&amp;"_"&amp;D63,"2015_"&amp;D63&amp;"_"&amp;B63))</f>
-        <v/>
-      </c>
-      <c r="G63" s="14" t="str">
+        <v>2015_1181_1211</v>
+      </c>
+      <c r="G63" s="13" t="str">
         <f>IF(B63=D63,"",IF(B63&lt;D63,"1","0"))</f>
-        <v/>
-      </c>
-      <c r="H63" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="H63" s="13" t="str">
         <f>IF(B63=D63,"",IF(B63&lt;D63,"2015_"&amp;B63&amp;"_"&amp;D63&amp;",1","2015_"&amp;D63&amp;"_"&amp;B63&amp;",0"))</f>
-        <v/>
+        <v>2015_1181_1211,1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -8118,33 +8122,33 @@
         <f>results!B62</f>
         <v>R4Y1</v>
       </c>
-      <c r="B64" s="13" t="str">
+      <c r="B64" s="12">
         <f>IF(results!G62=1,VLOOKUP(results!E62,teams!A$2:C$69,3,FALSE),IF(results!G62=2,VLOOKUP(results!F62,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="C64" s="14" t="str">
+        <v>1246</v>
+      </c>
+      <c r="C64" s="13" t="str">
         <f>IF(results!G62=1,VLOOKUP(results!E62,teams!A$2:C$69,1,FALSE),IF(results!G62=2,VLOOKUP(results!F62,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D64" s="13" t="str">
+        <v>#1 Kentucky</v>
+      </c>
+      <c r="D64" s="12">
         <f>IF(results!G62=2,VLOOKUP(results!E62,teams!A$2:C$69,3,FALSE),IF(results!G62=1,VLOOKUP(results!F62,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="E64" s="14" t="str">
+        <v>1323</v>
+      </c>
+      <c r="E64" s="13" t="str">
         <f>IF(results!G62=2,VLOOKUP(results!E62,teams!A$2:C$69,1,FALSE),IF(results!G62=1,VLOOKUP(results!F62,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F64" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G64" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H64" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>#3 Notre Dame</v>
+      </c>
+      <c r="F64" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>2015_1246_1323</v>
+      </c>
+      <c r="G64" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>2015_1246_1323,1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -8152,33 +8156,33 @@
         <f>results!B63</f>
         <v>R4Z1</v>
       </c>
-      <c r="B65" s="13" t="str">
+      <c r="B65" s="12">
         <f>IF(results!G63=1,VLOOKUP(results!E63,teams!A$2:C$69,3,FALSE),IF(results!G63=2,VLOOKUP(results!F63,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="C65" s="14" t="str">
+        <v>1458</v>
+      </c>
+      <c r="C65" s="13" t="str">
         <f>IF(results!G63=1,VLOOKUP(results!E63,teams!A$2:C$69,1,FALSE),IF(results!G63=2,VLOOKUP(results!F63,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D65" s="13" t="str">
+        <v>#1 Wisconsin</v>
+      </c>
+      <c r="D65" s="12">
         <f>IF(results!G63=2,VLOOKUP(results!E63,teams!A$2:C$69,3,FALSE),IF(results!G63=1,VLOOKUP(results!F63,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="E65" s="14" t="str">
+        <v>1112</v>
+      </c>
+      <c r="E65" s="13" t="str">
         <f>IF(results!G63=2,VLOOKUP(results!E63,teams!A$2:C$69,1,FALSE),IF(results!G63=1,VLOOKUP(results!F63,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="F65" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G65" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H65" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>#2 Arizona</v>
+      </c>
+      <c r="F65" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>2015_1112_1458</v>
+      </c>
+      <c r="G65" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>2015_1112_1458,0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -8186,31 +8190,31 @@
         <f>results!B66</f>
         <v>R5WX</v>
       </c>
-      <c r="B66" s="13" t="str">
+      <c r="B66" s="12" t="str">
         <f>IF(results!G66=1,VLOOKUP(results!E66,teams!A$2:C$69,3,FALSE),IF(results!G66=2,VLOOKUP(results!F66,teams!A$2:C$69,3,FALSE),""))</f>
         <v/>
       </c>
-      <c r="C66" s="14" t="str">
+      <c r="C66" s="13" t="str">
         <f>IF(results!G66=1,VLOOKUP(results!E66,teams!A$2:C$69,1,FALSE),IF(results!G66=2,VLOOKUP(results!F66,teams!A$2:C$69,1,FALSE),""))</f>
         <v/>
       </c>
-      <c r="D66" s="13" t="str">
+      <c r="D66" s="12" t="str">
         <f>IF(results!G66=2,VLOOKUP(results!E66,teams!A$2:C$69,3,FALSE),IF(results!G66=1,VLOOKUP(results!F66,teams!A$2:C$69,3,FALSE),""))</f>
         <v/>
       </c>
-      <c r="E66" s="14" t="str">
+      <c r="E66" s="13" t="str">
         <f>IF(results!G66=2,VLOOKUP(results!E66,teams!A$2:C$69,1,FALSE),IF(results!G66=1,VLOOKUP(results!F66,teams!A$2:C$69,1,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F66" s="14" t="str">
+      <c r="F66" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G66" s="14" t="str">
+      <c r="G66" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H66" s="14" t="str">
+      <c r="H66" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8220,31 +8224,31 @@
         <f>results!B67</f>
         <v>R5YZ</v>
       </c>
-      <c r="B67" s="13" t="str">
+      <c r="B67" s="12" t="str">
         <f>IF(results!G67=1,VLOOKUP(results!E67,teams!A$2:C$69,3,FALSE),IF(results!G67=2,VLOOKUP(results!F67,teams!A$2:C$69,3,FALSE),""))</f>
         <v/>
       </c>
-      <c r="C67" s="14" t="str">
+      <c r="C67" s="13" t="str">
         <f>IF(results!G67=1,VLOOKUP(results!E67,teams!A$2:C$69,1,FALSE),IF(results!G67=2,VLOOKUP(results!F67,teams!A$2:C$69,1,FALSE),""))</f>
         <v/>
       </c>
-      <c r="D67" s="13" t="str">
+      <c r="D67" s="12" t="str">
         <f>IF(results!G67=2,VLOOKUP(results!E67,teams!A$2:C$69,3,FALSE),IF(results!G67=1,VLOOKUP(results!F67,teams!A$2:C$69,3,FALSE),""))</f>
         <v/>
       </c>
-      <c r="E67" s="14" t="str">
+      <c r="E67" s="13" t="str">
         <f>IF(results!G67=2,VLOOKUP(results!E67,teams!A$2:C$69,1,FALSE),IF(results!G67=1,VLOOKUP(results!F67,teams!A$2:C$69,1,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F67" s="14" t="str">
+      <c r="F67" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G67" s="14" t="str">
+      <c r="G67" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H67" s="14" t="str">
+      <c r="H67" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -8254,31 +8258,31 @@
         <f>results!B68</f>
         <v>R6CH</v>
       </c>
-      <c r="B68" s="13" t="str">
+      <c r="B68" s="12" t="str">
         <f>IF(results!G68=1,VLOOKUP(results!E68,teams!A$2:C$69,3,FALSE),IF(results!G68=2,VLOOKUP(results!F68,teams!A$2:C$69,3,FALSE),""))</f>
         <v/>
       </c>
-      <c r="C68" s="14" t="str">
+      <c r="C68" s="13" t="str">
         <f>IF(results!G68=1,VLOOKUP(results!E68,teams!A$2:C$69,1,FALSE),IF(results!G68=2,VLOOKUP(results!F68,teams!A$2:C$69,1,FALSE),""))</f>
         <v/>
       </c>
-      <c r="D68" s="13" t="str">
+      <c r="D68" s="12" t="str">
         <f>IF(results!G68=2,VLOOKUP(results!E68,teams!A$2:C$69,3,FALSE),IF(results!G68=1,VLOOKUP(results!F68,teams!A$2:C$69,3,FALSE),""))</f>
         <v/>
       </c>
-      <c r="E68" s="14" t="str">
+      <c r="E68" s="13" t="str">
         <f>IF(results!G68=2,VLOOKUP(results!E68,teams!A$2:C$69,1,FALSE),IF(results!G68=1,VLOOKUP(results!F68,teams!A$2:C$69,1,FALSE),""))</f>
         <v/>
       </c>
-      <c r="F68" s="14" t="str">
+      <c r="F68" s="13" t="str">
         <f t="shared" ref="F68" si="6">IF(B68=D68,"",IF(B68&lt;D68,"2015_"&amp;B68&amp;"_"&amp;D68,"2015_"&amp;D68&amp;"_"&amp;B68))</f>
         <v/>
       </c>
-      <c r="G68" s="14" t="str">
+      <c r="G68" s="13" t="str">
         <f t="shared" ref="G68" si="7">IF(B68=D68,"",IF(B68&lt;D68,"1","0"))</f>
         <v/>
       </c>
-      <c r="H68" s="14" t="str">
+      <c r="H68" s="13" t="str">
         <f t="shared" ref="H68" si="8">IF(B68=D68,"",IF(B68&lt;D68,"2015_"&amp;B68&amp;"_"&amp;D68&amp;",1","2015_"&amp;D68&amp;"_"&amp;B68&amp;",0"))</f>
         <v/>
       </c>

--- a/tourney_results.xlsx
+++ b/tourney_results.xlsx
@@ -1033,7 +1033,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1085,14 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1482,7 +1474,7 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1501,48 +1493,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="37" thickBot="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="37" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A2" s="32">
+      <c r="A2" s="30">
         <v>42080</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -1563,7 +1555,7 @@
       <c r="G2" s="20">
         <v>1</v>
       </c>
-      <c r="H2" s="33" t="str">
+      <c r="H2" s="31" t="str">
         <f>IF(G2=1,E2,IF(G2=2,F2,""))</f>
         <v>#16 Hampton</v>
       </c>
@@ -1589,7 +1581,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A3" s="28">
+      <c r="A3" s="26">
         <v>42080</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1610,7 +1602,7 @@
       <c r="G3" s="14">
         <v>2</v>
       </c>
-      <c r="H3" s="29" t="str">
+      <c r="H3" s="27" t="str">
         <f>IF(G3=1,E3,IF(G3=2,F3,""))</f>
         <v>#11 Mississippi</v>
       </c>
@@ -1636,7 +1628,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>42081</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1657,7 +1649,7 @@
       <c r="G4" s="14">
         <v>2</v>
       </c>
-      <c r="H4" s="29" t="str">
+      <c r="H4" s="27" t="str">
         <f>IF(G4=1,E4,IF(G4=2,F4,""))</f>
         <v>#11 Dayton</v>
       </c>
@@ -1683,7 +1675,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A5" s="30">
+      <c r="A5" s="28">
         <v>42081</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1704,7 +1696,7 @@
       <c r="G5" s="17">
         <v>2</v>
       </c>
-      <c r="H5" s="31" t="str">
+      <c r="H5" s="29" t="str">
         <f t="shared" ref="H5:H66" si="3">IF(G5=1,E5,IF(G5=2,F5,""))</f>
         <v>#16 Robert Morris</v>
       </c>
@@ -1730,7 +1722,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>42082</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -1751,7 +1743,7 @@
       <c r="G6" s="20">
         <v>1</v>
       </c>
-      <c r="H6" s="33" t="str">
+      <c r="H6" s="31" t="str">
         <f t="shared" si="3"/>
         <v>#1 Villanova</v>
       </c>
@@ -1777,7 +1769,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>42082</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1798,7 +1790,7 @@
       <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="29" t="str">
+      <c r="H7" s="27" t="str">
         <f t="shared" ref="H7:H21" si="4">IF(G7=1,E7,IF(G7=2,F7,""))</f>
         <v>#8 NC State</v>
       </c>
@@ -1824,7 +1816,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>42082</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1845,7 +1837,7 @@
       <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="29" t="str">
+      <c r="H8" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#14 UAB</v>
       </c>
@@ -1871,7 +1863,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>42082</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1892,7 +1884,7 @@
       <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="H9" s="29" t="str">
+      <c r="H9" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#4 Georgetown</v>
       </c>
@@ -1918,7 +1910,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A10" s="28">
+      <c r="A10" s="26">
         <v>42082</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1939,7 +1931,7 @@
       <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="H10" s="29" t="str">
+      <c r="H10" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#5 Utah</v>
       </c>
@@ -1965,7 +1957,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A11" s="28">
+      <c r="A11" s="26">
         <v>42082</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1986,7 +1978,7 @@
       <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="H11" s="29" t="str">
+      <c r="H11" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#11 UCLA</v>
       </c>
@@ -2012,7 +2004,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A12" s="28">
+      <c r="A12" s="26">
         <v>42082</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2034,7 +2026,7 @@
       <c r="G12" s="14">
         <v>1</v>
       </c>
-      <c r="H12" s="29" t="str">
+      <c r="H12" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#1 Kentucky</v>
       </c>
@@ -2060,7 +2052,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>42082</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2081,7 +2073,7 @@
       <c r="G13" s="14">
         <v>1</v>
       </c>
-      <c r="H13" s="29" t="str">
+      <c r="H13" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#3 Notre Dame</v>
       </c>
@@ -2107,7 +2099,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A14" s="28">
+      <c r="A14" s="26">
         <v>42082</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2128,7 +2120,7 @@
       <c r="G14" s="14">
         <v>1</v>
       </c>
-      <c r="H14" s="29" t="str">
+      <c r="H14" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#6 Butler</v>
       </c>
@@ -2154,7 +2146,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A15" s="28">
+      <c r="A15" s="26">
         <v>42082</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2175,7 +2167,7 @@
       <c r="G15" s="14">
         <v>1</v>
       </c>
-      <c r="H15" s="29" t="str">
+      <c r="H15" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#8 Cincinnati</v>
       </c>
@@ -2201,7 +2193,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A16" s="28">
+      <c r="A16" s="26">
         <v>42082</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2222,7 +2214,7 @@
       <c r="G16" s="14">
         <v>1</v>
       </c>
-      <c r="H16" s="29" t="str">
+      <c r="H16" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#2 Arizona</v>
       </c>
@@ -2248,7 +2240,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>42082</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2269,7 +2261,7 @@
       <c r="G17" s="14">
         <v>2</v>
       </c>
-      <c r="H17" s="29" t="str">
+      <c r="H17" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#14 Georgia St</v>
       </c>
@@ -2295,7 +2287,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>42082</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2316,7 +2308,7 @@
       <c r="G18" s="14">
         <v>1</v>
       </c>
-      <c r="H18" s="29" t="str">
+      <c r="H18" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#4 North Carolina</v>
       </c>
@@ -2342,7 +2334,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>42082</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2363,7 +2355,7 @@
       <c r="G19" s="14">
         <v>1</v>
       </c>
-      <c r="H19" s="29" t="str">
+      <c r="H19" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#5 Arkansas</v>
       </c>
@@ -2389,7 +2381,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>42082</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2411,7 +2403,7 @@
       <c r="G20" s="14">
         <v>1</v>
       </c>
-      <c r="H20" s="29" t="str">
+      <c r="H20" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#6 Xavier</v>
       </c>
@@ -2437,7 +2429,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <v>42082</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2458,7 +2450,7 @@
       <c r="G21" s="14">
         <v>2</v>
       </c>
-      <c r="H21" s="29" t="str">
+      <c r="H21" s="27" t="str">
         <f t="shared" si="4"/>
         <v>#10 Ohio St</v>
       </c>
@@ -2484,7 +2476,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <v>42083</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2505,7 +2497,7 @@
       <c r="G22" s="14">
         <v>1</v>
       </c>
-      <c r="H22" s="29" t="str">
+      <c r="H22" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#2 Virginia</v>
       </c>
@@ -2531,7 +2523,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A23" s="28">
+      <c r="A23" s="26">
         <v>42083</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2552,7 +2544,7 @@
       <c r="G23" s="14">
         <v>1</v>
       </c>
-      <c r="H23" s="29" t="str">
+      <c r="H23" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#3 Oklahoma</v>
       </c>
@@ -2578,7 +2570,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A24" s="28">
+      <c r="A24" s="26">
         <v>42083</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2599,7 +2591,7 @@
       <c r="G24" s="14">
         <v>1</v>
       </c>
-      <c r="H24" s="29" t="str">
+      <c r="H24" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#4 Louisville</v>
       </c>
@@ -2625,7 +2617,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A25" s="28">
+      <c r="A25" s="26">
         <v>42083</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2646,7 +2638,7 @@
       <c r="G25" s="14">
         <v>1</v>
       </c>
-      <c r="H25" s="29" t="str">
+      <c r="H25" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#5 Northern Iowa</v>
       </c>
@@ -2672,7 +2664,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A26" s="28">
+      <c r="A26" s="26">
         <v>42083</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2694,7 +2686,7 @@
       <c r="G26" s="14">
         <v>2</v>
       </c>
-      <c r="H26" s="29" t="str">
+      <c r="H26" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#11 Dayton</v>
       </c>
@@ -2720,7 +2712,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A27" s="28">
+      <c r="A27" s="26">
         <v>42083</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2741,7 +2733,7 @@
       <c r="G27" s="14">
         <v>1</v>
       </c>
-      <c r="H27" s="29" t="str">
+      <c r="H27" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#7 Michigan St</v>
       </c>
@@ -2767,7 +2759,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A28" s="28">
+      <c r="A28" s="26">
         <v>42083</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2789,7 +2781,7 @@
       <c r="G28" s="14">
         <v>1</v>
       </c>
-      <c r="H28" s="29" t="str">
+      <c r="H28" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#1 Duke</v>
       </c>
@@ -2815,7 +2807,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A29" s="28">
+      <c r="A29" s="26">
         <v>42083</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2836,7 +2828,7 @@
       <c r="G29" s="14">
         <v>1</v>
       </c>
-      <c r="H29" s="29" t="str">
+      <c r="H29" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#2 Gonzaga</v>
       </c>
@@ -2862,7 +2854,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A30" s="28">
+      <c r="A30" s="26">
         <v>42083</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2883,7 +2875,7 @@
       <c r="G30" s="14">
         <v>1</v>
       </c>
-      <c r="H30" s="29" t="str">
+      <c r="H30" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#7 Iowa</v>
       </c>
@@ -2909,7 +2901,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A31" s="28">
+      <c r="A31" s="26">
         <v>42083</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2930,7 +2922,7 @@
       <c r="G31" s="14">
         <v>1</v>
       </c>
-      <c r="H31" s="29" t="str">
+      <c r="H31" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#8 San Diego St</v>
       </c>
@@ -2956,7 +2948,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A32" s="28">
+      <c r="A32" s="26">
         <v>42083</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2977,7 +2969,7 @@
       <c r="G32" s="14">
         <v>1</v>
       </c>
-      <c r="H32" s="29" t="str">
+      <c r="H32" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#2 Kansas</v>
       </c>
@@ -3003,7 +2995,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A33" s="28">
+      <c r="A33" s="26">
         <v>42083</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3024,7 +3016,7 @@
       <c r="G33" s="14">
         <v>1</v>
       </c>
-      <c r="H33" s="29" t="str">
+      <c r="H33" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#4 Maryland</v>
       </c>
@@ -3050,7 +3042,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A34" s="28">
+      <c r="A34" s="26">
         <v>42083</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3071,7 +3063,7 @@
       <c r="G34" s="14">
         <v>1</v>
       </c>
-      <c r="H34" s="29" t="str">
+      <c r="H34" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#5 West Virginia</v>
       </c>
@@ -3097,7 +3089,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A35" s="28">
+      <c r="A35" s="26">
         <v>42083</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3118,7 +3110,7 @@
       <c r="G35" s="14">
         <v>1</v>
       </c>
-      <c r="H35" s="29" t="str">
+      <c r="H35" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#7 Wichita St</v>
       </c>
@@ -3144,7 +3136,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A36" s="28">
+      <c r="A36" s="26">
         <v>42083</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3165,7 +3157,7 @@
       <c r="G36" s="14">
         <v>1</v>
       </c>
-      <c r="H36" s="29" t="str">
+      <c r="H36" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#1 Wisconsin</v>
       </c>
@@ -3191,7 +3183,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A37" s="30">
+      <c r="A37" s="28">
         <v>42083</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -3212,7 +3204,7 @@
       <c r="G37" s="17">
         <v>1</v>
       </c>
-      <c r="H37" s="31" t="str">
+      <c r="H37" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#8 Oregon</v>
       </c>
@@ -3238,7 +3230,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A38" s="32">
+      <c r="A38" s="30">
         <v>42084</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -3261,7 +3253,7 @@
       <c r="G38" s="20">
         <v>2</v>
       </c>
-      <c r="H38" s="33" t="str">
+      <c r="H38" s="31" t="str">
         <f t="shared" si="3"/>
         <v>#8 NC State</v>
       </c>
@@ -3287,7 +3279,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A39" s="28">
+      <c r="A39" s="26">
         <v>42084</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3310,7 +3302,7 @@
       <c r="G39" s="14">
         <v>2</v>
       </c>
-      <c r="H39" s="29" t="str">
+      <c r="H39" s="27" t="str">
         <f t="shared" ref="H39:H45" si="5">IF(G39=1,E39,IF(G39=2,F39,""))</f>
         <v>#11 UCLA</v>
       </c>
@@ -3336,7 +3328,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A40" s="28">
+      <c r="A40" s="26">
         <v>42084</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3359,7 +3351,7 @@
       <c r="G40" s="14">
         <v>2</v>
       </c>
-      <c r="H40" s="29" t="str">
+      <c r="H40" s="27" t="str">
         <f t="shared" si="5"/>
         <v>#5 Utah</v>
       </c>
@@ -3385,7 +3377,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A41" s="28">
+      <c r="A41" s="26">
         <v>42084</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3408,7 +3400,7 @@
       <c r="G41" s="14">
         <v>1</v>
       </c>
-      <c r="H41" s="29" t="str">
+      <c r="H41" s="27" t="str">
         <f t="shared" si="5"/>
         <v>#1 Kentucky</v>
       </c>
@@ -3434,7 +3426,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A42" s="28">
+      <c r="A42" s="26">
         <v>42084</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3457,7 +3449,7 @@
       <c r="G42" s="14">
         <v>1</v>
       </c>
-      <c r="H42" s="29" t="str">
+      <c r="H42" s="27" t="str">
         <f t="shared" si="5"/>
         <v>#3 Notre Dame</v>
       </c>
@@ -3483,7 +3475,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A43" s="28">
+      <c r="A43" s="26">
         <v>42084</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3506,7 +3498,7 @@
       <c r="G43" s="14">
         <v>1</v>
       </c>
-      <c r="H43" s="29" t="str">
+      <c r="H43" s="27" t="str">
         <f t="shared" si="5"/>
         <v>#2 Arizona</v>
       </c>
@@ -3532,7 +3524,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A44" s="28">
+      <c r="A44" s="26">
         <v>42084</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -3555,7 +3547,7 @@
       <c r="G44" s="14">
         <v>2</v>
       </c>
-      <c r="H44" s="29" t="str">
+      <c r="H44" s="27" t="str">
         <f t="shared" si="5"/>
         <v>#6 Xavier</v>
       </c>
@@ -3581,7 +3573,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A45" s="28">
+      <c r="A45" s="26">
         <v>42084</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -3604,7 +3596,7 @@
       <c r="G45" s="14">
         <v>1</v>
       </c>
-      <c r="H45" s="29" t="str">
+      <c r="H45" s="27" t="str">
         <f t="shared" si="5"/>
         <v>#4 North Carolina</v>
       </c>
@@ -3630,7 +3622,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A46" s="28">
+      <c r="A46" s="26">
         <v>42085</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -3653,7 +3645,7 @@
       <c r="G46" s="14">
         <v>2</v>
       </c>
-      <c r="H46" s="29" t="str">
+      <c r="H46" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#7 Michigan St</v>
       </c>
@@ -3679,7 +3671,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A47" s="28">
+      <c r="A47" s="26">
         <v>42085</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3702,7 +3694,7 @@
       <c r="G47" s="14">
         <v>1</v>
       </c>
-      <c r="H47" s="29" t="str">
+      <c r="H47" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#3 Oklahoma</v>
       </c>
@@ -3728,7 +3720,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A48" s="28">
+      <c r="A48" s="26">
         <v>42085</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3751,7 +3743,7 @@
       <c r="G48" s="14">
         <v>1</v>
       </c>
-      <c r="H48" s="29" t="str">
+      <c r="H48" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#4 Louisville</v>
       </c>
@@ -3777,7 +3769,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A49" s="28">
+      <c r="A49" s="26">
         <v>42085</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -3800,7 +3792,7 @@
       <c r="G49" s="14">
         <v>1</v>
       </c>
-      <c r="H49" s="29" t="str">
+      <c r="H49" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#1 Duke</v>
       </c>
@@ -3826,7 +3818,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A50" s="28">
+      <c r="A50" s="26">
         <v>42085</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -3849,7 +3841,7 @@
       <c r="G50" s="14">
         <v>1</v>
       </c>
-      <c r="H50" s="29" t="str">
+      <c r="H50" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#2 Gonzaga</v>
       </c>
@@ -3875,7 +3867,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A51" s="28">
+      <c r="A51" s="26">
         <v>42085</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -3898,7 +3890,7 @@
       <c r="G51" s="14">
         <v>2</v>
       </c>
-      <c r="H51" s="29" t="str">
+      <c r="H51" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#7 Wichita St</v>
       </c>
@@ -3924,7 +3916,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A52" s="28">
+      <c r="A52" s="26">
         <v>42085</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -3947,7 +3939,7 @@
       <c r="G52" s="14">
         <v>2</v>
       </c>
-      <c r="H52" s="29" t="str">
+      <c r="H52" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#5 West Virginia</v>
       </c>
@@ -3973,7 +3965,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A53" s="30">
+      <c r="A53" s="28">
         <v>42085</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -3996,7 +3988,7 @@
       <c r="G53" s="17">
         <v>1</v>
       </c>
-      <c r="H53" s="31" t="str">
+      <c r="H53" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#1 Wisconsin</v>
       </c>
@@ -4022,7 +4014,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A54" s="32">
+      <c r="A54" s="30">
         <v>42089</v>
       </c>
       <c r="B54" s="18" t="s">
@@ -4045,7 +4037,7 @@
       <c r="G54" s="20">
         <v>1</v>
       </c>
-      <c r="H54" s="33" t="str">
+      <c r="H54" s="31" t="str">
         <f>IF(G54=1,E54,IF(G54=2,F54,""))</f>
         <v>#1 Kentucky</v>
       </c>
@@ -4071,7 +4063,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A55" s="28">
+      <c r="A55" s="26">
         <v>42089</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4094,7 +4086,7 @@
       <c r="G55" s="14">
         <v>2</v>
       </c>
-      <c r="H55" s="29" t="str">
+      <c r="H55" s="27" t="str">
         <f>IF(G55=1,E55,IF(G55=2,F55,""))</f>
         <v>#3 Notre Dame</v>
       </c>
@@ -4120,7 +4112,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A56" s="28">
+      <c r="A56" s="26">
         <v>42089</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -4143,7 +4135,7 @@
       <c r="G56" s="14">
         <v>1</v>
       </c>
-      <c r="H56" s="29" t="str">
+      <c r="H56" s="27" t="str">
         <f>IF(G56=1,E56,IF(G56=2,F56,""))</f>
         <v>#1 Wisconsin</v>
       </c>
@@ -4169,7 +4161,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A57" s="28">
+      <c r="A57" s="26">
         <v>42089</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -4192,7 +4184,7 @@
       <c r="G57" s="14">
         <v>1</v>
       </c>
-      <c r="H57" s="29" t="str">
+      <c r="H57" s="27" t="str">
         <f>IF(G57=1,E57,IF(G57=2,F57,""))</f>
         <v>#2 Arizona</v>
       </c>
@@ -4218,7 +4210,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A58" s="28">
+      <c r="A58" s="26">
         <v>42090</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -4241,7 +4233,7 @@
       <c r="G58" s="14">
         <v>2</v>
       </c>
-      <c r="H58" s="29" t="str">
+      <c r="H58" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#4 Louisville</v>
       </c>
@@ -4267,7 +4259,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A59" s="28">
+      <c r="A59" s="26">
         <v>42090</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -4290,7 +4282,7 @@
       <c r="G59" s="14">
         <v>1</v>
       </c>
-      <c r="H59" s="29" t="str">
+      <c r="H59" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#7 Michigan St</v>
       </c>
@@ -4316,7 +4308,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A60" s="28">
+      <c r="A60" s="26">
         <v>42090</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4339,7 +4331,7 @@
       <c r="G60" s="14">
         <v>1</v>
       </c>
-      <c r="H60" s="29" t="str">
+      <c r="H60" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#1 Duke</v>
       </c>
@@ -4365,7 +4357,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A61" s="30">
+      <c r="A61" s="28">
         <v>42090</v>
       </c>
       <c r="B61" s="15" t="s">
@@ -4388,7 +4380,7 @@
       <c r="G61" s="17">
         <v>1</v>
       </c>
-      <c r="H61" s="31" t="str">
+      <c r="H61" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#2 Gonzaga</v>
       </c>
@@ -4414,7 +4406,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A62" s="32">
+      <c r="A62" s="30">
         <v>42091</v>
       </c>
       <c r="B62" s="18" t="s">
@@ -4437,7 +4429,7 @@
       <c r="G62" s="20">
         <v>1</v>
       </c>
-      <c r="H62" s="33" t="str">
+      <c r="H62" s="31" t="str">
         <f>IF(G62=1,E62,IF(G62=2,F62,""))</f>
         <v>#1 Kentucky</v>
       </c>
@@ -4463,7 +4455,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A63" s="28">
+      <c r="A63" s="26">
         <v>42091</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -4486,7 +4478,7 @@
       <c r="G63" s="14">
         <v>1</v>
       </c>
-      <c r="H63" s="29" t="str">
+      <c r="H63" s="27" t="str">
         <f>IF(G63=1,E63,IF(G63=2,F63,""))</f>
         <v>#1 Wisconsin</v>
       </c>
@@ -4512,7 +4504,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A64" s="28">
+      <c r="A64" s="26">
         <v>42092</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -4535,7 +4527,7 @@
       <c r="G64" s="14">
         <v>2</v>
       </c>
-      <c r="H64" s="29" t="str">
+      <c r="H64" s="27" t="str">
         <f t="shared" si="3"/>
         <v>#7 Michigan St</v>
       </c>
@@ -4561,7 +4553,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A65" s="30">
+      <c r="A65" s="28">
         <v>42092</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -4584,7 +4576,7 @@
       <c r="G65" s="17">
         <v>1</v>
       </c>
-      <c r="H65" s="31" t="str">
+      <c r="H65" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#1 Duke</v>
       </c>
@@ -4610,7 +4602,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" s="6" customFormat="1" ht="13">
-      <c r="A66" s="32">
+      <c r="A66" s="30">
         <v>42098</v>
       </c>
       <c r="B66" s="18" t="s">
@@ -4630,10 +4622,12 @@
         <f>IF(G65=1,E65,IF(G65=2,F65,"(not known yet)"))</f>
         <v>#1 Duke</v>
       </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="33" t="str">
+      <c r="G66" s="20">
+        <v>2</v>
+      </c>
+      <c r="H66" s="31" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#1 Duke</v>
       </c>
       <c r="J66" s="6">
         <f>IFERROR(VLOOKUP(E66,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4653,11 +4647,11 @@
       </c>
       <c r="O66" s="6">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A67" s="30">
+      <c r="A67" s="28">
         <v>42098</v>
       </c>
       <c r="B67" s="15" t="s">
@@ -4677,10 +4671,12 @@
         <f>IF(G63=1,E63,IF(G63=2,F63,"(not known yet)"))</f>
         <v>#1 Wisconsin</v>
       </c>
-      <c r="G67" s="21"/>
-      <c r="H67" s="31" t="str">
+      <c r="G67" s="17">
+        <v>2</v>
+      </c>
+      <c r="H67" s="29" t="str">
         <f t="shared" ref="H67:H68" si="6">IF(G67=1,E67,IF(G67=2,F67,""))</f>
-        <v/>
+        <v>#1 Wisconsin</v>
       </c>
       <c r="J67" s="6">
         <f>IFERROR(VLOOKUP(E67,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4700,42 +4696,42 @@
       </c>
       <c r="O67" s="6">
         <f t="shared" ref="O67:O68" si="9">IFERROR(IF(TEXT(INDEX(J67:K67,1,G67),"0")=MID(N67,6,4),1,0),-1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" s="6" customFormat="1" ht="14" thickBot="1">
-      <c r="A68" s="34">
+      <c r="A68" s="32">
         <v>42100</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D68" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="E68" s="36" t="str">
+      <c r="E68" s="34" t="str">
         <f>IF(G66=1,E66,IF(G66=2,F66,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="F68" s="36" t="str">
+        <v>#1 Duke</v>
+      </c>
+      <c r="F68" s="34" t="str">
         <f>IF(G67=1,E67,IF(G67=2,F67,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G68" s="37"/>
-      <c r="H68" s="38" t="str">
+        <v>#1 Wisconsin</v>
+      </c>
+      <c r="G68" s="35"/>
+      <c r="H68" s="36" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J68" s="6" t="str">
+      <c r="J68" s="6">
         <f>IFERROR(VLOOKUP(E68,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K68" s="6" t="str">
+        <v>1181</v>
+      </c>
+      <c r="K68" s="6">
         <f>IFERROR(VLOOKUP(F68,teams!$A$2:$C$69,3,FALSE),"")</f>
-        <v/>
+        <v>1458</v>
       </c>
       <c r="M68" s="6" t="str">
         <f t="shared" si="7"/>
@@ -4743,7 +4739,7 @@
       </c>
       <c r="N68" s="6" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>2015_1181_1458</v>
       </c>
       <c r="O68" s="6">
         <f t="shared" si="9"/>
@@ -8190,33 +8186,33 @@
         <f>results!B66</f>
         <v>R5WX</v>
       </c>
-      <c r="B66" s="12" t="str">
+      <c r="B66" s="12">
         <f>IF(results!G66=1,VLOOKUP(results!E66,teams!A$2:C$69,3,FALSE),IF(results!G66=2,VLOOKUP(results!F66,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1181</v>
       </c>
       <c r="C66" s="13" t="str">
         <f>IF(results!G66=1,VLOOKUP(results!E66,teams!A$2:C$69,1,FALSE),IF(results!G66=2,VLOOKUP(results!F66,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D66" s="12" t="str">
+        <v>#1 Duke</v>
+      </c>
+      <c r="D66" s="12">
         <f>IF(results!G66=2,VLOOKUP(results!E66,teams!A$2:C$69,3,FALSE),IF(results!G66=1,VLOOKUP(results!F66,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1277</v>
       </c>
       <c r="E66" s="13" t="str">
         <f>IF(results!G66=2,VLOOKUP(results!E66,teams!A$2:C$69,1,FALSE),IF(results!G66=1,VLOOKUP(results!F66,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#7 Michigan St</v>
       </c>
       <c r="F66" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2015_1181_1277</v>
       </c>
       <c r="G66" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H66" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2015_1181_1277,1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -8224,33 +8220,33 @@
         <f>results!B67</f>
         <v>R5YZ</v>
       </c>
-      <c r="B67" s="12" t="str">
+      <c r="B67" s="12">
         <f>IF(results!G67=1,VLOOKUP(results!E67,teams!A$2:C$69,3,FALSE),IF(results!G67=2,VLOOKUP(results!F67,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1458</v>
       </c>
       <c r="C67" s="13" t="str">
         <f>IF(results!G67=1,VLOOKUP(results!E67,teams!A$2:C$69,1,FALSE),IF(results!G67=2,VLOOKUP(results!F67,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D67" s="12" t="str">
+        <v>#1 Wisconsin</v>
+      </c>
+      <c r="D67" s="12">
         <f>IF(results!G67=2,VLOOKUP(results!E67,teams!A$2:C$69,3,FALSE),IF(results!G67=1,VLOOKUP(results!F67,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1246</v>
       </c>
       <c r="E67" s="13" t="str">
         <f>IF(results!G67=2,VLOOKUP(results!E67,teams!A$2:C$69,1,FALSE),IF(results!G67=1,VLOOKUP(results!F67,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#1 Kentucky</v>
       </c>
       <c r="F67" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2015_1246_1458</v>
       </c>
       <c r="G67" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H67" s="13" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2015_1246_1458,0</v>
       </c>
     </row>
     <row r="68" spans="1:8">

--- a/tourney_results.xlsx
+++ b/tourney_results.xlsx
@@ -744,7 +744,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,12 +760,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1076,7 +1070,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1084,7 +1078,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1122,13 +1116,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1474,7 +1468,7 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1517,19 +1511,19 @@
       <c r="H1" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="36" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4720,10 +4714,12 @@
         <f>IF(G67=1,E67,IF(G67=2,F67,"(not known yet)"))</f>
         <v>#1 Wisconsin</v>
       </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="36" t="str">
+      <c r="G68" s="37">
+        <v>1</v>
+      </c>
+      <c r="H68" s="35" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#1 Duke</v>
       </c>
       <c r="J68" s="6">
         <f>IFERROR(VLOOKUP(E68,teams!$A$2:$C$69,3,FALSE),"")</f>
@@ -4743,7 +4739,7 @@
       </c>
       <c r="O68" s="6">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8254,33 +8250,33 @@
         <f>results!B68</f>
         <v>R6CH</v>
       </c>
-      <c r="B68" s="12" t="str">
+      <c r="B68" s="12">
         <f>IF(results!G68=1,VLOOKUP(results!E68,teams!A$2:C$69,3,FALSE),IF(results!G68=2,VLOOKUP(results!F68,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1181</v>
       </c>
       <c r="C68" s="13" t="str">
         <f>IF(results!G68=1,VLOOKUP(results!E68,teams!A$2:C$69,1,FALSE),IF(results!G68=2,VLOOKUP(results!F68,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="D68" s="12" t="str">
+        <v>#1 Duke</v>
+      </c>
+      <c r="D68" s="12">
         <f>IF(results!G68=2,VLOOKUP(results!E68,teams!A$2:C$69,3,FALSE),IF(results!G68=1,VLOOKUP(results!F68,teams!A$2:C$69,3,FALSE),""))</f>
-        <v/>
+        <v>1458</v>
       </c>
       <c r="E68" s="13" t="str">
         <f>IF(results!G68=2,VLOOKUP(results!E68,teams!A$2:C$69,1,FALSE),IF(results!G68=1,VLOOKUP(results!F68,teams!A$2:C$69,1,FALSE),""))</f>
-        <v/>
+        <v>#1 Wisconsin</v>
       </c>
       <c r="F68" s="13" t="str">
         <f t="shared" ref="F68" si="6">IF(B68=D68,"",IF(B68&lt;D68,"2015_"&amp;B68&amp;"_"&amp;D68,"2015_"&amp;D68&amp;"_"&amp;B68))</f>
-        <v/>
+        <v>2015_1181_1458</v>
       </c>
       <c r="G68" s="13" t="str">
         <f t="shared" ref="G68" si="7">IF(B68=D68,"",IF(B68&lt;D68,"1","0"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H68" s="13" t="str">
         <f t="shared" ref="H68" si="8">IF(B68=D68,"",IF(B68&lt;D68,"2015_"&amp;B68&amp;"_"&amp;D68&amp;",1","2015_"&amp;D68&amp;"_"&amp;B68&amp;",0"))</f>
-        <v/>
+        <v>2015_1181_1458,1</v>
       </c>
     </row>
   </sheetData>

--- a/tourney_results.xlsx
+++ b/tourney_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="1840" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30080" windowHeight="24700"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -12,9 +12,6 @@
     <sheet name="slot_results" sheetId="3" r:id="rId3"/>
     <sheet name="results_for_sim" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="224">
   <si>
     <t>W01</t>
   </si>
@@ -703,9 +700,6 @@
   </si>
   <si>
     <t>Southern Univ</t>
-  </si>
-  <si>
-    <t>#16 Holy Cross</t>
   </si>
 </sst>
 </file>
@@ -991,8 +985,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1173,7 +1175,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1213,6 +1215,10 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1252,6 +1258,10 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1262,757 +1272,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="tourney_slots_2016.csv"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>W11</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>W11a</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>W11b</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>W16</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>W16a</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>W16b</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Y11</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Y11a</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Y11b</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Z16</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Z16a</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>Z16b</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>R1W1</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>W01</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>W16</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>R1W2</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>W02</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>W15</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>R1W3</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>W03</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>W14</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>R1W4</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>W04</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>W13</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>R1W5</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>W05</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>W12</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>R1W6</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>W06</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>W11</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>R1W7</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>W07</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>W10</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>R1W8</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>W08</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>W09</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>R1X1</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>X01</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>X16</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>R1X2</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>X02</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>X15</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>R1X3</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>X03</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>X14</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>R1X4</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>X04</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>X13</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>R1X5</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>X05</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>X12</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>R1X6</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>X06</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>X11</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>R1X7</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>X07</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>X10</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>R1X8</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>X08</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>X09</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>R1Y1</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Y01</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>Y16</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>R1Y2</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Y02</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>Y15</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>R1Y3</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Y03</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>Y14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>R1Y4</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Y04</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>Y13</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>R1Y5</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Y05</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>Y12</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>R1Y6</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Y06</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>Y11</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>R1Y7</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>Y07</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>Y10</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>R1Y8</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Y08</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>Y09</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>R1Z1</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Z01</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>Z16</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>R1Z2</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Z02</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>Z15</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>R1Z3</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Z03</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>Z14</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>R1Z4</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Z04</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>Z13</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>R1Z5</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>Z05</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>Z12</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>R1Z6</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>Z06</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>Z11</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>R1Z7</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>Z07</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>Z10</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>R1Z8</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>Z08</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>Z09</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>R2W1</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>R1W1</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>R1W8</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>R2W2</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>R1W2</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>R1W7</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>R2W3</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>R1W3</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>R1W6</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>R2W4</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>R1W4</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>R1W5</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>R2X1</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>R1X1</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>R1X8</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>R2X2</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>R1X2</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>R1X7</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>R2X3</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>R1X3</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>R1X6</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>R2X4</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>R1X4</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>R1X5</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>R2Y1</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>R1Y1</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>R1Y8</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>R2Y2</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>R1Y2</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>R1Y7</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>R2Y3</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>R1Y3</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>R1Y6</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>R2Y4</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>R1Y4</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>R1Y5</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>R2Z1</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>R1Z1</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>R1Z8</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>R2Z2</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>R1Z2</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>R1Z7</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>R2Z3</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>R1Z3</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>R1Z6</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>R2Z4</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>R1Z4</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>R1Z5</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>R3W1</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>R2W1</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>R2W4</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>R3W2</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>R2W2</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>R2W3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>R3X1</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>R2X1</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>R2X4</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>R3X2</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>R2X2</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>R2X3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>R3Y1</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>R2Y1</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>R2Y4</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>R3Y2</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>R2Y2</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>R2Y3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>R3Z1</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>R2Z1</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>R2Z4</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>R3Z2</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>R2Z2</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>R2Z3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>R4W1</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>R3W1</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>R3W2</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>R4X1</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>R3X1</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>R3X2</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>R4Y1</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>R3Y1</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>R3Y2</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>R4Z1</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>R3Z1</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>R3Z2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>R5WX</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>R4W1</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>R4X1</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>R5YZ</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>R4Y1</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>R4Z1</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>R6CH</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>R5WX</v>
-          </cell>
-          <cell r="D68" t="str">
-            <v>R5YZ</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2305,9 +1564,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -2372,13 +1629,11 @@
       <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="19" t="str">
-        <f>VLOOKUP($B2,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>W16a</v>
-      </c>
-      <c r="D2" s="19" t="str">
-        <f>VLOOKUP($B2,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>W16b</v>
+      <c r="C2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="E2" s="19" t="str">
         <f>VLOOKUP(C2,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2392,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="31" t="str">
-        <f>IF(G2=1,E2,IF(G2=2,F2,""))</f>
+        <f>IF(G2=1,E2,IF(G2=2,F2,"TBD"))</f>
         <v>#16 FL Gulf Coast</v>
       </c>
       <c r="J2" s="6">
@@ -2426,13 +1681,11 @@
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="5" t="str">
-        <f>VLOOKUP($B3,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Y11a</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>VLOOKUP($B3,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Y11b</v>
+      <c r="C3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>VLOOKUP(C3,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2446,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="27" t="str">
-        <f>IF(G3=1,E3,IF(G3=2,F3,""))</f>
+        <f t="shared" ref="H3:H66" si="0">IF(G3=1,E3,IF(G3=2,F3,"TBD"))</f>
         <v>#11 Wichita St</v>
       </c>
       <c r="J3" s="6">
@@ -2458,15 +1711,15 @@
         <v>1455</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f t="shared" ref="M3:M66" si="0">B3</f>
+        <f t="shared" ref="M3:M66" si="1">B3</f>
         <v>Y11</v>
       </c>
       <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N66" si="1">IF(AND(J3&lt;&gt;"",K3&lt;&gt;""),IF(J3&lt;K3,"2016_"&amp;J3&amp;"_"&amp;K3,"2016_"&amp;K3&amp;"_"&amp;J3),"")</f>
+        <f t="shared" ref="N3:N66" si="2">IF(AND(J3&lt;&gt;"",K3&lt;&gt;""),IF(J3&lt;K3,"2016_"&amp;J3&amp;"_"&amp;K3,"2016_"&amp;K3&amp;"_"&amp;J3),"")</f>
         <v>2016_1435_1455</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" ref="O3:O66" si="2">IFERROR(IF(TEXT(INDEX(J3:K3,1,G3),"0")=MID(N3,6,4),1,0),-1)</f>
+        <f t="shared" ref="O3:O66" si="3">IFERROR(IF(TEXT(INDEX(J3:K3,1,G3),"0")=MID(N3,6,4),1,0),-1)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="39"/>
@@ -2478,13 +1731,11 @@
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="5" t="str">
-        <f>VLOOKUP($B4,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>W11a</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <f>VLOOKUP($B4,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>W11b</v>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>VLOOKUP(C4,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2498,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="27" t="str">
-        <f>IF(G4=1,E4,IF(G4=2,F4,""))</f>
+        <f t="shared" si="0"/>
         <v>#11 Michigan</v>
       </c>
       <c r="J4" s="6">
@@ -2510,15 +1761,15 @@
         <v>1409</v>
       </c>
       <c r="M4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>W11</v>
       </c>
       <c r="N4" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1276_1409</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q4" s="39"/>
@@ -2530,13 +1781,11 @@
       <c r="B5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="16" t="str">
-        <f>VLOOKUP($B5,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Z16a</v>
-      </c>
-      <c r="D5" s="16" t="str">
-        <f>VLOOKUP($B5,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Z16b</v>
+      <c r="C5" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="E5" s="16" t="str">
         <f>VLOOKUP(C5,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2550,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="29" t="str">
-        <f t="shared" ref="H5:H66" si="3">IF(G5=1,E5,IF(G5=2,F5,""))</f>
+        <f t="shared" si="0"/>
         <v>#16 Holy Cross</v>
       </c>
       <c r="J5" s="6">
@@ -2562,15 +1811,15 @@
         <v>1380</v>
       </c>
       <c r="M5" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Z16</v>
       </c>
       <c r="N5" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1221_1380</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q5" s="39"/>
@@ -2582,9 +1831,8 @@
       <c r="B6" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="19" t="str">
-        <f>VLOOKUP($B6,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>W01</v>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>151</v>
@@ -2597,10 +1845,12 @@
         <f>VLOOKUP(D6,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#16 FL Gulf Coast</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
       <c r="H6" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#1 North Carolina</v>
       </c>
       <c r="J6" s="6">
         <f>IFERROR(VLOOKUP(E6,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -2611,16 +1861,16 @@
         <v>1195</v>
       </c>
       <c r="M6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1W1</v>
       </c>
       <c r="N6" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1195_1314</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q6" s="39"/>
     </row>
@@ -2631,13 +1881,11 @@
       <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="5" t="str">
-        <f>VLOOKUP($B7,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>W04</v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <f>VLOOKUP($B7,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>W13</v>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP(C7,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2647,10 +1895,12 @@
         <f>VLOOKUP(D7,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#13 Stony Brook</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
       <c r="H7" s="27" t="str">
-        <f t="shared" ref="H7:H21" si="4">IF(G7=1,E7,IF(G7=2,F7,""))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#4 Kentucky</v>
       </c>
       <c r="J7" s="6">
         <f>IFERROR(VLOOKUP(E7,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -2661,16 +1911,16 @@
         <v>1392</v>
       </c>
       <c r="M7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1W4</v>
       </c>
       <c r="N7" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1246_1392</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q7" s="39"/>
     </row>
@@ -2681,13 +1931,11 @@
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5" t="str">
-        <f>VLOOKUP($B8,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>W05</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f>VLOOKUP($B8,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>W12</v>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>VLOOKUP(C8,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2697,10 +1945,12 @@
         <f>VLOOKUP(D8,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#12 Chattanooga</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
       <c r="H8" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#5 Indiana</v>
       </c>
       <c r="J8" s="6">
         <f>IFERROR(VLOOKUP(E8,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -2711,16 +1961,16 @@
         <v>1151</v>
       </c>
       <c r="M8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1W5</v>
       </c>
       <c r="N8" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1151_1231</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q8" s="39"/>
     </row>
@@ -2731,13 +1981,11 @@
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="5" t="str">
-        <f>VLOOKUP($B9,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>W08</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f>VLOOKUP($B9,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>W09</v>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP(C9,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2747,10 +1995,12 @@
         <f>VLOOKUP(D9,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#9 Providence</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="14">
+        <v>2</v>
+      </c>
       <c r="H9" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#9 Providence</v>
       </c>
       <c r="J9" s="6">
         <f>IFERROR(VLOOKUP(E9,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -2761,16 +2011,16 @@
         <v>1344</v>
       </c>
       <c r="M9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1W8</v>
       </c>
       <c r="N9" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1344_1425</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q9" s="39"/>
     </row>
@@ -2781,13 +2031,11 @@
       <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f>VLOOKUP($B10,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>X01</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <f>VLOOKUP($B10,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>X16</v>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP(C10,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2797,10 +2045,12 @@
         <f>VLOOKUP(D10,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#16 Hampton</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
       <c r="H10" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#1 Virginia</v>
       </c>
       <c r="J10" s="6">
         <f>IFERROR(VLOOKUP(E10,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -2811,16 +2061,16 @@
         <v>1214</v>
       </c>
       <c r="M10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1X1</v>
       </c>
       <c r="N10" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1214_1438</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q10" s="39"/>
     </row>
@@ -2831,13 +2081,11 @@
       <c r="B11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="5" t="str">
-        <f>VLOOKUP($B11,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>X03</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <f>VLOOKUP($B11,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>X14</v>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>VLOOKUP(C11,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2847,10 +2095,12 @@
         <f>VLOOKUP(D11,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#14 Fresno St</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
       <c r="H11" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#3 Utah</v>
       </c>
       <c r="J11" s="6">
         <f>IFERROR(VLOOKUP(E11,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -2861,16 +2111,16 @@
         <v>1201</v>
       </c>
       <c r="M11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1X3</v>
       </c>
       <c r="N11" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1201_1428</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q11" s="39"/>
     </row>
@@ -2881,13 +2131,11 @@
       <c r="B12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="5" t="str">
-        <f>VLOOKUP($B12,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>X04</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f>VLOOKUP($B12,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>X13</v>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>VLOOKUP(C12,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2897,10 +2145,12 @@
         <f>VLOOKUP(D12,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#13 Iona</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
       <c r="H12" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#4 Iowa St</v>
       </c>
       <c r="J12" s="6">
         <f>IFERROR(VLOOKUP(E12,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -2911,16 +2161,16 @@
         <v>1233</v>
       </c>
       <c r="M12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1X4</v>
       </c>
       <c r="N12" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1233_1235</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q12" s="39"/>
     </row>
@@ -2931,13 +2181,11 @@
       <c r="B13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="5" t="str">
-        <f>VLOOKUP($B13,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>X05</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f>VLOOKUP($B13,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>X12</v>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>VLOOKUP(C13,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2947,10 +2195,12 @@
         <f>VLOOKUP(D13,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#12 Ark Little Rock</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="14">
+        <v>2</v>
+      </c>
       <c r="H13" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#12 Ark Little Rock</v>
       </c>
       <c r="J13" s="6">
         <f>IFERROR(VLOOKUP(E13,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -2961,16 +2211,16 @@
         <v>1114</v>
       </c>
       <c r="M13" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1X5</v>
       </c>
       <c r="N13" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1114_1345</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q13" s="39"/>
     </row>
@@ -2981,13 +2231,11 @@
       <c r="B14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="5" t="str">
-        <f>VLOOKUP($B14,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>X06</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f>VLOOKUP($B14,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>X11</v>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>VLOOKUP(C14,teams!$A$2:$B$69,2,FALSE)</f>
@@ -2997,10 +2245,12 @@
         <f>VLOOKUP(D14,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#11 Gonzaga</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14">
+        <v>2</v>
+      </c>
       <c r="H14" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#11 Gonzaga</v>
       </c>
       <c r="J14" s="6">
         <f>IFERROR(VLOOKUP(E14,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3011,16 +2261,16 @@
         <v>1211</v>
       </c>
       <c r="M14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1X6</v>
       </c>
       <c r="N14" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1211_1371</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q14" s="39"/>
     </row>
@@ -3031,13 +2281,11 @@
       <c r="B15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="5" t="str">
-        <f>VLOOKUP($B15,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>X08</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f>VLOOKUP($B15,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>X09</v>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>VLOOKUP(C15,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3047,10 +2295,12 @@
         <f>VLOOKUP(D15,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#9 Butler</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="14">
+        <v>2</v>
+      </c>
       <c r="H15" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#9 Butler</v>
       </c>
       <c r="J15" s="6">
         <f>IFERROR(VLOOKUP(E15,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3061,16 +2311,16 @@
         <v>1139</v>
       </c>
       <c r="M15" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1X8</v>
       </c>
       <c r="N15" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1139_1403</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q15" s="39"/>
     </row>
@@ -3081,13 +2331,11 @@
       <c r="B16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="5" t="str">
-        <f>VLOOKUP($B16,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Y01</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f>VLOOKUP($B16,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Y16</v>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP(C16,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3097,10 +2345,12 @@
         <f>VLOOKUP(D16,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#16 Austin Peay</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
       <c r="H16" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#1 Kansas</v>
       </c>
       <c r="J16" s="6">
         <f>IFERROR(VLOOKUP(E16,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3111,16 +2361,16 @@
         <v>1122</v>
       </c>
       <c r="M16" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Y1</v>
       </c>
       <c r="N16" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1122_1242</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q16" s="39"/>
     </row>
@@ -3131,13 +2381,11 @@
       <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="5" t="str">
-        <f>VLOOKUP($B17,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Y03</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f>VLOOKUP($B17,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Y14</v>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP(C17,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3147,10 +2395,12 @@
         <f>VLOOKUP(D17,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#14 Buffalo</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
       <c r="H17" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#3 Miami FL</v>
       </c>
       <c r="J17" s="6">
         <f>IFERROR(VLOOKUP(E17,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3161,16 +2411,16 @@
         <v>1138</v>
       </c>
       <c r="M17" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Y3</v>
       </c>
       <c r="N17" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1138_1274</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q17" s="39"/>
     </row>
@@ -3181,9 +2431,8 @@
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="5" t="str">
-        <f>VLOOKUP($B18,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Y06</v>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>153</v>
@@ -3196,10 +2445,12 @@
         <f>VLOOKUP(D18,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#11 Wichita St</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="14">
+        <v>2</v>
+      </c>
       <c r="H18" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#11 Wichita St</v>
       </c>
       <c r="J18" s="6">
         <f>IFERROR(VLOOKUP(E18,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3210,16 +2461,16 @@
         <v>1455</v>
       </c>
       <c r="M18" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Y6</v>
       </c>
       <c r="N18" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1112_1455</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q18" s="39"/>
     </row>
@@ -3230,13 +2481,11 @@
       <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="5" t="str">
-        <f>VLOOKUP($B19,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Y08</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f>VLOOKUP($B19,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Y09</v>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>VLOOKUP(C19,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3246,10 +2495,12 @@
         <f>VLOOKUP(D19,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#9 Connecticut</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="14">
+        <v>2</v>
+      </c>
       <c r="H19" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#9 Connecticut</v>
       </c>
       <c r="J19" s="6">
         <f>IFERROR(VLOOKUP(E19,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3260,16 +2511,16 @@
         <v>1163</v>
       </c>
       <c r="M19" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Y8</v>
       </c>
       <c r="N19" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1160_1163</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q19" s="39"/>
     </row>
@@ -3280,13 +2531,11 @@
       <c r="B20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="5" t="str">
-        <f>VLOOKUP($B20,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Z04</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f>VLOOKUP($B20,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Z13</v>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP(C20,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3296,10 +2545,12 @@
         <f>VLOOKUP(D20,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#13 UNC Wilmington</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
       <c r="H20" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#4 Duke</v>
       </c>
       <c r="J20" s="6">
         <f>IFERROR(VLOOKUP(E20,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3310,16 +2561,16 @@
         <v>1423</v>
       </c>
       <c r="M20" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Z4</v>
       </c>
       <c r="N20" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1181_1423</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q20" s="39"/>
     </row>
@@ -3330,13 +2581,11 @@
       <c r="B21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="5" t="str">
-        <f>VLOOKUP($B21,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Z05</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f>VLOOKUP($B21,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Z12</v>
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP(C21,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3346,10 +2595,12 @@
         <f>VLOOKUP(D21,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#12 Yale</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="14">
+        <v>2</v>
+      </c>
       <c r="H21" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#12 Yale</v>
       </c>
       <c r="J21" s="6">
         <f>IFERROR(VLOOKUP(E21,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3360,16 +2611,16 @@
         <v>1463</v>
       </c>
       <c r="M21" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Z5</v>
       </c>
       <c r="N21" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1124_1463</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q21" s="39"/>
     </row>
@@ -3380,13 +2631,11 @@
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="5" t="str">
-        <f>VLOOKUP($B22,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>W02</v>
-      </c>
-      <c r="D22" s="5" t="str">
-        <f>VLOOKUP($B22,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>W15</v>
+      <c r="C22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>VLOOKUP(C22,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3396,10 +2645,12 @@
         <f>VLOOKUP(D22,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#15 Weber St</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
       <c r="H22" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#2 Xavier</v>
       </c>
       <c r="J22" s="6">
         <f>IFERROR(VLOOKUP(E22,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3410,16 +2661,16 @@
         <v>1451</v>
       </c>
       <c r="M22" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1W2</v>
       </c>
       <c r="N22" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1451_1462</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q22" s="39"/>
     </row>
@@ -3430,13 +2681,11 @@
       <c r="B23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="5" t="str">
-        <f>VLOOKUP($B23,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>W03</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f>VLOOKUP($B23,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>W14</v>
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>VLOOKUP(C23,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3446,10 +2695,12 @@
         <f>VLOOKUP(D23,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#14 SF Austin</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="14">
+        <v>2</v>
+      </c>
       <c r="H23" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#14 SF Austin</v>
       </c>
       <c r="J23" s="6">
         <f>IFERROR(VLOOKUP(E23,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3460,16 +2711,16 @@
         <v>1372</v>
       </c>
       <c r="M23" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1W3</v>
       </c>
       <c r="N23" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1372_1452</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q23" s="39"/>
     </row>
@@ -3480,9 +2731,8 @@
       <c r="B24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="5" t="str">
-        <f>VLOOKUP($B24,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>W06</v>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>10</v>
@@ -3495,10 +2745,12 @@
         <f>VLOOKUP(D24,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#11 Michigan</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
       <c r="H24" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#6 Notre Dame</v>
       </c>
       <c r="J24" s="6">
         <f>IFERROR(VLOOKUP(E24,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3509,16 +2761,16 @@
         <v>1276</v>
       </c>
       <c r="M24" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1W6</v>
       </c>
       <c r="N24" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1276_1323</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q24" s="39"/>
     </row>
@@ -3529,13 +2781,11 @@
       <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="5" t="str">
-        <f>VLOOKUP($B25,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>W07</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <f>VLOOKUP($B25,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>W10</v>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E25" s="5" t="str">
         <f>VLOOKUP(C25,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3545,10 +2795,12 @@
         <f>VLOOKUP(D25,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#10 Pittsburgh</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
       <c r="H25" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#7 Wisconsin</v>
       </c>
       <c r="J25" s="6">
         <f>IFERROR(VLOOKUP(E25,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3559,16 +2811,16 @@
         <v>1338</v>
       </c>
       <c r="M25" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1W7</v>
       </c>
       <c r="N25" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1338_1458</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q25" s="39"/>
     </row>
@@ -3579,13 +2831,11 @@
       <c r="B26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="5" t="str">
-        <f>VLOOKUP($B26,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>X02</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f>VLOOKUP($B26,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>X15</v>
+      <c r="C26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>VLOOKUP(C26,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3595,10 +2845,12 @@
         <f>VLOOKUP(D26,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#15 MTSU</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="14">
+        <v>2</v>
+      </c>
       <c r="H26" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#15 MTSU</v>
       </c>
       <c r="J26" s="6">
         <f>IFERROR(VLOOKUP(E26,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3609,16 +2861,16 @@
         <v>1292</v>
       </c>
       <c r="M26" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1X2</v>
       </c>
       <c r="N26" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1277_1292</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q26" s="39"/>
     </row>
@@ -3629,13 +2881,11 @@
       <c r="B27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="5" t="str">
-        <f>VLOOKUP($B27,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>X07</v>
-      </c>
-      <c r="D27" s="5" t="str">
-        <f>VLOOKUP($B27,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>X10</v>
+      <c r="C27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>VLOOKUP(C27,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3645,10 +2895,12 @@
         <f>VLOOKUP(D27,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#10 Syracuse</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14">
+        <v>2</v>
+      </c>
       <c r="H27" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#10 Syracuse</v>
       </c>
       <c r="J27" s="6">
         <f>IFERROR(VLOOKUP(E27,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3659,16 +2911,16 @@
         <v>1393</v>
       </c>
       <c r="M27" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1X7</v>
       </c>
       <c r="N27" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1173_1393</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q27" s="39"/>
     </row>
@@ -3679,13 +2931,11 @@
       <c r="B28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="5" t="str">
-        <f>VLOOKUP($B28,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Y02</v>
-      </c>
-      <c r="D28" s="5" t="str">
-        <f>VLOOKUP($B28,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Y15</v>
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>VLOOKUP(C28,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3695,10 +2945,12 @@
         <f>VLOOKUP(D28,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#15 UNC Asheville</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
       <c r="H28" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#2 Villanova</v>
       </c>
       <c r="J28" s="6">
         <f>IFERROR(VLOOKUP(E28,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3709,16 +2961,16 @@
         <v>1421</v>
       </c>
       <c r="M28" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Y2</v>
       </c>
       <c r="N28" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1421_1437</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q28" s="39"/>
     </row>
@@ -3729,13 +2981,11 @@
       <c r="B29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="5" t="str">
-        <f>VLOOKUP($B29,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Y04</v>
-      </c>
-      <c r="D29" s="5" t="str">
-        <f>VLOOKUP($B29,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Y13</v>
+      <c r="C29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>VLOOKUP(C29,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3745,10 +2995,12 @@
         <f>VLOOKUP(D29,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#13 Hawaii</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="14">
+        <v>2</v>
+      </c>
       <c r="H29" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#13 Hawaii</v>
       </c>
       <c r="J29" s="6">
         <f>IFERROR(VLOOKUP(E29,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3759,16 +3011,16 @@
         <v>1218</v>
       </c>
       <c r="M29" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Y4</v>
       </c>
       <c r="N29" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1143_1218</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q29" s="39"/>
     </row>
@@ -3779,13 +3031,11 @@
       <c r="B30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="5" t="str">
-        <f>VLOOKUP($B30,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Y05</v>
-      </c>
-      <c r="D30" s="5" t="str">
-        <f>VLOOKUP($B30,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Y12</v>
+      <c r="C30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>VLOOKUP(C30,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3795,10 +3045,12 @@
         <f>VLOOKUP(D30,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#12 S Dakota St</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
       <c r="H30" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#5 Maryland</v>
       </c>
       <c r="J30" s="6">
         <f>IFERROR(VLOOKUP(E30,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3809,16 +3061,16 @@
         <v>1355</v>
       </c>
       <c r="M30" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Y5</v>
       </c>
       <c r="N30" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1268_1355</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q30" s="39"/>
     </row>
@@ -3829,13 +3081,11 @@
       <c r="B31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="5" t="str">
-        <f>VLOOKUP($B31,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Y07</v>
-      </c>
-      <c r="D31" s="5" t="str">
-        <f>VLOOKUP($B31,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Y10</v>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>VLOOKUP(C31,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3845,10 +3095,12 @@
         <f>VLOOKUP(D31,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#10 Temple</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
       <c r="H31" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#7 Iowa</v>
       </c>
       <c r="J31" s="6">
         <f>IFERROR(VLOOKUP(E31,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3859,16 +3111,16 @@
         <v>1396</v>
       </c>
       <c r="M31" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Y7</v>
       </c>
       <c r="N31" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1234_1396</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q31" s="39"/>
     </row>
@@ -3879,9 +3131,8 @@
       <c r="B32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="5" t="str">
-        <f>VLOOKUP($B32,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Z01</v>
+      <c r="C32" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>154</v>
@@ -3894,10 +3145,12 @@
         <f>VLOOKUP(D32,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#16 Holy Cross</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
       <c r="H32" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#1 Oregon</v>
       </c>
       <c r="J32" s="6">
         <f>IFERROR(VLOOKUP(E32,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3908,16 +3161,16 @@
         <v>1221</v>
       </c>
       <c r="M32" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Z1</v>
       </c>
       <c r="N32" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1221_1332</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q32" s="39"/>
     </row>
@@ -3928,13 +3181,11 @@
       <c r="B33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="5" t="str">
-        <f>VLOOKUP($B33,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Z02</v>
-      </c>
-      <c r="D33" s="5" t="str">
-        <f>VLOOKUP($B33,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Z15</v>
+      <c r="C33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E33" s="5" t="str">
         <f>VLOOKUP(C33,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3944,10 +3195,12 @@
         <f>VLOOKUP(D33,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#15 CS Bakersfield</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
       <c r="H33" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#2 Oklahoma</v>
       </c>
       <c r="J33" s="6">
         <f>IFERROR(VLOOKUP(E33,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -3958,16 +3211,16 @@
         <v>1167</v>
       </c>
       <c r="M33" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Z2</v>
       </c>
       <c r="N33" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1167_1328</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q33" s="39"/>
     </row>
@@ -3978,13 +3231,11 @@
       <c r="B34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="5" t="str">
-        <f>VLOOKUP($B34,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Z03</v>
-      </c>
-      <c r="D34" s="5" t="str">
-        <f>VLOOKUP($B34,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Z14</v>
+      <c r="C34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>VLOOKUP(C34,teams!$A$2:$B$69,2,FALSE)</f>
@@ -3994,10 +3245,12 @@
         <f>VLOOKUP(D34,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#14 WI Green Bay</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="14">
+        <v>1</v>
+      </c>
       <c r="H34" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#3 Texas A&amp;M</v>
       </c>
       <c r="J34" s="6">
         <f>IFERROR(VLOOKUP(E34,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4008,16 +3261,16 @@
         <v>1453</v>
       </c>
       <c r="M34" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Z3</v>
       </c>
       <c r="N34" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1401_1453</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q34" s="39"/>
     </row>
@@ -4028,13 +3281,11 @@
       <c r="B35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="5" t="str">
-        <f>VLOOKUP($B35,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Z06</v>
-      </c>
-      <c r="D35" s="5" t="str">
-        <f>VLOOKUP($B35,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Z11</v>
+      <c r="C35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="E35" s="5" t="str">
         <f>VLOOKUP(C35,teams!$A$2:$B$69,2,FALSE)</f>
@@ -4044,10 +3295,12 @@
         <f>VLOOKUP(D35,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#11 Northern Iowa</v>
       </c>
-      <c r="G35" s="14"/>
+      <c r="G35" s="14">
+        <v>2</v>
+      </c>
       <c r="H35" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#11 Northern Iowa</v>
       </c>
       <c r="J35" s="6">
         <f>IFERROR(VLOOKUP(E35,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4058,16 +3311,16 @@
         <v>1320</v>
       </c>
       <c r="M35" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Z6</v>
       </c>
       <c r="N35" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1320_1400</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q35" s="39"/>
     </row>
@@ -4078,25 +3331,26 @@
       <c r="B36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="5" t="str">
-        <f>VLOOKUP($B36,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Z07</v>
-      </c>
-      <c r="D36" s="5" t="str">
-        <f>VLOOKUP($B36,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Z10</v>
+      <c r="C36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>VLOOKUP(C36,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#7 Oregon St</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G36" s="14"/>
+      <c r="F36" s="5" t="str">
+        <f>VLOOKUP(D36,teams!$A$2:$B$69,2,FALSE)</f>
+        <v>#10 VA Commonwealth</v>
+      </c>
+      <c r="G36" s="14">
+        <v>2</v>
+      </c>
       <c r="H36" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#10 VA Commonwealth</v>
       </c>
       <c r="J36" s="6">
         <f>IFERROR(VLOOKUP(E36,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4104,19 +3358,19 @@
       </c>
       <c r="K36" s="6">
         <f>IFERROR(VLOOKUP(F36,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v>1221</v>
+        <v>1433</v>
       </c>
       <c r="M36" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Z7</v>
       </c>
       <c r="N36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>2016_1221_1333</v>
+        <f t="shared" si="2"/>
+        <v>2016_1333_1433</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q36" s="39"/>
     </row>
@@ -4127,13 +3381,11 @@
       <c r="B37" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="16" t="str">
-        <f>VLOOKUP($B37,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>Z08</v>
-      </c>
-      <c r="D37" s="16" t="str">
-        <f>VLOOKUP($B37,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>Z09</v>
+      <c r="C37" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="E37" s="16" t="str">
         <f>VLOOKUP(C37,teams!$A$2:$B$69,2,FALSE)</f>
@@ -4143,10 +3395,12 @@
         <f>VLOOKUP(D37,teams!$A$2:$B$69,2,FALSE)</f>
         <v>#9 Cincinnati</v>
       </c>
-      <c r="G37" s="17"/>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
       <c r="H37" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#8 St Joseph's PA</v>
       </c>
       <c r="J37" s="6">
         <f>IFERROR(VLOOKUP(E37,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4157,16 +3411,16 @@
         <v>1153</v>
       </c>
       <c r="M37" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R1Z8</v>
       </c>
       <c r="N37" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016_1153_1386</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q37" s="39"/>
     </row>
@@ -4177,46 +3431,46 @@
       <c r="B38" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="19" t="str">
-        <f>VLOOKUP($B38,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1W1</v>
-      </c>
-      <c r="D38" s="19" t="str">
-        <f>VLOOKUP($B38,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1W8</v>
+      <c r="C38" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E38" s="19" t="str">
-        <f>IF(G6=1,E6,IF(G6=2,F6,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C38,$B$6:$H37,7,FALSE)</f>
+        <v>#1 North Carolina</v>
       </c>
       <c r="F38" s="19" t="str">
-        <f>IF(G7=1,E7,IF(G7=2,F7,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G38" s="20"/>
+        <f>VLOOKUP(D38,$B$6:$H37,7,FALSE)</f>
+        <v>#9 Providence</v>
+      </c>
+      <c r="G38" s="20">
+        <v>1</v>
+      </c>
       <c r="H38" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#1 North Carolina</v>
+      </c>
+      <c r="J38" s="6">
         <f>IFERROR(VLOOKUP(E38,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K38" s="6" t="str">
+        <v>1314</v>
+      </c>
+      <c r="K38" s="6">
         <f>IFERROR(VLOOKUP(F38,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1344</v>
       </c>
       <c r="M38" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2W1</v>
       </c>
       <c r="N38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1314_1344</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q38" s="39"/>
     </row>
@@ -4227,46 +3481,46 @@
       <c r="B39" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="5" t="str">
-        <f>VLOOKUP($B39,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1W4</v>
-      </c>
-      <c r="D39" s="5" t="str">
-        <f>VLOOKUP($B39,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1W5</v>
+      <c r="C39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E39" s="5" t="str">
-        <f>IF(G8=1,E8,IF(G8=2,F8,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C39,$B$6:$H38,7,FALSE)</f>
+        <v>#4 Kentucky</v>
       </c>
       <c r="F39" s="5" t="str">
-        <f>IF(G11=1,E11,IF(G11=2,F11,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G39" s="14"/>
+        <f>VLOOKUP(D39,$B$6:$H38,7,FALSE)</f>
+        <v>#5 Indiana</v>
+      </c>
+      <c r="G39" s="14">
+        <v>2</v>
+      </c>
       <c r="H39" s="27" t="str">
-        <f t="shared" ref="H39:H45" si="5">IF(G39=1,E39,IF(G39=2,F39,""))</f>
-        <v/>
-      </c>
-      <c r="J39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#5 Indiana</v>
+      </c>
+      <c r="J39" s="6">
         <f>IFERROR(VLOOKUP(E39,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K39" s="6" t="str">
+        <v>1246</v>
+      </c>
+      <c r="K39" s="6">
         <f>IFERROR(VLOOKUP(F39,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1231</v>
       </c>
       <c r="M39" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2W4</v>
       </c>
       <c r="N39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1231_1246</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q39" s="39"/>
     </row>
@@ -4277,46 +3531,46 @@
       <c r="B40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="5" t="str">
-        <f>VLOOKUP($B40,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1X1</v>
-      </c>
-      <c r="D40" s="5" t="str">
-        <f>VLOOKUP($B40,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1X8</v>
+      <c r="C40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E40" s="5" t="str">
-        <f>IF(G9=1,E9,IF(G9=2,F9,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C40,$B$6:$H39,7,FALSE)</f>
+        <v>#1 Virginia</v>
       </c>
       <c r="F40" s="5" t="str">
-        <f>IF(G10=1,E10,IF(G10=2,F10,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G40" s="14"/>
+        <f>VLOOKUP(D40,$B$6:$H39,7,FALSE)</f>
+        <v>#9 Butler</v>
+      </c>
+      <c r="G40" s="14">
+        <v>1</v>
+      </c>
       <c r="H40" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#1 Virginia</v>
+      </c>
+      <c r="J40" s="6">
         <f>IFERROR(VLOOKUP(E40,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K40" s="6" t="str">
+        <v>1438</v>
+      </c>
+      <c r="K40" s="6">
         <f>IFERROR(VLOOKUP(F40,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1139</v>
       </c>
       <c r="M40" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2X1</v>
       </c>
       <c r="N40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1139_1438</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q40" s="39"/>
     </row>
@@ -4327,46 +3581,46 @@
       <c r="B41" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="5" t="str">
-        <f>VLOOKUP($B41,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1X3</v>
-      </c>
-      <c r="D41" s="5" t="str">
-        <f>VLOOKUP($B41,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1X6</v>
+      <c r="C41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E41" s="5" t="str">
-        <f>IF(G12=1,E12,IF(G12=2,F12,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C41,$B$6:$H40,7,FALSE)</f>
+        <v>#3 Utah</v>
       </c>
       <c r="F41" s="5" t="str">
-        <f>IF(G15=1,E15,IF(G15=2,F15,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G41" s="14"/>
+        <f>VLOOKUP(D41,$B$6:$H40,7,FALSE)</f>
+        <v>#11 Gonzaga</v>
+      </c>
+      <c r="G41" s="14">
+        <v>2</v>
+      </c>
       <c r="H41" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#11 Gonzaga</v>
+      </c>
+      <c r="J41" s="6">
         <f>IFERROR(VLOOKUP(E41,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K41" s="6" t="str">
+        <v>1428</v>
+      </c>
+      <c r="K41" s="6">
         <f>IFERROR(VLOOKUP(F41,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1211</v>
       </c>
       <c r="M41" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2X3</v>
       </c>
       <c r="N41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1211_1428</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q41" s="39"/>
     </row>
@@ -4377,46 +3631,46 @@
       <c r="B42" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="5" t="str">
-        <f>VLOOKUP($B42,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1X4</v>
-      </c>
-      <c r="D42" s="5" t="str">
-        <f>VLOOKUP($B42,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1X5</v>
+      <c r="C42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E42" s="5" t="str">
-        <f>IF(G13=1,E13,IF(G13=2,F13,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C42,$B$6:$H41,7,FALSE)</f>
+        <v>#4 Iowa St</v>
       </c>
       <c r="F42" s="5" t="str">
-        <f>IF(G14=1,E14,IF(G14=2,F14,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G42" s="14"/>
+        <f>VLOOKUP(D42,$B$6:$H41,7,FALSE)</f>
+        <v>#12 Ark Little Rock</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1</v>
+      </c>
       <c r="H42" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#4 Iowa St</v>
+      </c>
+      <c r="J42" s="6">
         <f>IFERROR(VLOOKUP(E42,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K42" s="6" t="str">
+        <v>1235</v>
+      </c>
+      <c r="K42" s="6">
         <f>IFERROR(VLOOKUP(F42,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1114</v>
       </c>
       <c r="M42" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2X4</v>
       </c>
       <c r="N42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1114_1235</v>
       </c>
       <c r="O42" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q42" s="39"/>
     </row>
@@ -4427,46 +3681,46 @@
       <c r="B43" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="5" t="str">
-        <f>VLOOKUP($B43,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1Y1</v>
-      </c>
-      <c r="D43" s="5" t="str">
-        <f>VLOOKUP($B43,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1Y8</v>
+      <c r="C43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E43" s="5" t="str">
-        <f>IF(G16=1,E16,IF(G16=2,F16,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C43,$B$6:$H42,7,FALSE)</f>
+        <v>#1 Kansas</v>
       </c>
       <c r="F43" s="5" t="str">
-        <f>IF(G21=1,E21,IF(G21=2,F21,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G43" s="14"/>
+        <f>VLOOKUP(D43,$B$6:$H42,7,FALSE)</f>
+        <v>#9 Connecticut</v>
+      </c>
+      <c r="G43" s="14">
+        <v>1</v>
+      </c>
       <c r="H43" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#1 Kansas</v>
+      </c>
+      <c r="J43" s="6">
         <f>IFERROR(VLOOKUP(E43,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K43" s="6" t="str">
+        <v>1242</v>
+      </c>
+      <c r="K43" s="6">
         <f>IFERROR(VLOOKUP(F43,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1163</v>
       </c>
       <c r="M43" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2Y1</v>
       </c>
       <c r="N43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1163_1242</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q43" s="39"/>
     </row>
@@ -4477,46 +3731,46 @@
       <c r="B44" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="5" t="str">
-        <f>VLOOKUP($B44,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1Y3</v>
-      </c>
-      <c r="D44" s="5" t="str">
-        <f>VLOOKUP($B44,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1Y6</v>
+      <c r="C44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="E44" s="5" t="str">
-        <f>IF(G17=1,E17,IF(G17=2,F17,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C44,$B$6:$H43,7,FALSE)</f>
+        <v>#3 Miami FL</v>
       </c>
       <c r="F44" s="5" t="str">
-        <f>IF(G20=1,E20,IF(G20=2,F20,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G44" s="14"/>
+        <f>VLOOKUP(D44,$B$6:$H43,7,FALSE)</f>
+        <v>#11 Wichita St</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1</v>
+      </c>
       <c r="H44" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#3 Miami FL</v>
+      </c>
+      <c r="J44" s="6">
         <f>IFERROR(VLOOKUP(E44,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K44" s="6" t="str">
+        <v>1274</v>
+      </c>
+      <c r="K44" s="6">
         <f>IFERROR(VLOOKUP(F44,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1455</v>
       </c>
       <c r="M44" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2Y3</v>
       </c>
       <c r="N44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1274_1455</v>
       </c>
       <c r="O44" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q44" s="39"/>
     </row>
@@ -4527,46 +3781,46 @@
       <c r="B45" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="5" t="str">
-        <f>VLOOKUP($B45,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1Z4</v>
-      </c>
-      <c r="D45" s="5" t="str">
-        <f>VLOOKUP($B45,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1Z5</v>
+      <c r="C45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E45" s="5" t="str">
-        <f>IF(G18=1,E18,IF(G18=2,F18,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C45,$B$6:$H44,7,FALSE)</f>
+        <v>#4 Duke</v>
       </c>
       <c r="F45" s="5" t="str">
-        <f>IF(G19=1,E19,IF(G19=2,F19,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G45" s="14"/>
+        <f>VLOOKUP(D45,$B$6:$H44,7,FALSE)</f>
+        <v>#12 Yale</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1</v>
+      </c>
       <c r="H45" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#4 Duke</v>
+      </c>
+      <c r="J45" s="6">
         <f>IFERROR(VLOOKUP(E45,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K45" s="6" t="str">
+        <v>1181</v>
+      </c>
+      <c r="K45" s="6">
         <f>IFERROR(VLOOKUP(F45,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1463</v>
       </c>
       <c r="M45" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2Z4</v>
       </c>
       <c r="N45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1181_1463</v>
       </c>
       <c r="O45" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q45" s="39"/>
     </row>
@@ -4577,46 +3831,46 @@
       <c r="B46" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="5" t="str">
-        <f>VLOOKUP($B46,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1W2</v>
-      </c>
-      <c r="D46" s="5" t="str">
-        <f>VLOOKUP($B46,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1W7</v>
+      <c r="C46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E46" s="5" t="str">
-        <f>IF(G22=1,E22,IF(G22=2,F22,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C46,$B$6:$H45,7,FALSE)</f>
+        <v>#2 Xavier</v>
       </c>
       <c r="F46" s="5" t="str">
-        <f>IF(G27=1,E27,IF(G27=2,F27,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G46" s="14"/>
+        <f>VLOOKUP(D46,$B$6:$H45,7,FALSE)</f>
+        <v>#7 Wisconsin</v>
+      </c>
+      <c r="G46" s="14">
+        <v>2</v>
+      </c>
       <c r="H46" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#7 Wisconsin</v>
+      </c>
+      <c r="J46" s="6">
         <f>IFERROR(VLOOKUP(E46,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K46" s="6" t="str">
+        <v>1462</v>
+      </c>
+      <c r="K46" s="6">
         <f>IFERROR(VLOOKUP(F46,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1458</v>
       </c>
       <c r="M46" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2W2</v>
       </c>
       <c r="N46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1458_1462</v>
       </c>
       <c r="O46" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q46" s="39"/>
     </row>
@@ -4627,46 +3881,46 @@
       <c r="B47" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="5" t="str">
-        <f>VLOOKUP($B47,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1W3</v>
-      </c>
-      <c r="D47" s="5" t="str">
-        <f>VLOOKUP($B47,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1W6</v>
+      <c r="C47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E47" s="5" t="str">
-        <f>IF(G23=1,E23,IF(G23=2,F23,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C47,$B$6:$H46,7,FALSE)</f>
+        <v>#14 SF Austin</v>
       </c>
       <c r="F47" s="5" t="str">
-        <f>IF(G26=1,E26,IF(G26=2,F26,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G47" s="14"/>
+        <f>VLOOKUP(D47,$B$6:$H46,7,FALSE)</f>
+        <v>#6 Notre Dame</v>
+      </c>
+      <c r="G47" s="14">
+        <v>2</v>
+      </c>
       <c r="H47" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#6 Notre Dame</v>
+      </c>
+      <c r="J47" s="6">
         <f>IFERROR(VLOOKUP(E47,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K47" s="6" t="str">
+        <v>1372</v>
+      </c>
+      <c r="K47" s="6">
         <f>IFERROR(VLOOKUP(F47,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1323</v>
       </c>
       <c r="M47" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2W3</v>
       </c>
       <c r="N47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1323_1372</v>
       </c>
       <c r="O47" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q47" s="39"/>
     </row>
@@ -4677,46 +3931,46 @@
       <c r="B48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="5" t="str">
-        <f>VLOOKUP($B48,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1X2</v>
-      </c>
-      <c r="D48" s="5" t="str">
-        <f>VLOOKUP($B48,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1X7</v>
+      <c r="C48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E48" s="5" t="str">
-        <f>IF(G24=1,E24,IF(G24=2,F24,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C48,$B$6:$H47,7,FALSE)</f>
+        <v>#15 MTSU</v>
       </c>
       <c r="F48" s="5" t="str">
-        <f>IF(G25=1,E25,IF(G25=2,F25,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G48" s="14"/>
+        <f>VLOOKUP(D48,$B$6:$H47,7,FALSE)</f>
+        <v>#10 Syracuse</v>
+      </c>
+      <c r="G48" s="14">
+        <v>2</v>
+      </c>
       <c r="H48" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#10 Syracuse</v>
+      </c>
+      <c r="J48" s="6">
         <f>IFERROR(VLOOKUP(E48,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K48" s="6" t="str">
+        <v>1292</v>
+      </c>
+      <c r="K48" s="6">
         <f>IFERROR(VLOOKUP(F48,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1393</v>
       </c>
       <c r="M48" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2X2</v>
       </c>
       <c r="N48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1292_1393</v>
       </c>
       <c r="O48" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q48" s="39"/>
     </row>
@@ -4727,46 +3981,46 @@
       <c r="B49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="5" t="str">
-        <f>VLOOKUP($B49,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1Y2</v>
-      </c>
-      <c r="D49" s="5" t="str">
-        <f>VLOOKUP($B49,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1Y7</v>
+      <c r="C49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E49" s="5" t="str">
-        <f>IF(G28=1,E28,IF(G28=2,F28,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C49,$B$6:$H48,7,FALSE)</f>
+        <v>#2 Villanova</v>
       </c>
       <c r="F49" s="5" t="str">
-        <f>IF(G31=1,E31,IF(G31=2,F31,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G49" s="14"/>
+        <f>VLOOKUP(D49,$B$6:$H48,7,FALSE)</f>
+        <v>#7 Iowa</v>
+      </c>
+      <c r="G49" s="14">
+        <v>1</v>
+      </c>
       <c r="H49" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#2 Villanova</v>
+      </c>
+      <c r="J49" s="6">
         <f>IFERROR(VLOOKUP(E49,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K49" s="6" t="str">
+        <v>1437</v>
+      </c>
+      <c r="K49" s="6">
         <f>IFERROR(VLOOKUP(F49,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1234</v>
       </c>
       <c r="M49" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2Y2</v>
       </c>
       <c r="N49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1234_1437</v>
       </c>
       <c r="O49" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q49" s="39"/>
     </row>
@@ -4777,46 +4031,46 @@
       <c r="B50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="5" t="str">
-        <f>VLOOKUP($B50,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1Y4</v>
-      </c>
-      <c r="D50" s="5" t="str">
-        <f>VLOOKUP($B50,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1Y5</v>
+      <c r="C50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="E50" s="5" t="str">
-        <f>IF(G29=1,E29,IF(G29=2,F29,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C50,$B$6:$H49,7,FALSE)</f>
+        <v>#13 Hawaii</v>
       </c>
       <c r="F50" s="5" t="str">
-        <f>IF(G30=1,E30,IF(G30=2,F30,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G50" s="14"/>
+        <f>VLOOKUP(D50,$B$6:$H49,7,FALSE)</f>
+        <v>#5 Maryland</v>
+      </c>
+      <c r="G50" s="14">
+        <v>2</v>
+      </c>
       <c r="H50" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#5 Maryland</v>
+      </c>
+      <c r="J50" s="6">
         <f>IFERROR(VLOOKUP(E50,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K50" s="6" t="str">
+        <v>1218</v>
+      </c>
+      <c r="K50" s="6">
         <f>IFERROR(VLOOKUP(F50,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1268</v>
       </c>
       <c r="M50" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2Y4</v>
       </c>
       <c r="N50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1218_1268</v>
       </c>
       <c r="O50" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q50" s="39"/>
     </row>
@@ -4827,46 +4081,46 @@
       <c r="B51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="5" t="str">
-        <f>VLOOKUP($B51,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1Z1</v>
-      </c>
-      <c r="D51" s="5" t="str">
-        <f>VLOOKUP($B51,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1Z8</v>
+      <c r="C51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E51" s="5" t="str">
-        <f>IF(G32=1,E32,IF(G32=2,F32,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C51,$B$6:$H50,7,FALSE)</f>
+        <v>#1 Oregon</v>
       </c>
       <c r="F51" s="5" t="str">
-        <f>IF(G35=1,E35,IF(G35=2,F35,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G51" s="14"/>
+        <f>VLOOKUP(D51,$B$6:$H50,7,FALSE)</f>
+        <v>#8 St Joseph's PA</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1</v>
+      </c>
       <c r="H51" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#1 Oregon</v>
+      </c>
+      <c r="J51" s="6">
         <f>IFERROR(VLOOKUP(E51,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K51" s="6" t="str">
+        <v>1332</v>
+      </c>
+      <c r="K51" s="6">
         <f>IFERROR(VLOOKUP(F51,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1386</v>
       </c>
       <c r="M51" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2Z1</v>
       </c>
       <c r="N51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1332_1386</v>
       </c>
       <c r="O51" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q51" s="39"/>
     </row>
@@ -4877,46 +4131,46 @@
       <c r="B52" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="5" t="str">
-        <f>VLOOKUP($B52,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1Z2</v>
-      </c>
-      <c r="D52" s="5" t="str">
-        <f>VLOOKUP($B52,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1Z7</v>
+      <c r="C52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E52" s="5" t="str">
-        <f>IF(G33=1,E33,IF(G33=2,F33,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C52,$B$6:$H51,7,FALSE)</f>
+        <v>#2 Oklahoma</v>
       </c>
       <c r="F52" s="5" t="str">
-        <f>IF(G34=1,E34,IF(G34=2,F34,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G52" s="14"/>
+        <f>VLOOKUP(D52,$B$6:$H51,7,FALSE)</f>
+        <v>#10 VA Commonwealth</v>
+      </c>
+      <c r="G52" s="14">
+        <v>1</v>
+      </c>
       <c r="H52" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#2 Oklahoma</v>
+      </c>
+      <c r="J52" s="6">
         <f>IFERROR(VLOOKUP(E52,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K52" s="6" t="str">
+        <v>1328</v>
+      </c>
+      <c r="K52" s="6">
         <f>IFERROR(VLOOKUP(F52,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1433</v>
       </c>
       <c r="M52" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2Z2</v>
       </c>
       <c r="N52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1328_1433</v>
       </c>
       <c r="O52" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q52" s="39"/>
     </row>
@@ -4927,46 +4181,46 @@
       <c r="B53" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="16" t="str">
-        <f>VLOOKUP($B53,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R1Z3</v>
-      </c>
-      <c r="D53" s="16" t="str">
-        <f>VLOOKUP($B53,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R1Z6</v>
+      <c r="C53" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="E53" s="16" t="str">
-        <f>IF(G36=1,E36,IF(G36=2,F36,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C53,$B$6:$H52,7,FALSE)</f>
+        <v>#3 Texas A&amp;M</v>
       </c>
       <c r="F53" s="16" t="str">
-        <f>IF(G37=1,E37,IF(G37=2,F37,"(not known yet)"))</f>
-        <v>(not known yet)</v>
-      </c>
-      <c r="G53" s="17"/>
+        <f>VLOOKUP(D53,$B$6:$H52,7,FALSE)</f>
+        <v>#11 Northern Iowa</v>
+      </c>
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
       <c r="H53" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#3 Texas A&amp;M</v>
+      </c>
+      <c r="J53" s="6">
         <f>IFERROR(VLOOKUP(E53,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K53" s="6" t="str">
+        <v>1401</v>
+      </c>
+      <c r="K53" s="6">
         <f>IFERROR(VLOOKUP(F53,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1320</v>
       </c>
       <c r="M53" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R2Z3</v>
       </c>
       <c r="N53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1320_1401</v>
       </c>
       <c r="O53" s="6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q53" s="39"/>
     </row>
@@ -4977,45 +4231,43 @@
       <c r="B54" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="19" t="str">
-        <f>VLOOKUP($B54,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R2Y1</v>
-      </c>
-      <c r="D54" s="19" t="str">
-        <f>VLOOKUP($B54,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R2Y4</v>
+      <c r="C54" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="E54" s="19" t="str">
-        <f>IF(G41=1,E41,IF(G41=2,F41,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C54,$B$6:$H53,7,FALSE)</f>
+        <v>#1 Kansas</v>
       </c>
       <c r="F54" s="19" t="str">
-        <f>IF(G52=1,E52,IF(G52=2,F52,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D54,$B$6:$H53,7,FALSE)</f>
+        <v>#5 Maryland</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="31" t="str">
-        <f>IF(G54=1,E54,IF(G54=2,F54,""))</f>
-        <v/>
-      </c>
-      <c r="J54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+      <c r="J54" s="6">
         <f>IFERROR(VLOOKUP(E54,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K54" s="6" t="str">
+        <v>1242</v>
+      </c>
+      <c r="K54" s="6">
         <f>IFERROR(VLOOKUP(F54,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1268</v>
       </c>
       <c r="M54" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R3Y1</v>
       </c>
       <c r="N54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1242_1268</v>
       </c>
       <c r="O54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q54" s="39"/>
@@ -5027,45 +4279,43 @@
       <c r="B55" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="5" t="str">
-        <f>VLOOKUP($B55,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R2Y2</v>
-      </c>
-      <c r="D55" s="5" t="str">
-        <f>VLOOKUP($B55,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R2Y3</v>
+      <c r="C55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E55" s="5" t="str">
-        <f>IF(G51=1,E51,IF(G51=2,F51,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C55,$B$6:$H54,7,FALSE)</f>
+        <v>#2 Villanova</v>
       </c>
       <c r="F55" s="5" t="str">
-        <f>IF(G42=1,E42,IF(G42=2,F42,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D55,$B$6:$H54,7,FALSE)</f>
+        <v>#3 Miami FL</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="27" t="str">
-        <f>IF(G55=1,E55,IF(G55=2,F55,""))</f>
-        <v/>
-      </c>
-      <c r="J55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+      <c r="J55" s="6">
         <f>IFERROR(VLOOKUP(E55,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K55" s="6" t="str">
+        <v>1437</v>
+      </c>
+      <c r="K55" s="6">
         <f>IFERROR(VLOOKUP(F55,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1274</v>
       </c>
       <c r="M55" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R3Y2</v>
       </c>
       <c r="N55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1274_1437</v>
       </c>
       <c r="O55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q55" s="39"/>
@@ -5077,45 +4327,43 @@
       <c r="B56" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="5" t="str">
-        <f>VLOOKUP($B56,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R2Z1</v>
-      </c>
-      <c r="D56" s="5" t="str">
-        <f>VLOOKUP($B56,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R2Z4</v>
+      <c r="C56" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="E56" s="5" t="str">
-        <f>IF(G53=1,E53,IF(G53=2,F53,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C56,$B$6:$H55,7,FALSE)</f>
+        <v>#1 Oregon</v>
       </c>
       <c r="F56" s="5" t="str">
-        <f>IF(G45=1,E45,IF(G45=2,F45,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D56,$B$6:$H55,7,FALSE)</f>
+        <v>#4 Duke</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="27" t="str">
-        <f>IF(G56=1,E56,IF(G56=2,F56,""))</f>
-        <v/>
-      </c>
-      <c r="J56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+      <c r="J56" s="6">
         <f>IFERROR(VLOOKUP(E56,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K56" s="6" t="str">
+        <v>1332</v>
+      </c>
+      <c r="K56" s="6">
         <f>IFERROR(VLOOKUP(F56,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1181</v>
       </c>
       <c r="M56" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R3Z1</v>
       </c>
       <c r="N56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1181_1332</v>
       </c>
       <c r="O56" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q56" s="39"/>
@@ -5127,45 +4375,43 @@
       <c r="B57" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="5" t="str">
-        <f>VLOOKUP($B57,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R2Z2</v>
-      </c>
-      <c r="D57" s="5" t="str">
-        <f>VLOOKUP($B57,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R2Z3</v>
+      <c r="C57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E57" s="5" t="str">
-        <f>IF(G43=1,E43,IF(G43=2,F43,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C57,$B$6:$H56,7,FALSE)</f>
+        <v>#2 Oklahoma</v>
       </c>
       <c r="F57" s="5" t="str">
-        <f>IF(G44=1,E44,IF(G44=2,F44,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D57,$B$6:$H56,7,FALSE)</f>
+        <v>#3 Texas A&amp;M</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="27" t="str">
-        <f>IF(G57=1,E57,IF(G57=2,F57,""))</f>
-        <v/>
-      </c>
-      <c r="J57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+      <c r="J57" s="6">
         <f>IFERROR(VLOOKUP(E57,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K57" s="6" t="str">
+        <v>1328</v>
+      </c>
+      <c r="K57" s="6">
         <f>IFERROR(VLOOKUP(F57,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1401</v>
       </c>
       <c r="M57" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R3Z2</v>
       </c>
       <c r="N57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1328_1401</v>
       </c>
       <c r="O57" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q57" s="39"/>
@@ -5177,45 +4423,43 @@
       <c r="B58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="5" t="str">
-        <f>VLOOKUP($B58,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R2W1</v>
-      </c>
-      <c r="D58" s="5" t="str">
-        <f>VLOOKUP($B58,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R2W4</v>
+      <c r="C58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E58" s="5" t="str">
-        <f>IF(G38=1,E38,IF(G38=2,F38,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C58,$B$6:$H57,7,FALSE)</f>
+        <v>#1 North Carolina</v>
       </c>
       <c r="F58" s="5" t="str">
-        <f>IF(G48=1,E48,IF(G48=2,F48,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D58,$B$6:$H57,7,FALSE)</f>
+        <v>#5 Indiana</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+      <c r="J58" s="6">
         <f>IFERROR(VLOOKUP(E58,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K58" s="6" t="str">
+        <v>1314</v>
+      </c>
+      <c r="K58" s="6">
         <f>IFERROR(VLOOKUP(F58,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1231</v>
       </c>
       <c r="M58" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R3W1</v>
       </c>
       <c r="N58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1231_1314</v>
       </c>
       <c r="O58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q58" s="39"/>
@@ -5227,45 +4471,43 @@
       <c r="B59" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="5" t="str">
-        <f>VLOOKUP($B59,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R2W2</v>
-      </c>
-      <c r="D59" s="5" t="str">
-        <f>VLOOKUP($B59,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R2W3</v>
+      <c r="C59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E59" s="5" t="str">
-        <f>IF(G46=1,E46,IF(G46=2,F46,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C59,$B$6:$H58,7,FALSE)</f>
+        <v>#7 Wisconsin</v>
       </c>
       <c r="F59" s="5" t="str">
-        <f>IF(G47=1,E47,IF(G47=2,F47,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D59,$B$6:$H58,7,FALSE)</f>
+        <v>#6 Notre Dame</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+      <c r="J59" s="6">
         <f>IFERROR(VLOOKUP(E59,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K59" s="6" t="str">
+        <v>1458</v>
+      </c>
+      <c r="K59" s="6">
         <f>IFERROR(VLOOKUP(F59,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1323</v>
       </c>
       <c r="M59" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R3W2</v>
       </c>
       <c r="N59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1323_1458</v>
       </c>
       <c r="O59" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q59" s="39"/>
@@ -5277,45 +4519,43 @@
       <c r="B60" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="5" t="str">
-        <f>VLOOKUP($B60,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R2X1</v>
-      </c>
-      <c r="D60" s="5" t="str">
-        <f>VLOOKUP($B60,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R2X4</v>
+      <c r="C60" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E60" s="5" t="str">
-        <f>IF(G49=1,E49,IF(G49=2,F49,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C60,$B$6:$H59,7,FALSE)</f>
+        <v>#1 Virginia</v>
       </c>
       <c r="F60" s="5" t="str">
-        <f>IF(G40=1,E40,IF(G40=2,F40,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D60,$B$6:$H59,7,FALSE)</f>
+        <v>#4 Iowa St</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+      <c r="J60" s="6">
         <f>IFERROR(VLOOKUP(E60,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K60" s="6" t="str">
+        <v>1438</v>
+      </c>
+      <c r="K60" s="6">
         <f>IFERROR(VLOOKUP(F60,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1235</v>
       </c>
       <c r="M60" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R3X1</v>
       </c>
       <c r="N60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1235_1438</v>
       </c>
       <c r="O60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q60" s="39"/>
@@ -5327,45 +4567,43 @@
       <c r="B61" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="16" t="str">
-        <f>VLOOKUP($B61,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R2X2</v>
-      </c>
-      <c r="D61" s="16" t="str">
-        <f>VLOOKUP($B61,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R2X3</v>
+      <c r="C61" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="E61" s="16" t="str">
-        <f>IF(G50=1,E50,IF(G50=2,F50,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C61,$B$6:$H60,7,FALSE)</f>
+        <v>#10 Syracuse</v>
       </c>
       <c r="F61" s="16" t="str">
-        <f>IF(G39=1,E39,IF(G39=2,F39,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D61,$B$6:$H60,7,FALSE)</f>
+        <v>#11 Gonzaga</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+      <c r="J61" s="6">
         <f>IFERROR(VLOOKUP(E61,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K61" s="6" t="str">
+        <v>1393</v>
+      </c>
+      <c r="K61" s="6">
         <f>IFERROR(VLOOKUP(F61,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1211</v>
       </c>
       <c r="M61" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R3X2</v>
       </c>
       <c r="N61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>2016_1211_1393</v>
       </c>
       <c r="O61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q61" s="39"/>
@@ -5377,26 +4615,24 @@
       <c r="B62" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="19" t="str">
-        <f>VLOOKUP($B62,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R3Y1</v>
-      </c>
-      <c r="D62" s="19" t="str">
-        <f>VLOOKUP($B62,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R3Y2</v>
+      <c r="C62" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="E62" s="19" t="str">
-        <f>IF(G54=1,E54,IF(G54=2,F54,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C62,$B$6:$H61,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="F62" s="19" t="str">
-        <f>IF(G55=1,E55,IF(G55=2,F55,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D62,$B$6:$H61,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="31" t="str">
-        <f>IF(G62=1,E62,IF(G62=2,F62,""))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>TBD</v>
       </c>
       <c r="J62" s="6" t="str">
         <f>IFERROR(VLOOKUP(E62,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -5407,15 +4643,15 @@
         <v/>
       </c>
       <c r="M62" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R4Y1</v>
       </c>
       <c r="N62" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q62" s="39"/>
@@ -5427,26 +4663,24 @@
       <c r="B63" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="5" t="str">
-        <f>VLOOKUP($B63,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R3Z1</v>
-      </c>
-      <c r="D63" s="5" t="str">
-        <f>VLOOKUP($B63,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R3Z2</v>
+      <c r="C63" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E63" s="5" t="str">
-        <f>IF(G56=1,E56,IF(G56=2,F56,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C63,$B$6:$H62,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="F63" s="5" t="str">
-        <f>IF(G57=1,E57,IF(G57=2,F57,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D63,$B$6:$H62,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="27" t="str">
-        <f>IF(G63=1,E63,IF(G63=2,F63,""))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>TBD</v>
       </c>
       <c r="J63" s="6" t="str">
         <f>IFERROR(VLOOKUP(E63,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -5457,15 +4691,15 @@
         <v/>
       </c>
       <c r="M63" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R4Z1</v>
       </c>
       <c r="N63" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q63" s="39"/>
@@ -5477,26 +4711,24 @@
       <c r="B64" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="5" t="str">
-        <f>VLOOKUP($B64,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R3W1</v>
-      </c>
-      <c r="D64" s="5" t="str">
-        <f>VLOOKUP($B64,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R3W2</v>
+      <c r="C64" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E64" s="5" t="str">
-        <f>IF(G58=1,E58,IF(G58=2,F58,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C64,$B$6:$H63,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="F64" s="5" t="str">
-        <f>IF(G59=1,E59,IF(G59=2,F59,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D64,$B$6:$H63,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>TBD</v>
       </c>
       <c r="J64" s="6" t="str">
         <f>IFERROR(VLOOKUP(E64,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -5507,15 +4739,15 @@
         <v/>
       </c>
       <c r="M64" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R4W1</v>
       </c>
       <c r="N64" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q64" s="39"/>
@@ -5527,26 +4759,24 @@
       <c r="B65" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="16" t="str">
-        <f>VLOOKUP($B65,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R3X1</v>
-      </c>
-      <c r="D65" s="16" t="str">
-        <f>VLOOKUP($B65,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R3X2</v>
+      <c r="C65" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="E65" s="16" t="str">
-        <f>IF(G60=1,E60,IF(G60=2,F60,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C65,$B$6:$H64,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="F65" s="16" t="str">
-        <f>IF(G61=1,E61,IF(G61=2,F61,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D65,$B$6:$H64,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>TBD</v>
       </c>
       <c r="J65" s="6" t="str">
         <f>IFERROR(VLOOKUP(E65,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -5557,15 +4787,15 @@
         <v/>
       </c>
       <c r="M65" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R4X1</v>
       </c>
       <c r="N65" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q65" s="39"/>
@@ -5577,26 +4807,24 @@
       <c r="B66" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="19" t="str">
-        <f>VLOOKUP($B66,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R4W1</v>
-      </c>
-      <c r="D66" s="19" t="str">
-        <f>VLOOKUP($B66,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R4X1</v>
+      <c r="C66" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="E66" s="19" t="str">
-        <f>IF(G64=1,E64,IF(G64=2,F64,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C66,$B$6:$H65,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="F66" s="19" t="str">
-        <f>IF(G65=1,E65,IF(G65=2,F65,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D66,$B$6:$H65,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>TBD</v>
       </c>
       <c r="J66" s="6" t="str">
         <f>IFERROR(VLOOKUP(E66,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -5607,15 +4835,15 @@
         <v/>
       </c>
       <c r="M66" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>R5WX</v>
       </c>
       <c r="N66" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q66" s="39"/>
@@ -5627,26 +4855,24 @@
       <c r="B67" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="16" t="str">
-        <f>VLOOKUP($B67,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R4Y1</v>
-      </c>
-      <c r="D67" s="16" t="str">
-        <f>VLOOKUP($B67,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R4Z1</v>
+      <c r="C67" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="E67" s="16" t="str">
-        <f>IF(G62=1,E62,IF(G62=2,F62,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C67,$B$6:$H66,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="F67" s="16" t="str">
-        <f>IF(G63=1,E63,IF(G63=2,F63,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D67,$B$6:$H66,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="29" t="str">
-        <f t="shared" ref="H67:H68" si="6">IF(G67=1,E67,IF(G67=2,F67,""))</f>
-        <v/>
+        <f t="shared" ref="H67:H68" si="4">IF(G67=1,E67,IF(G67=2,F67,"TBD"))</f>
+        <v>TBD</v>
       </c>
       <c r="J67" s="6" t="str">
         <f>IFERROR(VLOOKUP(E67,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -5657,15 +4883,15 @@
         <v/>
       </c>
       <c r="M67" s="6" t="str">
-        <f t="shared" ref="M67:M68" si="7">B67</f>
+        <f t="shared" ref="M67:M68" si="5">B67</f>
         <v>R5YZ</v>
       </c>
       <c r="N67" s="6" t="str">
-        <f t="shared" ref="N67:N68" si="8">IF(AND(J67&lt;&gt;"",K67&lt;&gt;""),IF(J67&lt;K67,"2016_"&amp;J67&amp;"_"&amp;K67,"2016_"&amp;K67&amp;"_"&amp;J67),"")</f>
+        <f t="shared" ref="N67:N68" si="6">IF(AND(J67&lt;&gt;"",K67&lt;&gt;""),IF(J67&lt;K67,"2016_"&amp;J67&amp;"_"&amp;K67,"2016_"&amp;K67&amp;"_"&amp;J67),"")</f>
         <v/>
       </c>
       <c r="O67" s="6">
-        <f t="shared" ref="O67:O68" si="9">IFERROR(IF(TEXT(INDEX(J67:K67,1,G67),"0")=MID(N67,6,4),1,0),-1)</f>
+        <f t="shared" ref="O67:O68" si="7">IFERROR(IF(TEXT(INDEX(J67:K67,1,G67),"0")=MID(N67,6,4),1,0),-1)</f>
         <v>-1</v>
       </c>
       <c r="Q67" s="39"/>
@@ -5677,26 +4903,24 @@
       <c r="B68" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="34" t="str">
-        <f>VLOOKUP($B68,[1]tourney_slots_2016.csv!$B$2:$D$68,2,FALSE)</f>
-        <v>R5WX</v>
-      </c>
-      <c r="D68" s="34" t="str">
-        <f>VLOOKUP($B68,[1]tourney_slots_2016.csv!$B$2:$D$68,3,FALSE)</f>
-        <v>R5YZ</v>
+      <c r="C68" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="E68" s="34" t="str">
-        <f>IF(G66=1,E66,IF(G66=2,F66,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(C68,$B$6:$H67,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="F68" s="34" t="str">
-        <f>IF(G67=1,E67,IF(G67=2,F67,"(not known yet)"))</f>
-        <v>(not known yet)</v>
+        <f>VLOOKUP(D68,$B$6:$H67,7,FALSE)</f>
+        <v>TBD</v>
       </c>
       <c r="G68" s="37"/>
       <c r="H68" s="35" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>TBD</v>
       </c>
       <c r="J68" s="6" t="str">
         <f>IFERROR(VLOOKUP(E68,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -5707,15 +4931,15 @@
         <v/>
       </c>
       <c r="M68" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>R6CH</v>
+      </c>
+      <c r="N68" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O68" s="6">
         <f t="shared" si="7"/>
-        <v>R6CH</v>
-      </c>
-      <c r="N68" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="O68" s="6">
-        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="Q68" s="39"/>
@@ -7184,33 +6408,33 @@
         <f>results!B6</f>
         <v>R1W1</v>
       </c>
-      <c r="B6" s="12" t="str">
+      <c r="B6" s="12">
         <f>IF(results!G6=1,VLOOKUP(results!E6,teams!B$2:C$69,2,FALSE),IF(results!G6=2,VLOOKUP(results!F6,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1314</v>
       </c>
       <c r="C6" s="13" t="str">
         <f>IF(results!G6=1,results!E6,IF(results!G6=2,results!F6,""))</f>
-        <v/>
-      </c>
-      <c r="D6" s="12" t="str">
+        <v>#1 North Carolina</v>
+      </c>
+      <c r="D6" s="12">
         <f>IF(results!G6=2,VLOOKUP(results!E6,teams!B$2:C$69,2,FALSE),IF(results!G6=1,VLOOKUP(results!F6,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1195</v>
       </c>
       <c r="E6" s="13" t="str">
         <f>IF(results!G6=2,results!E6,IF(results!G6=1,results!F6,""))</f>
-        <v/>
+        <v>#16 FL Gulf Coast</v>
       </c>
       <c r="F6" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1195_1314</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H6" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1195_1314,0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7218,33 +6442,33 @@
         <f>results!B22</f>
         <v>R1W2</v>
       </c>
-      <c r="B7" s="12" t="str">
+      <c r="B7" s="12">
         <f>IF(results!G7=1,VLOOKUP(results!E7,teams!B$2:C$69,2,FALSE),IF(results!G7=2,VLOOKUP(results!F7,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1246</v>
       </c>
       <c r="C7" s="13" t="str">
         <f>IF(results!G7=1,results!E7,IF(results!G7=2,results!F7,""))</f>
-        <v/>
-      </c>
-      <c r="D7" s="12" t="str">
+        <v>#4 Kentucky</v>
+      </c>
+      <c r="D7" s="12">
         <f>IF(results!G7=2,VLOOKUP(results!E7,teams!B$2:C$69,2,FALSE),IF(results!G7=1,VLOOKUP(results!F7,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1392</v>
       </c>
       <c r="E7" s="13" t="str">
         <f>IF(results!G7=2,results!E7,IF(results!G7=1,results!F7,""))</f>
-        <v/>
+        <v>#13 Stony Brook</v>
       </c>
       <c r="F7" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1246_1392</v>
       </c>
       <c r="G7" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H7" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1246_1392,1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7252,33 +6476,33 @@
         <f>results!B23</f>
         <v>R1W3</v>
       </c>
-      <c r="B8" s="12" t="str">
+      <c r="B8" s="12">
         <f>IF(results!G8=1,VLOOKUP(results!E8,teams!B$2:C$69,2,FALSE),IF(results!G8=2,VLOOKUP(results!F8,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1231</v>
       </c>
       <c r="C8" s="13" t="str">
         <f>IF(results!G8=1,results!E8,IF(results!G8=2,results!F8,""))</f>
-        <v/>
-      </c>
-      <c r="D8" s="12" t="str">
+        <v>#5 Indiana</v>
+      </c>
+      <c r="D8" s="12">
         <f>IF(results!G8=2,VLOOKUP(results!E8,teams!B$2:C$69,2,FALSE),IF(results!G8=1,VLOOKUP(results!F8,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1151</v>
       </c>
       <c r="E8" s="13" t="str">
         <f>IF(results!G8=2,results!E8,IF(results!G8=1,results!F8,""))</f>
-        <v/>
+        <v>#12 Chattanooga</v>
       </c>
       <c r="F8" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1151_1231</v>
       </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H8" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1151_1231,0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7286,33 +6510,33 @@
         <f>results!B24</f>
         <v>R1W6</v>
       </c>
-      <c r="B9" s="12" t="str">
+      <c r="B9" s="12">
         <f>IF(results!G9=1,VLOOKUP(results!E9,teams!B$2:C$69,2,FALSE),IF(results!G9=2,VLOOKUP(results!F9,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1344</v>
       </c>
       <c r="C9" s="13" t="str">
         <f>IF(results!G9=1,results!E9,IF(results!G9=2,results!F9,""))</f>
-        <v/>
-      </c>
-      <c r="D9" s="12" t="str">
+        <v>#9 Providence</v>
+      </c>
+      <c r="D9" s="12">
         <f>IF(results!G9=2,VLOOKUP(results!E9,teams!B$2:C$69,2,FALSE),IF(results!G9=1,VLOOKUP(results!F9,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1425</v>
       </c>
       <c r="E9" s="13" t="str">
         <f>IF(results!G9=2,results!E9,IF(results!G9=1,results!F9,""))</f>
-        <v/>
+        <v>#8 USC</v>
       </c>
       <c r="F9" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1344_1425</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H9" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1344_1425,1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7320,33 +6544,33 @@
         <f>results!B25</f>
         <v>R1W7</v>
       </c>
-      <c r="B10" s="12" t="str">
+      <c r="B10" s="12">
         <f>IF(results!G10=1,VLOOKUP(results!E10,teams!B$2:C$69,2,FALSE),IF(results!G10=2,VLOOKUP(results!F10,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1438</v>
       </c>
       <c r="C10" s="13" t="str">
         <f>IF(results!G10=1,results!E10,IF(results!G10=2,results!F10,""))</f>
-        <v/>
-      </c>
-      <c r="D10" s="12" t="str">
+        <v>#1 Virginia</v>
+      </c>
+      <c r="D10" s="12">
         <f>IF(results!G10=2,VLOOKUP(results!E10,teams!B$2:C$69,2,FALSE),IF(results!G10=1,VLOOKUP(results!F10,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1214</v>
       </c>
       <c r="E10" s="13" t="str">
         <f>IF(results!G10=2,results!E10,IF(results!G10=1,results!F10,""))</f>
-        <v/>
+        <v>#16 Hampton</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1214_1438</v>
       </c>
       <c r="G10" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1214_1438,0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7354,33 +6578,33 @@
         <f>results!B26</f>
         <v>R1X2</v>
       </c>
-      <c r="B11" s="12" t="str">
+      <c r="B11" s="12">
         <f>IF(results!G11=1,VLOOKUP(results!E11,teams!B$2:C$69,2,FALSE),IF(results!G11=2,VLOOKUP(results!F11,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1428</v>
       </c>
       <c r="C11" s="13" t="str">
         <f>IF(results!G11=1,results!E11,IF(results!G11=2,results!F11,""))</f>
-        <v/>
-      </c>
-      <c r="D11" s="12" t="str">
+        <v>#3 Utah</v>
+      </c>
+      <c r="D11" s="12">
         <f>IF(results!G11=2,VLOOKUP(results!E11,teams!B$2:C$69,2,FALSE),IF(results!G11=1,VLOOKUP(results!F11,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1201</v>
       </c>
       <c r="E11" s="13" t="str">
         <f>IF(results!G11=2,results!E11,IF(results!G11=1,results!F11,""))</f>
-        <v/>
+        <v>#14 Fresno St</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1201_1428</v>
       </c>
       <c r="G11" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1201_1428,0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -7388,33 +6612,33 @@
         <f>results!B27</f>
         <v>R1X7</v>
       </c>
-      <c r="B12" s="12" t="str">
+      <c r="B12" s="12">
         <f>IF(results!G12=1,VLOOKUP(results!E12,teams!B$2:C$69,2,FALSE),IF(results!G12=2,VLOOKUP(results!F12,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1235</v>
       </c>
       <c r="C12" s="13" t="str">
         <f>IF(results!G12=1,results!E12,IF(results!G12=2,results!F12,""))</f>
-        <v/>
-      </c>
-      <c r="D12" s="12" t="str">
+        <v>#4 Iowa St</v>
+      </c>
+      <c r="D12" s="12">
         <f>IF(results!G12=2,VLOOKUP(results!E12,teams!B$2:C$69,2,FALSE),IF(results!G12=1,VLOOKUP(results!F12,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1233</v>
       </c>
       <c r="E12" s="13" t="str">
         <f>IF(results!G12=2,results!E12,IF(results!G12=1,results!F12,""))</f>
-        <v/>
+        <v>#13 Iona</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1233_1235</v>
       </c>
       <c r="G12" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1233_1235,0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7422,33 +6646,33 @@
         <f>results!B7</f>
         <v>R1W4</v>
       </c>
-      <c r="B13" s="12" t="str">
+      <c r="B13" s="12">
         <f>IF(results!G13=1,VLOOKUP(results!E13,teams!B$2:C$69,2,FALSE),IF(results!G13=2,VLOOKUP(results!F13,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1114</v>
       </c>
       <c r="C13" s="13" t="str">
         <f>IF(results!G13=1,results!E13,IF(results!G13=2,results!F13,""))</f>
-        <v/>
-      </c>
-      <c r="D13" s="12" t="str">
+        <v>#12 Ark Little Rock</v>
+      </c>
+      <c r="D13" s="12">
         <f>IF(results!G13=2,VLOOKUP(results!E13,teams!B$2:C$69,2,FALSE),IF(results!G13=1,VLOOKUP(results!F13,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1345</v>
       </c>
       <c r="E13" s="13" t="str">
         <f>IF(results!G13=2,results!E13,IF(results!G13=1,results!F13,""))</f>
-        <v/>
+        <v>#5 Purdue</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1114_1345</v>
       </c>
       <c r="G13" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1114_1345,1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7456,33 +6680,33 @@
         <f>results!B28</f>
         <v>R1Y2</v>
       </c>
-      <c r="B14" s="12" t="str">
+      <c r="B14" s="12">
         <f>IF(results!G14=1,VLOOKUP(results!E14,teams!B$2:C$69,2,FALSE),IF(results!G14=2,VLOOKUP(results!F14,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1211</v>
       </c>
       <c r="C14" s="13" t="str">
         <f>IF(results!G14=1,results!E14,IF(results!G14=2,results!F14,""))</f>
-        <v/>
-      </c>
-      <c r="D14" s="12" t="str">
+        <v>#11 Gonzaga</v>
+      </c>
+      <c r="D14" s="12">
         <f>IF(results!G14=2,VLOOKUP(results!E14,teams!B$2:C$69,2,FALSE),IF(results!G14=1,VLOOKUP(results!F14,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1371</v>
       </c>
       <c r="E14" s="13" t="str">
         <f>IF(results!G14=2,results!E14,IF(results!G14=1,results!F14,""))</f>
-        <v/>
+        <v>#6 Seton Hall</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1211_1371</v>
       </c>
       <c r="G14" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1211_1371,1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7490,33 +6714,33 @@
         <f>results!B29</f>
         <v>R1Y4</v>
       </c>
-      <c r="B15" s="12" t="str">
+      <c r="B15" s="12">
         <f>IF(results!G15=1,VLOOKUP(results!E15,teams!B$2:C$69,2,FALSE),IF(results!G15=2,VLOOKUP(results!F15,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1139</v>
       </c>
       <c r="C15" s="13" t="str">
         <f>IF(results!G15=1,results!E15,IF(results!G15=2,results!F15,""))</f>
-        <v/>
-      </c>
-      <c r="D15" s="12" t="str">
+        <v>#9 Butler</v>
+      </c>
+      <c r="D15" s="12">
         <f>IF(results!G15=2,VLOOKUP(results!E15,teams!B$2:C$69,2,FALSE),IF(results!G15=1,VLOOKUP(results!F15,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1403</v>
       </c>
       <c r="E15" s="13" t="str">
         <f>IF(results!G15=2,results!E15,IF(results!G15=1,results!F15,""))</f>
-        <v/>
+        <v>#8 Texas Tech</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1139_1403</v>
       </c>
       <c r="G15" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1139_1403,1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7524,33 +6748,33 @@
         <f>results!B8</f>
         <v>R1W5</v>
       </c>
-      <c r="B16" s="12" t="str">
+      <c r="B16" s="12">
         <f>IF(results!G16=1,VLOOKUP(results!E16,teams!B$2:C$69,2,FALSE),IF(results!G16=2,VLOOKUP(results!F16,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1242</v>
       </c>
       <c r="C16" s="13" t="str">
         <f>IF(results!G16=1,results!E16,IF(results!G16=2,results!F16,""))</f>
-        <v/>
-      </c>
-      <c r="D16" s="12" t="str">
+        <v>#1 Kansas</v>
+      </c>
+      <c r="D16" s="12">
         <f>IF(results!G16=2,VLOOKUP(results!E16,teams!B$2:C$69,2,FALSE),IF(results!G16=1,VLOOKUP(results!F16,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1122</v>
       </c>
       <c r="E16" s="13" t="str">
         <f>IF(results!G16=2,results!E16,IF(results!G16=1,results!F16,""))</f>
-        <v/>
+        <v>#16 Austin Peay</v>
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1122_1242</v>
       </c>
       <c r="G16" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1122_1242,0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7558,33 +6782,33 @@
         <f>results!B9</f>
         <v>R1W8</v>
       </c>
-      <c r="B17" s="12" t="str">
+      <c r="B17" s="12">
         <f>IF(results!G17=1,VLOOKUP(results!E17,teams!B$2:C$69,2,FALSE),IF(results!G17=2,VLOOKUP(results!F17,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1274</v>
       </c>
       <c r="C17" s="13" t="str">
         <f>IF(results!G17=1,results!E17,IF(results!G17=2,results!F17,""))</f>
-        <v/>
-      </c>
-      <c r="D17" s="12" t="str">
+        <v>#3 Miami FL</v>
+      </c>
+      <c r="D17" s="12">
         <f>IF(results!G17=2,VLOOKUP(results!E17,teams!B$2:C$69,2,FALSE),IF(results!G17=1,VLOOKUP(results!F17,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1138</v>
       </c>
       <c r="E17" s="13" t="str">
         <f>IF(results!G17=2,results!E17,IF(results!G17=1,results!F17,""))</f>
-        <v/>
+        <v>#14 Buffalo</v>
       </c>
       <c r="F17" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1138_1274</v>
       </c>
       <c r="G17" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1138_1274,0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7592,33 +6816,33 @@
         <f>results!B10</f>
         <v>R1X1</v>
       </c>
-      <c r="B18" s="12" t="str">
+      <c r="B18" s="12">
         <f>IF(results!G18=1,VLOOKUP(results!E18,teams!B$2:C$69,2,FALSE),IF(results!G18=2,VLOOKUP(results!F18,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1455</v>
       </c>
       <c r="C18" s="13" t="str">
         <f>IF(results!G18=1,results!E18,IF(results!G18=2,results!F18,""))</f>
-        <v/>
-      </c>
-      <c r="D18" s="12" t="str">
+        <v>#11 Wichita St</v>
+      </c>
+      <c r="D18" s="12">
         <f>IF(results!G18=2,VLOOKUP(results!E18,teams!B$2:C$69,2,FALSE),IF(results!G18=1,VLOOKUP(results!F18,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1112</v>
       </c>
       <c r="E18" s="13" t="str">
         <f>IF(results!G18=2,results!E18,IF(results!G18=1,results!F18,""))</f>
-        <v/>
+        <v>#6 Arizona</v>
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1112_1455</v>
       </c>
       <c r="G18" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1112_1455,0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7626,33 +6850,33 @@
         <f>results!B11</f>
         <v>R1X3</v>
       </c>
-      <c r="B19" s="12" t="str">
+      <c r="B19" s="12">
         <f>IF(results!G19=1,VLOOKUP(results!E19,teams!B$2:C$69,2,FALSE),IF(results!G19=2,VLOOKUP(results!F19,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1163</v>
       </c>
       <c r="C19" s="13" t="str">
         <f>IF(results!G19=1,results!E19,IF(results!G19=2,results!F19,""))</f>
-        <v/>
-      </c>
-      <c r="D19" s="12" t="str">
+        <v>#9 Connecticut</v>
+      </c>
+      <c r="D19" s="12">
         <f>IF(results!G19=2,VLOOKUP(results!E19,teams!B$2:C$69,2,FALSE),IF(results!G19=1,VLOOKUP(results!F19,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1160</v>
       </c>
       <c r="E19" s="13" t="str">
         <f>IF(results!G19=2,results!E19,IF(results!G19=1,results!F19,""))</f>
-        <v/>
+        <v>#8 Colorado</v>
       </c>
       <c r="F19" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1160_1163</v>
       </c>
       <c r="G19" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1160_1163,0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7660,33 +6884,33 @@
         <f>results!B30</f>
         <v>R1Y5</v>
       </c>
-      <c r="B20" s="12" t="str">
+      <c r="B20" s="12">
         <f>IF(results!G20=1,VLOOKUP(results!E20,teams!B$2:C$69,2,FALSE),IF(results!G20=2,VLOOKUP(results!F20,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1181</v>
       </c>
       <c r="C20" s="13" t="str">
         <f>IF(results!G20=1,results!E20,IF(results!G20=2,results!F20,""))</f>
-        <v/>
-      </c>
-      <c r="D20" s="12" t="str">
+        <v>#4 Duke</v>
+      </c>
+      <c r="D20" s="12">
         <f>IF(results!G20=2,VLOOKUP(results!E20,teams!B$2:C$69,2,FALSE),IF(results!G20=1,VLOOKUP(results!F20,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1423</v>
       </c>
       <c r="E20" s="13" t="str">
         <f>IF(results!G20=2,results!E20,IF(results!G20=1,results!F20,""))</f>
-        <v/>
+        <v>#13 UNC Wilmington</v>
       </c>
       <c r="F20" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1181_1423</v>
       </c>
       <c r="G20" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H20" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1181_1423,1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7694,33 +6918,33 @@
         <f>results!B31</f>
         <v>R1Y7</v>
       </c>
-      <c r="B21" s="12" t="str">
+      <c r="B21" s="12">
         <f>IF(results!G21=1,VLOOKUP(results!E21,teams!B$2:C$69,2,FALSE),IF(results!G21=2,VLOOKUP(results!F21,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1463</v>
       </c>
       <c r="C21" s="13" t="str">
         <f>IF(results!G21=1,results!E21,IF(results!G21=2,results!F21,""))</f>
-        <v/>
-      </c>
-      <c r="D21" s="12" t="str">
+        <v>#12 Yale</v>
+      </c>
+      <c r="D21" s="12">
         <f>IF(results!G21=2,VLOOKUP(results!E21,teams!B$2:C$69,2,FALSE),IF(results!G21=1,VLOOKUP(results!F21,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1124</v>
       </c>
       <c r="E21" s="13" t="str">
         <f>IF(results!G21=2,results!E21,IF(results!G21=1,results!F21,""))</f>
-        <v/>
+        <v>#5 Baylor</v>
       </c>
       <c r="F21" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1124_1463</v>
       </c>
       <c r="G21" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1124_1463,0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7728,33 +6952,33 @@
         <f>results!B12</f>
         <v>R1X4</v>
       </c>
-      <c r="B22" s="12" t="str">
+      <c r="B22" s="12">
         <f>IF(results!G22=1,VLOOKUP(results!E22,teams!B$2:C$69,2,FALSE),IF(results!G22=2,VLOOKUP(results!F22,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1462</v>
       </c>
       <c r="C22" s="13" t="str">
         <f>IF(results!G22=1,results!E22,IF(results!G22=2,results!F22,""))</f>
-        <v/>
-      </c>
-      <c r="D22" s="12" t="str">
+        <v>#2 Xavier</v>
+      </c>
+      <c r="D22" s="12">
         <f>IF(results!G22=2,VLOOKUP(results!E22,teams!B$2:C$69,2,FALSE),IF(results!G22=1,VLOOKUP(results!F22,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1451</v>
       </c>
       <c r="E22" s="13" t="str">
         <f>IF(results!G22=2,results!E22,IF(results!G22=1,results!F22,""))</f>
-        <v/>
+        <v>#15 Weber St</v>
       </c>
       <c r="F22" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1451_1462</v>
       </c>
       <c r="G22" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1451_1462,0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7762,33 +6986,33 @@
         <f>results!B32</f>
         <v>R1Z1</v>
       </c>
-      <c r="B23" s="12" t="str">
+      <c r="B23" s="12">
         <f>IF(results!G23=1,VLOOKUP(results!E23,teams!B$2:C$69,2,FALSE),IF(results!G23=2,VLOOKUP(results!F23,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1372</v>
       </c>
       <c r="C23" s="13" t="str">
         <f>IF(results!G23=1,results!E23,IF(results!G23=2,results!F23,""))</f>
-        <v/>
-      </c>
-      <c r="D23" s="12" t="str">
+        <v>#14 SF Austin</v>
+      </c>
+      <c r="D23" s="12">
         <f>IF(results!G23=2,VLOOKUP(results!E23,teams!B$2:C$69,2,FALSE),IF(results!G23=1,VLOOKUP(results!F23,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1452</v>
       </c>
       <c r="E23" s="13" t="str">
         <f>IF(results!G23=2,results!E23,IF(results!G23=1,results!F23,""))</f>
-        <v/>
+        <v>#3 West Virginia</v>
       </c>
       <c r="F23" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1372_1452</v>
       </c>
       <c r="G23" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1372_1452,1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7796,33 +7020,33 @@
         <f>results!B13</f>
         <v>R1X5</v>
       </c>
-      <c r="B24" s="12" t="str">
+      <c r="B24" s="12">
         <f>IF(results!G24=1,VLOOKUP(results!E24,teams!B$2:C$69,2,FALSE),IF(results!G24=2,VLOOKUP(results!F24,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1323</v>
       </c>
       <c r="C24" s="13" t="str">
         <f>IF(results!G24=1,results!E24,IF(results!G24=2,results!F24,""))</f>
-        <v/>
-      </c>
-      <c r="D24" s="12" t="str">
+        <v>#6 Notre Dame</v>
+      </c>
+      <c r="D24" s="12">
         <f>IF(results!G24=2,VLOOKUP(results!E24,teams!B$2:C$69,2,FALSE),IF(results!G24=1,VLOOKUP(results!F24,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1276</v>
       </c>
       <c r="E24" s="13" t="str">
         <f>IF(results!G24=2,results!E24,IF(results!G24=1,results!F24,""))</f>
-        <v/>
+        <v>#11 Michigan</v>
       </c>
       <c r="F24" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1276_1323</v>
       </c>
       <c r="G24" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1276_1323,0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7830,33 +7054,33 @@
         <f>results!B33</f>
         <v>R1Z2</v>
       </c>
-      <c r="B25" s="12" t="str">
+      <c r="B25" s="12">
         <f>IF(results!G25=1,VLOOKUP(results!E25,teams!B$2:C$69,2,FALSE),IF(results!G25=2,VLOOKUP(results!F25,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1458</v>
       </c>
       <c r="C25" s="13" t="str">
         <f>IF(results!G25=1,results!E25,IF(results!G25=2,results!F25,""))</f>
-        <v/>
-      </c>
-      <c r="D25" s="12" t="str">
+        <v>#7 Wisconsin</v>
+      </c>
+      <c r="D25" s="12">
         <f>IF(results!G25=2,VLOOKUP(results!E25,teams!B$2:C$69,2,FALSE),IF(results!G25=1,VLOOKUP(results!F25,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1338</v>
       </c>
       <c r="E25" s="13" t="str">
         <f>IF(results!G25=2,results!E25,IF(results!G25=1,results!F25,""))</f>
-        <v/>
+        <v>#10 Pittsburgh</v>
       </c>
       <c r="F25" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1338_1458</v>
       </c>
       <c r="G25" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1338_1458,0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7864,33 +7088,33 @@
         <f>results!B34</f>
         <v>R1Z3</v>
       </c>
-      <c r="B26" s="12" t="str">
+      <c r="B26" s="12">
         <f>IF(results!G26=1,VLOOKUP(results!E26,teams!B$2:C$69,2,FALSE),IF(results!G26=2,VLOOKUP(results!F26,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1292</v>
       </c>
       <c r="C26" s="13" t="str">
         <f>IF(results!G26=1,results!E26,IF(results!G26=2,results!F26,""))</f>
-        <v/>
-      </c>
-      <c r="D26" s="12" t="str">
+        <v>#15 MTSU</v>
+      </c>
+      <c r="D26" s="12">
         <f>IF(results!G26=2,VLOOKUP(results!E26,teams!B$2:C$69,2,FALSE),IF(results!G26=1,VLOOKUP(results!F26,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1277</v>
       </c>
       <c r="E26" s="13" t="str">
         <f>IF(results!G26=2,results!E26,IF(results!G26=1,results!F26,""))</f>
-        <v/>
+        <v>#2 Michigan St</v>
       </c>
       <c r="F26" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1277_1292</v>
       </c>
       <c r="G26" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H26" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1277_1292,0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7898,33 +7122,33 @@
         <f>results!B14</f>
         <v>R1X6</v>
       </c>
-      <c r="B27" s="12" t="str">
+      <c r="B27" s="12">
         <f>IF(results!G27=1,VLOOKUP(results!E27,teams!B$2:C$69,2,FALSE),IF(results!G27=2,VLOOKUP(results!F27,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1393</v>
       </c>
       <c r="C27" s="13" t="str">
         <f>IF(results!G27=1,results!E27,IF(results!G27=2,results!F27,""))</f>
-        <v/>
-      </c>
-      <c r="D27" s="12" t="str">
+        <v>#10 Syracuse</v>
+      </c>
+      <c r="D27" s="12">
         <f>IF(results!G27=2,VLOOKUP(results!E27,teams!B$2:C$69,2,FALSE),IF(results!G27=1,VLOOKUP(results!F27,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1173</v>
       </c>
       <c r="E27" s="13" t="str">
         <f>IF(results!G27=2,results!E27,IF(results!G27=1,results!F27,""))</f>
-        <v/>
+        <v>#7 Dayton</v>
       </c>
       <c r="F27" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1173_1393</v>
       </c>
       <c r="G27" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H27" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1173_1393,0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7932,33 +7156,33 @@
         <f>results!B35</f>
         <v>R1Z6</v>
       </c>
-      <c r="B28" s="12" t="str">
+      <c r="B28" s="12">
         <f>IF(results!G28=1,VLOOKUP(results!E28,teams!B$2:C$69,2,FALSE),IF(results!G28=2,VLOOKUP(results!F28,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1437</v>
       </c>
       <c r="C28" s="13" t="str">
         <f>IF(results!G28=1,results!E28,IF(results!G28=2,results!F28,""))</f>
-        <v/>
-      </c>
-      <c r="D28" s="12" t="str">
+        <v>#2 Villanova</v>
+      </c>
+      <c r="D28" s="12">
         <f>IF(results!G28=2,VLOOKUP(results!E28,teams!B$2:C$69,2,FALSE),IF(results!G28=1,VLOOKUP(results!F28,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1421</v>
       </c>
       <c r="E28" s="13" t="str">
         <f>IF(results!G28=2,results!E28,IF(results!G28=1,results!F28,""))</f>
-        <v/>
+        <v>#15 UNC Asheville</v>
       </c>
       <c r="F28" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1421_1437</v>
       </c>
       <c r="G28" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H28" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1421_1437,0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7966,33 +7190,33 @@
         <f>results!B15</f>
         <v>R1X8</v>
       </c>
-      <c r="B29" s="12" t="str">
+      <c r="B29" s="12">
         <f>IF(results!G29=1,VLOOKUP(results!E29,teams!B$2:C$69,2,FALSE),IF(results!G29=2,VLOOKUP(results!F29,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1218</v>
       </c>
       <c r="C29" s="13" t="str">
         <f>IF(results!G29=1,results!E29,IF(results!G29=2,results!F29,""))</f>
-        <v/>
-      </c>
-      <c r="D29" s="12" t="str">
+        <v>#13 Hawaii</v>
+      </c>
+      <c r="D29" s="12">
         <f>IF(results!G29=2,VLOOKUP(results!E29,teams!B$2:C$69,2,FALSE),IF(results!G29=1,VLOOKUP(results!F29,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1143</v>
       </c>
       <c r="E29" s="13" t="str">
         <f>IF(results!G29=2,results!E29,IF(results!G29=1,results!F29,""))</f>
-        <v/>
+        <v>#4 California</v>
       </c>
       <c r="F29" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1143_1218</v>
       </c>
       <c r="G29" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H29" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1143_1218,0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -8000,33 +7224,33 @@
         <f>results!B36</f>
         <v>R1Z7</v>
       </c>
-      <c r="B30" s="12" t="str">
+      <c r="B30" s="12">
         <f>IF(results!G30=1,VLOOKUP(results!E30,teams!B$2:C$69,2,FALSE),IF(results!G30=2,VLOOKUP(results!F30,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1268</v>
       </c>
       <c r="C30" s="13" t="str">
         <f>IF(results!G30=1,results!E30,IF(results!G30=2,results!F30,""))</f>
-        <v/>
-      </c>
-      <c r="D30" s="12" t="str">
+        <v>#5 Maryland</v>
+      </c>
+      <c r="D30" s="12">
         <f>IF(results!G30=2,VLOOKUP(results!E30,teams!B$2:C$69,2,FALSE),IF(results!G30=1,VLOOKUP(results!F30,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1355</v>
       </c>
       <c r="E30" s="13" t="str">
         <f>IF(results!G30=2,results!E30,IF(results!G30=1,results!F30,""))</f>
-        <v/>
+        <v>#12 S Dakota St</v>
       </c>
       <c r="F30" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1268_1355</v>
       </c>
       <c r="G30" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H30" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1268_1355,1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -8034,33 +7258,33 @@
         <f>results!B16</f>
         <v>R1Y1</v>
       </c>
-      <c r="B31" s="12" t="str">
+      <c r="B31" s="12">
         <f>IF(results!G31=1,VLOOKUP(results!E31,teams!B$2:C$69,2,FALSE),IF(results!G31=2,VLOOKUP(results!F31,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1234</v>
       </c>
       <c r="C31" s="13" t="str">
         <f>IF(results!G31=1,results!E31,IF(results!G31=2,results!F31,""))</f>
-        <v/>
-      </c>
-      <c r="D31" s="12" t="str">
+        <v>#7 Iowa</v>
+      </c>
+      <c r="D31" s="12">
         <f>IF(results!G31=2,VLOOKUP(results!E31,teams!B$2:C$69,2,FALSE),IF(results!G31=1,VLOOKUP(results!F31,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1396</v>
       </c>
       <c r="E31" s="13" t="str">
         <f>IF(results!G31=2,results!E31,IF(results!G31=1,results!F31,""))</f>
-        <v/>
+        <v>#10 Temple</v>
       </c>
       <c r="F31" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1234_1396</v>
       </c>
       <c r="G31" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H31" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1234_1396,1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -8068,33 +7292,33 @@
         <f>results!B17</f>
         <v>R1Y3</v>
       </c>
-      <c r="B32" s="12" t="str">
+      <c r="B32" s="12">
         <f>IF(results!G32=1,VLOOKUP(results!E32,teams!B$2:C$69,2,FALSE),IF(results!G32=2,VLOOKUP(results!F32,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1332</v>
       </c>
       <c r="C32" s="13" t="str">
         <f>IF(results!G32=1,results!E32,IF(results!G32=2,results!F32,""))</f>
-        <v/>
-      </c>
-      <c r="D32" s="12" t="str">
+        <v>#1 Oregon</v>
+      </c>
+      <c r="D32" s="12">
         <f>IF(results!G32=2,VLOOKUP(results!E32,teams!B$2:C$69,2,FALSE),IF(results!G32=1,VLOOKUP(results!F32,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1221</v>
       </c>
       <c r="E32" s="13" t="str">
         <f>IF(results!G32=2,results!E32,IF(results!G32=1,results!F32,""))</f>
-        <v/>
+        <v>#16 Holy Cross</v>
       </c>
       <c r="F32" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1221_1332</v>
       </c>
       <c r="G32" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H32" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1221_1332,0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -8102,33 +7326,33 @@
         <f>results!B18</f>
         <v>R1Y6</v>
       </c>
-      <c r="B33" s="12" t="str">
+      <c r="B33" s="12">
         <f>IF(results!G33=1,VLOOKUP(results!E33,teams!B$2:C$69,2,FALSE),IF(results!G33=2,VLOOKUP(results!F33,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1328</v>
       </c>
       <c r="C33" s="13" t="str">
         <f>IF(results!G33=1,results!E33,IF(results!G33=2,results!F33,""))</f>
-        <v/>
-      </c>
-      <c r="D33" s="12" t="str">
+        <v>#2 Oklahoma</v>
+      </c>
+      <c r="D33" s="12">
         <f>IF(results!G33=2,VLOOKUP(results!E33,teams!B$2:C$69,2,FALSE),IF(results!G33=1,VLOOKUP(results!F33,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1167</v>
       </c>
       <c r="E33" s="13" t="str">
         <f>IF(results!G33=2,results!E33,IF(results!G33=1,results!F33,""))</f>
-        <v/>
+        <v>#15 CS Bakersfield</v>
       </c>
       <c r="F33" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1167_1328</v>
       </c>
       <c r="G33" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H33" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1167_1328,0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -8136,33 +7360,33 @@
         <f>results!B19</f>
         <v>R1Y8</v>
       </c>
-      <c r="B34" s="12" t="str">
+      <c r="B34" s="12">
         <f>IF(results!G34=1,VLOOKUP(results!E34,teams!B$2:C$69,2,FALSE),IF(results!G34=2,VLOOKUP(results!F34,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1401</v>
       </c>
       <c r="C34" s="13" t="str">
         <f>IF(results!G34=1,results!E34,IF(results!G34=2,results!F34,""))</f>
-        <v/>
-      </c>
-      <c r="D34" s="12" t="str">
+        <v>#3 Texas A&amp;M</v>
+      </c>
+      <c r="D34" s="12">
         <f>IF(results!G34=2,VLOOKUP(results!E34,teams!B$2:C$69,2,FALSE),IF(results!G34=1,VLOOKUP(results!F34,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1453</v>
       </c>
       <c r="E34" s="13" t="str">
         <f>IF(results!G34=2,results!E34,IF(results!G34=1,results!F34,""))</f>
-        <v/>
+        <v>#14 WI Green Bay</v>
       </c>
       <c r="F34" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1401_1453</v>
       </c>
       <c r="G34" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H34" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1401_1453,1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -8170,33 +7394,33 @@
         <f>results!B20</f>
         <v>R1Z4</v>
       </c>
-      <c r="B35" s="12" t="str">
+      <c r="B35" s="12">
         <f>IF(results!G35=1,VLOOKUP(results!E35,teams!B$2:C$69,2,FALSE),IF(results!G35=2,VLOOKUP(results!F35,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1320</v>
       </c>
       <c r="C35" s="13" t="str">
         <f>IF(results!G35=1,results!E35,IF(results!G35=2,results!F35,""))</f>
-        <v/>
-      </c>
-      <c r="D35" s="12" t="str">
+        <v>#11 Northern Iowa</v>
+      </c>
+      <c r="D35" s="12">
         <f>IF(results!G35=2,VLOOKUP(results!E35,teams!B$2:C$69,2,FALSE),IF(results!G35=1,VLOOKUP(results!F35,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1400</v>
       </c>
       <c r="E35" s="13" t="str">
         <f>IF(results!G35=2,results!E35,IF(results!G35=1,results!F35,""))</f>
-        <v/>
+        <v>#6 Texas</v>
       </c>
       <c r="F35" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1320_1400</v>
       </c>
       <c r="G35" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H35" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1320_1400,1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -8204,33 +7428,33 @@
         <f>results!B21</f>
         <v>R1Z5</v>
       </c>
-      <c r="B36" s="12" t="str">
+      <c r="B36" s="12">
         <f>IF(results!G36=1,VLOOKUP(results!E36,teams!B$2:C$69,2,FALSE),IF(results!G36=2,VLOOKUP(results!F36,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1433</v>
       </c>
       <c r="C36" s="13" t="str">
         <f>IF(results!G36=1,results!E36,IF(results!G36=2,results!F36,""))</f>
-        <v/>
-      </c>
-      <c r="D36" s="12" t="str">
+        <v>#10 VA Commonwealth</v>
+      </c>
+      <c r="D36" s="12">
         <f>IF(results!G36=2,VLOOKUP(results!E36,teams!B$2:C$69,2,FALSE),IF(results!G36=1,VLOOKUP(results!F36,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1333</v>
       </c>
       <c r="E36" s="13" t="str">
         <f>IF(results!G36=2,results!E36,IF(results!G36=1,results!F36,""))</f>
-        <v/>
+        <v>#7 Oregon St</v>
       </c>
       <c r="F36" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1333_1433</v>
       </c>
       <c r="G36" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H36" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1333_1433,0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -8238,33 +7462,33 @@
         <f>results!B37</f>
         <v>R1Z8</v>
       </c>
-      <c r="B37" s="12" t="str">
+      <c r="B37" s="12">
         <f>IF(results!G37=1,VLOOKUP(results!E37,teams!B$2:C$69,2,FALSE),IF(results!G37=2,VLOOKUP(results!F37,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1386</v>
       </c>
       <c r="C37" s="13" t="str">
         <f>IF(results!G37=1,results!E37,IF(results!G37=2,results!F37,""))</f>
-        <v/>
-      </c>
-      <c r="D37" s="12" t="str">
+        <v>#8 St Joseph's PA</v>
+      </c>
+      <c r="D37" s="12">
         <f>IF(results!G37=2,VLOOKUP(results!E37,teams!B$2:C$69,2,FALSE),IF(results!G37=1,VLOOKUP(results!F37,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1153</v>
       </c>
       <c r="E37" s="13" t="str">
         <f>IF(results!G37=2,results!E37,IF(results!G37=1,results!F37,""))</f>
-        <v/>
+        <v>#9 Cincinnati</v>
       </c>
       <c r="F37" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1153_1386</v>
       </c>
       <c r="G37" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H37" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1153_1386,0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -8272,33 +7496,33 @@
         <f>results!B38</f>
         <v>R2W1</v>
       </c>
-      <c r="B38" s="12" t="str">
+      <c r="B38" s="12">
         <f>IF(results!G38=1,VLOOKUP(results!E38,teams!B$2:C$69,2,FALSE),IF(results!G38=2,VLOOKUP(results!F38,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1314</v>
       </c>
       <c r="C38" s="13" t="str">
         <f>IF(results!G38=1,results!E38,IF(results!G38=2,results!F38,""))</f>
-        <v/>
-      </c>
-      <c r="D38" s="12" t="str">
+        <v>#1 North Carolina</v>
+      </c>
+      <c r="D38" s="12">
         <f>IF(results!G38=2,VLOOKUP(results!E38,teams!B$2:C$69,2,FALSE),IF(results!G38=1,VLOOKUP(results!F38,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1344</v>
       </c>
       <c r="E38" s="13" t="str">
         <f>IF(results!G38=2,results!E38,IF(results!G38=1,results!F38,""))</f>
-        <v/>
+        <v>#9 Providence</v>
       </c>
       <c r="F38" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1314_1344</v>
       </c>
       <c r="G38" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H38" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1314_1344,1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -8306,33 +7530,33 @@
         <f>results!B46</f>
         <v>R2W2</v>
       </c>
-      <c r="B39" s="12" t="str">
+      <c r="B39" s="12">
         <f>IF(results!G39=1,VLOOKUP(results!E39,teams!B$2:C$69,2,FALSE),IF(results!G39=2,VLOOKUP(results!F39,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1231</v>
       </c>
       <c r="C39" s="13" t="str">
         <f>IF(results!G39=1,results!E39,IF(results!G39=2,results!F39,""))</f>
-        <v/>
-      </c>
-      <c r="D39" s="12" t="str">
+        <v>#5 Indiana</v>
+      </c>
+      <c r="D39" s="12">
         <f>IF(results!G39=2,VLOOKUP(results!E39,teams!B$2:C$69,2,FALSE),IF(results!G39=1,VLOOKUP(results!F39,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1246</v>
       </c>
       <c r="E39" s="13" t="str">
         <f>IF(results!G39=2,results!E39,IF(results!G39=1,results!F39,""))</f>
-        <v/>
+        <v>#4 Kentucky</v>
       </c>
       <c r="F39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1231_1246</v>
       </c>
       <c r="G39" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H39" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1231_1246,1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -8340,33 +7564,33 @@
         <f>results!B47</f>
         <v>R2W3</v>
       </c>
-      <c r="B40" s="12" t="str">
+      <c r="B40" s="12">
         <f>IF(results!G40=1,VLOOKUP(results!E40,teams!B$2:C$69,2,FALSE),IF(results!G40=2,VLOOKUP(results!F40,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1438</v>
       </c>
       <c r="C40" s="13" t="str">
         <f>IF(results!G40=1,results!E40,IF(results!G40=2,results!F40,""))</f>
-        <v/>
-      </c>
-      <c r="D40" s="12" t="str">
+        <v>#1 Virginia</v>
+      </c>
+      <c r="D40" s="12">
         <f>IF(results!G40=2,VLOOKUP(results!E40,teams!B$2:C$69,2,FALSE),IF(results!G40=1,VLOOKUP(results!F40,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1139</v>
       </c>
       <c r="E40" s="13" t="str">
         <f>IF(results!G40=2,results!E40,IF(results!G40=1,results!F40,""))</f>
-        <v/>
+        <v>#9 Butler</v>
       </c>
       <c r="F40" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1139_1438</v>
       </c>
       <c r="G40" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H40" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1139_1438,0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -8374,33 +7598,33 @@
         <f>results!B48</f>
         <v>R2X2</v>
       </c>
-      <c r="B41" s="12" t="str">
+      <c r="B41" s="12">
         <f>IF(results!G41=1,VLOOKUP(results!E41,teams!B$2:C$69,2,FALSE),IF(results!G41=2,VLOOKUP(results!F41,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1211</v>
       </c>
       <c r="C41" s="13" t="str">
         <f>IF(results!G41=1,results!E41,IF(results!G41=2,results!F41,""))</f>
-        <v/>
-      </c>
-      <c r="D41" s="12" t="str">
+        <v>#11 Gonzaga</v>
+      </c>
+      <c r="D41" s="12">
         <f>IF(results!G41=2,VLOOKUP(results!E41,teams!B$2:C$69,2,FALSE),IF(results!G41=1,VLOOKUP(results!F41,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1428</v>
       </c>
       <c r="E41" s="13" t="str">
         <f>IF(results!G41=2,results!E41,IF(results!G41=1,results!F41,""))</f>
-        <v/>
+        <v>#3 Utah</v>
       </c>
       <c r="F41" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1211_1428</v>
       </c>
       <c r="G41" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H41" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1211_1428,1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -8408,33 +7632,33 @@
         <f>results!B49</f>
         <v>R2Y2</v>
       </c>
-      <c r="B42" s="12" t="str">
+      <c r="B42" s="12">
         <f>IF(results!G42=1,VLOOKUP(results!E42,teams!B$2:C$69,2,FALSE),IF(results!G42=2,VLOOKUP(results!F42,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1235</v>
       </c>
       <c r="C42" s="13" t="str">
         <f>IF(results!G42=1,results!E42,IF(results!G42=2,results!F42,""))</f>
-        <v/>
-      </c>
-      <c r="D42" s="12" t="str">
+        <v>#4 Iowa St</v>
+      </c>
+      <c r="D42" s="12">
         <f>IF(results!G42=2,VLOOKUP(results!E42,teams!B$2:C$69,2,FALSE),IF(results!G42=1,VLOOKUP(results!F42,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1114</v>
       </c>
       <c r="E42" s="13" t="str">
         <f>IF(results!G42=2,results!E42,IF(results!G42=1,results!F42,""))</f>
-        <v/>
+        <v>#12 Ark Little Rock</v>
       </c>
       <c r="F42" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1114_1235</v>
       </c>
       <c r="G42" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H42" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1114_1235,0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -8442,33 +7666,33 @@
         <f>results!B50</f>
         <v>R2Y4</v>
       </c>
-      <c r="B43" s="12" t="str">
+      <c r="B43" s="12">
         <f>IF(results!G43=1,VLOOKUP(results!E43,teams!B$2:C$69,2,FALSE),IF(results!G43=2,VLOOKUP(results!F43,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1242</v>
       </c>
       <c r="C43" s="13" t="str">
         <f>IF(results!G43=1,results!E43,IF(results!G43=2,results!F43,""))</f>
-        <v/>
-      </c>
-      <c r="D43" s="12" t="str">
+        <v>#1 Kansas</v>
+      </c>
+      <c r="D43" s="12">
         <f>IF(results!G43=2,VLOOKUP(results!E43,teams!B$2:C$69,2,FALSE),IF(results!G43=1,VLOOKUP(results!F43,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1163</v>
       </c>
       <c r="E43" s="13" t="str">
         <f>IF(results!G43=2,results!E43,IF(results!G43=1,results!F43,""))</f>
-        <v/>
+        <v>#9 Connecticut</v>
       </c>
       <c r="F43" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1163_1242</v>
       </c>
       <c r="G43" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H43" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1163_1242,0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -8476,33 +7700,33 @@
         <f>results!B39</f>
         <v>R2W4</v>
       </c>
-      <c r="B44" s="12" t="str">
+      <c r="B44" s="12">
         <f>IF(results!G44=1,VLOOKUP(results!E44,teams!B$2:C$69,2,FALSE),IF(results!G44=2,VLOOKUP(results!F44,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1274</v>
       </c>
       <c r="C44" s="13" t="str">
         <f>IF(results!G44=1,results!E44,IF(results!G44=2,results!F44,""))</f>
-        <v/>
-      </c>
-      <c r="D44" s="12" t="str">
+        <v>#3 Miami FL</v>
+      </c>
+      <c r="D44" s="12">
         <f>IF(results!G44=2,VLOOKUP(results!E44,teams!B$2:C$69,2,FALSE),IF(results!G44=1,VLOOKUP(results!F44,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1455</v>
       </c>
       <c r="E44" s="13" t="str">
         <f>IF(results!G44=2,results!E44,IF(results!G44=1,results!F44,""))</f>
-        <v/>
+        <v>#11 Wichita St</v>
       </c>
       <c r="F44" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1274_1455</v>
       </c>
       <c r="G44" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H44" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1274_1455,1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -8510,33 +7734,33 @@
         <f>results!B40</f>
         <v>R2X1</v>
       </c>
-      <c r="B45" s="12" t="str">
+      <c r="B45" s="12">
         <f>IF(results!G45=1,VLOOKUP(results!E45,teams!B$2:C$69,2,FALSE),IF(results!G45=2,VLOOKUP(results!F45,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1181</v>
       </c>
       <c r="C45" s="13" t="str">
         <f>IF(results!G45=1,results!E45,IF(results!G45=2,results!F45,""))</f>
-        <v/>
-      </c>
-      <c r="D45" s="12" t="str">
+        <v>#4 Duke</v>
+      </c>
+      <c r="D45" s="12">
         <f>IF(results!G45=2,VLOOKUP(results!E45,teams!B$2:C$69,2,FALSE),IF(results!G45=1,VLOOKUP(results!F45,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1463</v>
       </c>
       <c r="E45" s="13" t="str">
         <f>IF(results!G45=2,results!E45,IF(results!G45=1,results!F45,""))</f>
-        <v/>
+        <v>#12 Yale</v>
       </c>
       <c r="F45" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1181_1463</v>
       </c>
       <c r="G45" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H45" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1181_1463,1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -8544,33 +7768,33 @@
         <f>results!B41</f>
         <v>R2X3</v>
       </c>
-      <c r="B46" s="12" t="str">
+      <c r="B46" s="12">
         <f>IF(results!G46=1,VLOOKUP(results!E46,teams!B$2:C$69,2,FALSE),IF(results!G46=2,VLOOKUP(results!F46,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1458</v>
       </c>
       <c r="C46" s="13" t="str">
         <f>IF(results!G46=1,results!E46,IF(results!G46=2,results!F46,""))</f>
-        <v/>
-      </c>
-      <c r="D46" s="12" t="str">
+        <v>#7 Wisconsin</v>
+      </c>
+      <c r="D46" s="12">
         <f>IF(results!G46=2,VLOOKUP(results!E46,teams!B$2:C$69,2,FALSE),IF(results!G46=1,VLOOKUP(results!F46,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1462</v>
       </c>
       <c r="E46" s="13" t="str">
         <f>IF(results!G46=2,results!E46,IF(results!G46=1,results!F46,""))</f>
-        <v/>
+        <v>#2 Xavier</v>
       </c>
       <c r="F46" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1458_1462</v>
       </c>
       <c r="G46" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H46" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1458_1462,1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -8578,33 +7802,33 @@
         <f>results!B51</f>
         <v>R2Z1</v>
       </c>
-      <c r="B47" s="12" t="str">
+      <c r="B47" s="12">
         <f>IF(results!G47=1,VLOOKUP(results!E47,teams!B$2:C$69,2,FALSE),IF(results!G47=2,VLOOKUP(results!F47,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1323</v>
       </c>
       <c r="C47" s="13" t="str">
         <f>IF(results!G47=1,results!E47,IF(results!G47=2,results!F47,""))</f>
-        <v/>
-      </c>
-      <c r="D47" s="12" t="str">
+        <v>#6 Notre Dame</v>
+      </c>
+      <c r="D47" s="12">
         <f>IF(results!G47=2,VLOOKUP(results!E47,teams!B$2:C$69,2,FALSE),IF(results!G47=1,VLOOKUP(results!F47,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1372</v>
       </c>
       <c r="E47" s="13" t="str">
         <f>IF(results!G47=2,results!E47,IF(results!G47=1,results!F47,""))</f>
-        <v/>
+        <v>#14 SF Austin</v>
       </c>
       <c r="F47" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1323_1372</v>
       </c>
       <c r="G47" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H47" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1323_1372,1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -8612,33 +7836,33 @@
         <f>results!B42</f>
         <v>R2X4</v>
       </c>
-      <c r="B48" s="12" t="str">
+      <c r="B48" s="12">
         <f>IF(results!G48=1,VLOOKUP(results!E48,teams!B$2:C$69,2,FALSE),IF(results!G48=2,VLOOKUP(results!F48,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1393</v>
       </c>
       <c r="C48" s="13" t="str">
         <f>IF(results!G48=1,results!E48,IF(results!G48=2,results!F48,""))</f>
-        <v/>
-      </c>
-      <c r="D48" s="12" t="str">
+        <v>#10 Syracuse</v>
+      </c>
+      <c r="D48" s="12">
         <f>IF(results!G48=2,VLOOKUP(results!E48,teams!B$2:C$69,2,FALSE),IF(results!G48=1,VLOOKUP(results!F48,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1292</v>
       </c>
       <c r="E48" s="13" t="str">
         <f>IF(results!G48=2,results!E48,IF(results!G48=1,results!F48,""))</f>
-        <v/>
+        <v>#15 MTSU</v>
       </c>
       <c r="F48" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1292_1393</v>
       </c>
       <c r="G48" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H48" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1292_1393,0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -8646,33 +7870,33 @@
         <f>results!B52</f>
         <v>R2Z2</v>
       </c>
-      <c r="B49" s="12" t="str">
+      <c r="B49" s="12">
         <f>IF(results!G49=1,VLOOKUP(results!E49,teams!B$2:C$69,2,FALSE),IF(results!G49=2,VLOOKUP(results!F49,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1437</v>
       </c>
       <c r="C49" s="13" t="str">
         <f>IF(results!G49=1,results!E49,IF(results!G49=2,results!F49,""))</f>
-        <v/>
-      </c>
-      <c r="D49" s="12" t="str">
+        <v>#2 Villanova</v>
+      </c>
+      <c r="D49" s="12">
         <f>IF(results!G49=2,VLOOKUP(results!E49,teams!B$2:C$69,2,FALSE),IF(results!G49=1,VLOOKUP(results!F49,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1234</v>
       </c>
       <c r="E49" s="13" t="str">
         <f>IF(results!G49=2,results!E49,IF(results!G49=1,results!F49,""))</f>
-        <v/>
+        <v>#7 Iowa</v>
       </c>
       <c r="F49" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1234_1437</v>
       </c>
       <c r="G49" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H49" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1234_1437,0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -8680,33 +7904,33 @@
         <f>results!B53</f>
         <v>R2Z3</v>
       </c>
-      <c r="B50" s="12" t="str">
+      <c r="B50" s="12">
         <f>IF(results!G50=1,VLOOKUP(results!E50,teams!B$2:C$69,2,FALSE),IF(results!G50=2,VLOOKUP(results!F50,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1268</v>
       </c>
       <c r="C50" s="13" t="str">
         <f>IF(results!G50=1,results!E50,IF(results!G50=2,results!F50,""))</f>
-        <v/>
-      </c>
-      <c r="D50" s="12" t="str">
+        <v>#5 Maryland</v>
+      </c>
+      <c r="D50" s="12">
         <f>IF(results!G50=2,VLOOKUP(results!E50,teams!B$2:C$69,2,FALSE),IF(results!G50=1,VLOOKUP(results!F50,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1218</v>
       </c>
       <c r="E50" s="13" t="str">
         <f>IF(results!G50=2,results!E50,IF(results!G50=1,results!F50,""))</f>
-        <v/>
+        <v>#13 Hawaii</v>
       </c>
       <c r="F50" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1218_1268</v>
       </c>
       <c r="G50" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H50" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1218_1268,0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -8714,33 +7938,33 @@
         <f>results!B43</f>
         <v>R2Y1</v>
       </c>
-      <c r="B51" s="12" t="str">
+      <c r="B51" s="12">
         <f>IF(results!G51=1,VLOOKUP(results!E51,teams!B$2:C$69,2,FALSE),IF(results!G51=2,VLOOKUP(results!F51,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1332</v>
       </c>
       <c r="C51" s="13" t="str">
         <f>IF(results!G51=1,results!E51,IF(results!G51=2,results!F51,""))</f>
-        <v/>
-      </c>
-      <c r="D51" s="12" t="str">
+        <v>#1 Oregon</v>
+      </c>
+      <c r="D51" s="12">
         <f>IF(results!G51=2,VLOOKUP(results!E51,teams!B$2:C$69,2,FALSE),IF(results!G51=1,VLOOKUP(results!F51,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1386</v>
       </c>
       <c r="E51" s="13" t="str">
         <f>IF(results!G51=2,results!E51,IF(results!G51=1,results!F51,""))</f>
-        <v/>
+        <v>#8 St Joseph's PA</v>
       </c>
       <c r="F51" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1332_1386</v>
       </c>
       <c r="G51" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H51" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1332_1386,1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -8748,33 +7972,33 @@
         <f>results!B44</f>
         <v>R2Y3</v>
       </c>
-      <c r="B52" s="12" t="str">
+      <c r="B52" s="12">
         <f>IF(results!G52=1,VLOOKUP(results!E52,teams!B$2:C$69,2,FALSE),IF(results!G52=2,VLOOKUP(results!F52,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1328</v>
       </c>
       <c r="C52" s="13" t="str">
         <f>IF(results!G52=1,results!E52,IF(results!G52=2,results!F52,""))</f>
-        <v/>
-      </c>
-      <c r="D52" s="12" t="str">
+        <v>#2 Oklahoma</v>
+      </c>
+      <c r="D52" s="12">
         <f>IF(results!G52=2,VLOOKUP(results!E52,teams!B$2:C$69,2,FALSE),IF(results!G52=1,VLOOKUP(results!F52,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1433</v>
       </c>
       <c r="E52" s="13" t="str">
         <f>IF(results!G52=2,results!E52,IF(results!G52=1,results!F52,""))</f>
-        <v/>
+        <v>#10 VA Commonwealth</v>
       </c>
       <c r="F52" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1328_1433</v>
       </c>
       <c r="G52" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H52" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1328_1433,1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -8782,33 +8006,33 @@
         <f>results!B45</f>
         <v>R2Z4</v>
       </c>
-      <c r="B53" s="12" t="str">
+      <c r="B53" s="12">
         <f>IF(results!G53=1,VLOOKUP(results!E53,teams!B$2:C$69,2,FALSE),IF(results!G53=2,VLOOKUP(results!F53,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1401</v>
       </c>
       <c r="C53" s="13" t="str">
         <f>IF(results!G53=1,results!E53,IF(results!G53=2,results!F53,""))</f>
-        <v/>
-      </c>
-      <c r="D53" s="12" t="str">
+        <v>#3 Texas A&amp;M</v>
+      </c>
+      <c r="D53" s="12">
         <f>IF(results!G53=2,VLOOKUP(results!E53,teams!B$2:C$69,2,FALSE),IF(results!G53=1,VLOOKUP(results!F53,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1320</v>
       </c>
       <c r="E53" s="13" t="str">
         <f>IF(results!G53=2,results!E53,IF(results!G53=1,results!F53,""))</f>
-        <v/>
+        <v>#11 Northern Iowa</v>
       </c>
       <c r="F53" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1320_1401</v>
       </c>
       <c r="G53" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H53" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1320_1401,0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -9422,7 +8646,7 @@
       </c>
       <c r="C6">
         <f>results!O6</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9436,7 +8660,7 @@
       </c>
       <c r="C7">
         <f>results!O7</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9450,7 +8674,7 @@
       </c>
       <c r="C8">
         <f>results!O8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9464,7 +8688,7 @@
       </c>
       <c r="C9">
         <f>results!O9</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9478,7 +8702,7 @@
       </c>
       <c r="C10">
         <f>results!O10</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9492,7 +8716,7 @@
       </c>
       <c r="C11">
         <f>results!O11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9506,7 +8730,7 @@
       </c>
       <c r="C12">
         <f>results!O12</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9520,7 +8744,7 @@
       </c>
       <c r="C13">
         <f>results!O13</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9534,7 +8758,7 @@
       </c>
       <c r="C14">
         <f>results!O14</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9548,7 +8772,7 @@
       </c>
       <c r="C15">
         <f>results!O15</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9562,7 +8786,7 @@
       </c>
       <c r="C16">
         <f>results!O16</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9576,7 +8800,7 @@
       </c>
       <c r="C17">
         <f>results!O17</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9590,7 +8814,7 @@
       </c>
       <c r="C18">
         <f>results!O18</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9604,7 +8828,7 @@
       </c>
       <c r="C19">
         <f>results!O19</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9618,7 +8842,7 @@
       </c>
       <c r="C20">
         <f>results!O20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9632,7 +8856,7 @@
       </c>
       <c r="C21">
         <f>results!O21</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9646,7 +8870,7 @@
       </c>
       <c r="C22">
         <f>results!O22</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9660,7 +8884,7 @@
       </c>
       <c r="C23">
         <f>results!O23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9674,7 +8898,7 @@
       </c>
       <c r="C24">
         <f>results!O24</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9688,7 +8912,7 @@
       </c>
       <c r="C25">
         <f>results!O25</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9702,7 +8926,7 @@
       </c>
       <c r="C26">
         <f>results!O26</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9716,7 +8940,7 @@
       </c>
       <c r="C27">
         <f>results!O27</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9730,7 +8954,7 @@
       </c>
       <c r="C28">
         <f>results!O28</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9744,7 +8968,7 @@
       </c>
       <c r="C29">
         <f>results!O29</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9758,7 +8982,7 @@
       </c>
       <c r="C30">
         <f>results!O30</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9772,7 +8996,7 @@
       </c>
       <c r="C31">
         <f>results!O31</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9786,7 +9010,7 @@
       </c>
       <c r="C32">
         <f>results!O32</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9800,7 +9024,7 @@
       </c>
       <c r="C33">
         <f>results!O33</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -9814,7 +9038,7 @@
       </c>
       <c r="C34">
         <f>results!O34</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9828,7 +9052,7 @@
       </c>
       <c r="C35">
         <f>results!O35</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9838,11 +9062,11 @@
       </c>
       <c r="B36" t="str">
         <f>results!N36</f>
-        <v>2016_1221_1333</v>
+        <v>2016_1333_1433</v>
       </c>
       <c r="C36">
         <f>results!O36</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9856,7 +9080,7 @@
       </c>
       <c r="C37">
         <f>results!O37</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9866,11 +9090,11 @@
       </c>
       <c r="B38" t="str">
         <f>results!N38</f>
-        <v/>
+        <v>2016_1314_1344</v>
       </c>
       <c r="C38">
         <f>results!O38</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9880,11 +9104,11 @@
       </c>
       <c r="B39" t="str">
         <f>results!N39</f>
-        <v/>
+        <v>2016_1231_1246</v>
       </c>
       <c r="C39">
         <f>results!O39</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9894,11 +9118,11 @@
       </c>
       <c r="B40" t="str">
         <f>results!N40</f>
-        <v/>
+        <v>2016_1139_1438</v>
       </c>
       <c r="C40">
         <f>results!O40</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9908,11 +9132,11 @@
       </c>
       <c r="B41" t="str">
         <f>results!N41</f>
-        <v/>
+        <v>2016_1211_1428</v>
       </c>
       <c r="C41">
         <f>results!O41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9922,11 +9146,11 @@
       </c>
       <c r="B42" t="str">
         <f>results!N42</f>
-        <v/>
+        <v>2016_1114_1235</v>
       </c>
       <c r="C42">
         <f>results!O42</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9936,11 +9160,11 @@
       </c>
       <c r="B43" t="str">
         <f>results!N43</f>
-        <v/>
+        <v>2016_1163_1242</v>
       </c>
       <c r="C43">
         <f>results!O43</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9950,11 +9174,11 @@
       </c>
       <c r="B44" t="str">
         <f>results!N44</f>
-        <v/>
+        <v>2016_1274_1455</v>
       </c>
       <c r="C44">
         <f>results!O44</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9964,11 +9188,11 @@
       </c>
       <c r="B45" t="str">
         <f>results!N45</f>
-        <v/>
+        <v>2016_1181_1463</v>
       </c>
       <c r="C45">
         <f>results!O45</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9978,11 +9202,11 @@
       </c>
       <c r="B46" t="str">
         <f>results!N46</f>
-        <v/>
+        <v>2016_1458_1462</v>
       </c>
       <c r="C46">
         <f>results!O46</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9992,11 +9216,11 @@
       </c>
       <c r="B47" t="str">
         <f>results!N47</f>
-        <v/>
+        <v>2016_1323_1372</v>
       </c>
       <c r="C47">
         <f>results!O47</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10006,11 +9230,11 @@
       </c>
       <c r="B48" t="str">
         <f>results!N48</f>
-        <v/>
+        <v>2016_1292_1393</v>
       </c>
       <c r="C48">
         <f>results!O48</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -10020,11 +9244,11 @@
       </c>
       <c r="B49" t="str">
         <f>results!N49</f>
-        <v/>
+        <v>2016_1234_1437</v>
       </c>
       <c r="C49">
         <f>results!O49</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -10034,11 +9258,11 @@
       </c>
       <c r="B50" t="str">
         <f>results!N50</f>
-        <v/>
+        <v>2016_1218_1268</v>
       </c>
       <c r="C50">
         <f>results!O50</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10048,11 +9272,11 @@
       </c>
       <c r="B51" t="str">
         <f>results!N51</f>
-        <v/>
+        <v>2016_1332_1386</v>
       </c>
       <c r="C51">
         <f>results!O51</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10062,11 +9286,11 @@
       </c>
       <c r="B52" t="str">
         <f>results!N52</f>
-        <v/>
+        <v>2016_1328_1433</v>
       </c>
       <c r="C52">
         <f>results!O52</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -10076,11 +9300,11 @@
       </c>
       <c r="B53" t="str">
         <f>results!N53</f>
-        <v/>
+        <v>2016_1320_1401</v>
       </c>
       <c r="C53">
         <f>results!O53</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -10090,7 +9314,7 @@
       </c>
       <c r="B54" t="str">
         <f>results!N54</f>
-        <v/>
+        <v>2016_1242_1268</v>
       </c>
       <c r="C54">
         <f>results!O54</f>
@@ -10104,7 +9328,7 @@
       </c>
       <c r="B55" t="str">
         <f>results!N55</f>
-        <v/>
+        <v>2016_1274_1437</v>
       </c>
       <c r="C55">
         <f>results!O55</f>
@@ -10118,7 +9342,7 @@
       </c>
       <c r="B56" t="str">
         <f>results!N56</f>
-        <v/>
+        <v>2016_1181_1332</v>
       </c>
       <c r="C56">
         <f>results!O56</f>
@@ -10132,7 +9356,7 @@
       </c>
       <c r="B57" t="str">
         <f>results!N57</f>
-        <v/>
+        <v>2016_1328_1401</v>
       </c>
       <c r="C57">
         <f>results!O57</f>
@@ -10146,7 +9370,7 @@
       </c>
       <c r="B58" t="str">
         <f>results!N58</f>
-        <v/>
+        <v>2016_1231_1314</v>
       </c>
       <c r="C58">
         <f>results!O58</f>
@@ -10160,7 +9384,7 @@
       </c>
       <c r="B59" t="str">
         <f>results!N59</f>
-        <v/>
+        <v>2016_1323_1458</v>
       </c>
       <c r="C59">
         <f>results!O59</f>
@@ -10174,7 +9398,7 @@
       </c>
       <c r="B60" t="str">
         <f>results!N60</f>
-        <v/>
+        <v>2016_1235_1438</v>
       </c>
       <c r="C60">
         <f>results!O60</f>
@@ -10188,7 +9412,7 @@
       </c>
       <c r="B61" t="str">
         <f>results!N61</f>
-        <v/>
+        <v>2016_1211_1393</v>
       </c>
       <c r="C61">
         <f>results!O61</f>

--- a/tourney_results.xlsx
+++ b/tourney_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30080" windowHeight="24700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -1564,7 +1564,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4245,10 +4247,12 @@
         <f>VLOOKUP(D54,$B$6:$H53,7,FALSE)</f>
         <v>#5 Maryland</v>
       </c>
-      <c r="G54" s="20"/>
+      <c r="G54" s="20">
+        <v>1</v>
+      </c>
       <c r="H54" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
+        <v>#1 Kansas</v>
       </c>
       <c r="J54" s="6">
         <f>IFERROR(VLOOKUP(E54,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4268,7 +4272,7 @@
       </c>
       <c r="O54" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="39"/>
     </row>
@@ -4293,10 +4297,12 @@
         <f>VLOOKUP(D55,$B$6:$H54,7,FALSE)</f>
         <v>#3 Miami FL</v>
       </c>
-      <c r="G55" s="14"/>
+      <c r="G55" s="14">
+        <v>1</v>
+      </c>
       <c r="H55" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
+        <v>#2 Villanova</v>
       </c>
       <c r="J55" s="6">
         <f>IFERROR(VLOOKUP(E55,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4316,7 +4322,7 @@
       </c>
       <c r="O55" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="39"/>
     </row>
@@ -4341,10 +4347,12 @@
         <f>VLOOKUP(D56,$B$6:$H55,7,FALSE)</f>
         <v>#4 Duke</v>
       </c>
-      <c r="G56" s="14"/>
+      <c r="G56" s="14">
+        <v>1</v>
+      </c>
       <c r="H56" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
+        <v>#1 Oregon</v>
       </c>
       <c r="J56" s="6">
         <f>IFERROR(VLOOKUP(E56,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4364,7 +4372,7 @@
       </c>
       <c r="O56" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="39"/>
     </row>
@@ -4389,10 +4397,12 @@
         <f>VLOOKUP(D57,$B$6:$H56,7,FALSE)</f>
         <v>#3 Texas A&amp;M</v>
       </c>
-      <c r="G57" s="14"/>
+      <c r="G57" s="14">
+        <v>1</v>
+      </c>
       <c r="H57" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
+        <v>#2 Oklahoma</v>
       </c>
       <c r="J57" s="6">
         <f>IFERROR(VLOOKUP(E57,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4412,7 +4422,7 @@
       </c>
       <c r="O57" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="39"/>
     </row>
@@ -4437,10 +4447,12 @@
         <f>VLOOKUP(D58,$B$6:$H57,7,FALSE)</f>
         <v>#5 Indiana</v>
       </c>
-      <c r="G58" s="14"/>
+      <c r="G58" s="14">
+        <v>1</v>
+      </c>
       <c r="H58" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
+        <v>#1 North Carolina</v>
       </c>
       <c r="J58" s="6">
         <f>IFERROR(VLOOKUP(E58,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4460,7 +4472,7 @@
       </c>
       <c r="O58" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="39"/>
     </row>
@@ -4485,10 +4497,12 @@
         <f>VLOOKUP(D59,$B$6:$H58,7,FALSE)</f>
         <v>#6 Notre Dame</v>
       </c>
-      <c r="G59" s="14"/>
+      <c r="G59" s="14">
+        <v>2</v>
+      </c>
       <c r="H59" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
+        <v>#6 Notre Dame</v>
       </c>
       <c r="J59" s="6">
         <f>IFERROR(VLOOKUP(E59,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4508,7 +4522,7 @@
       </c>
       <c r="O59" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="39"/>
     </row>
@@ -4533,10 +4547,12 @@
         <f>VLOOKUP(D60,$B$6:$H59,7,FALSE)</f>
         <v>#4 Iowa St</v>
       </c>
-      <c r="G60" s="14"/>
+      <c r="G60" s="14">
+        <v>1</v>
+      </c>
       <c r="H60" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
+        <v>#1 Virginia</v>
       </c>
       <c r="J60" s="6">
         <f>IFERROR(VLOOKUP(E60,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4556,7 +4572,7 @@
       </c>
       <c r="O60" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="39"/>
     </row>
@@ -4581,10 +4597,12 @@
         <f>VLOOKUP(D61,$B$6:$H60,7,FALSE)</f>
         <v>#11 Gonzaga</v>
       </c>
-      <c r="G61" s="17"/>
+      <c r="G61" s="17">
+        <v>1</v>
+      </c>
       <c r="H61" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
+        <v>#10 Syracuse</v>
       </c>
       <c r="J61" s="6">
         <f>IFERROR(VLOOKUP(E61,teams!$B$2:$C$69,2,FALSE),"")</f>
@@ -4604,7 +4622,7 @@
       </c>
       <c r="O61" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="39"/>
     </row>
@@ -4623,24 +4641,26 @@
       </c>
       <c r="E62" s="19" t="str">
         <f>VLOOKUP(C62,$B$6:$H61,7,FALSE)</f>
-        <v>TBD</v>
+        <v>#1 Kansas</v>
       </c>
       <c r="F62" s="19" t="str">
         <f>VLOOKUP(D62,$B$6:$H61,7,FALSE)</f>
-        <v>TBD</v>
-      </c>
-      <c r="G62" s="20"/>
+        <v>#2 Villanova</v>
+      </c>
+      <c r="G62" s="20">
+        <v>2</v>
+      </c>
       <c r="H62" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
-      </c>
-      <c r="J62" s="6" t="str">
+        <v>#2 Villanova</v>
+      </c>
+      <c r="J62" s="6">
         <f>IFERROR(VLOOKUP(E62,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K62" s="6" t="str">
+        <v>1242</v>
+      </c>
+      <c r="K62" s="6">
         <f>IFERROR(VLOOKUP(F62,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1437</v>
       </c>
       <c r="M62" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4648,11 +4668,11 @@
       </c>
       <c r="N62" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2016_1242_1437</v>
       </c>
       <c r="O62" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="39"/>
     </row>
@@ -4671,24 +4691,26 @@
       </c>
       <c r="E63" s="5" t="str">
         <f>VLOOKUP(C63,$B$6:$H62,7,FALSE)</f>
-        <v>TBD</v>
+        <v>#1 Oregon</v>
       </c>
       <c r="F63" s="5" t="str">
         <f>VLOOKUP(D63,$B$6:$H62,7,FALSE)</f>
-        <v>TBD</v>
-      </c>
-      <c r="G63" s="14"/>
+        <v>#2 Oklahoma</v>
+      </c>
+      <c r="G63" s="14">
+        <v>2</v>
+      </c>
       <c r="H63" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
-      </c>
-      <c r="J63" s="6" t="str">
+        <v>#2 Oklahoma</v>
+      </c>
+      <c r="J63" s="6">
         <f>IFERROR(VLOOKUP(E63,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K63" s="6" t="str">
+        <v>1332</v>
+      </c>
+      <c r="K63" s="6">
         <f>IFERROR(VLOOKUP(F63,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1328</v>
       </c>
       <c r="M63" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4696,11 +4718,11 @@
       </c>
       <c r="N63" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2016_1328_1332</v>
       </c>
       <c r="O63" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="39"/>
     </row>
@@ -4719,24 +4741,26 @@
       </c>
       <c r="E64" s="5" t="str">
         <f>VLOOKUP(C64,$B$6:$H63,7,FALSE)</f>
-        <v>TBD</v>
+        <v>#1 North Carolina</v>
       </c>
       <c r="F64" s="5" t="str">
         <f>VLOOKUP(D64,$B$6:$H63,7,FALSE)</f>
-        <v>TBD</v>
-      </c>
-      <c r="G64" s="14"/>
+        <v>#6 Notre Dame</v>
+      </c>
+      <c r="G64" s="14">
+        <v>1</v>
+      </c>
       <c r="H64" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
-      </c>
-      <c r="J64" s="6" t="str">
+        <v>#1 North Carolina</v>
+      </c>
+      <c r="J64" s="6">
         <f>IFERROR(VLOOKUP(E64,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K64" s="6" t="str">
+        <v>1314</v>
+      </c>
+      <c r="K64" s="6">
         <f>IFERROR(VLOOKUP(F64,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1323</v>
       </c>
       <c r="M64" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4744,11 +4768,11 @@
       </c>
       <c r="N64" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2016_1314_1323</v>
       </c>
       <c r="O64" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="39"/>
     </row>
@@ -4767,24 +4791,26 @@
       </c>
       <c r="E65" s="16" t="str">
         <f>VLOOKUP(C65,$B$6:$H64,7,FALSE)</f>
-        <v>TBD</v>
+        <v>#1 Virginia</v>
       </c>
       <c r="F65" s="16" t="str">
         <f>VLOOKUP(D65,$B$6:$H64,7,FALSE)</f>
-        <v>TBD</v>
-      </c>
-      <c r="G65" s="17"/>
+        <v>#10 Syracuse</v>
+      </c>
+      <c r="G65" s="17">
+        <v>2</v>
+      </c>
       <c r="H65" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
-      </c>
-      <c r="J65" s="6" t="str">
+        <v>#10 Syracuse</v>
+      </c>
+      <c r="J65" s="6">
         <f>IFERROR(VLOOKUP(E65,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K65" s="6" t="str">
+        <v>1438</v>
+      </c>
+      <c r="K65" s="6">
         <f>IFERROR(VLOOKUP(F65,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1393</v>
       </c>
       <c r="M65" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4792,11 +4818,11 @@
       </c>
       <c r="N65" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2016_1393_1438</v>
       </c>
       <c r="O65" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="39"/>
     </row>
@@ -4815,24 +4841,26 @@
       </c>
       <c r="E66" s="19" t="str">
         <f>VLOOKUP(C66,$B$6:$H65,7,FALSE)</f>
-        <v>TBD</v>
+        <v>#1 North Carolina</v>
       </c>
       <c r="F66" s="19" t="str">
         <f>VLOOKUP(D66,$B$6:$H65,7,FALSE)</f>
-        <v>TBD</v>
-      </c>
-      <c r="G66" s="20"/>
+        <v>#10 Syracuse</v>
+      </c>
+      <c r="G66" s="20">
+        <v>1</v>
+      </c>
       <c r="H66" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
-      </c>
-      <c r="J66" s="6" t="str">
+        <v>#1 North Carolina</v>
+      </c>
+      <c r="J66" s="6">
         <f>IFERROR(VLOOKUP(E66,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K66" s="6" t="str">
+        <v>1314</v>
+      </c>
+      <c r="K66" s="6">
         <f>IFERROR(VLOOKUP(F66,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1393</v>
       </c>
       <c r="M66" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4840,11 +4868,11 @@
       </c>
       <c r="N66" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2016_1314_1393</v>
       </c>
       <c r="O66" s="6">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="39"/>
     </row>
@@ -4863,24 +4891,26 @@
       </c>
       <c r="E67" s="16" t="str">
         <f>VLOOKUP(C67,$B$6:$H66,7,FALSE)</f>
-        <v>TBD</v>
+        <v>#2 Villanova</v>
       </c>
       <c r="F67" s="16" t="str">
         <f>VLOOKUP(D67,$B$6:$H66,7,FALSE)</f>
-        <v>TBD</v>
-      </c>
-      <c r="G67" s="17"/>
+        <v>#2 Oklahoma</v>
+      </c>
+      <c r="G67" s="17">
+        <v>1</v>
+      </c>
       <c r="H67" s="29" t="str">
         <f t="shared" ref="H67:H68" si="4">IF(G67=1,E67,IF(G67=2,F67,"TBD"))</f>
-        <v>TBD</v>
-      </c>
-      <c r="J67" s="6" t="str">
+        <v>#2 Villanova</v>
+      </c>
+      <c r="J67" s="6">
         <f>IFERROR(VLOOKUP(E67,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K67" s="6" t="str">
+        <v>1437</v>
+      </c>
+      <c r="K67" s="6">
         <f>IFERROR(VLOOKUP(F67,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1328</v>
       </c>
       <c r="M67" s="6" t="str">
         <f t="shared" ref="M67:M68" si="5">B67</f>
@@ -4888,11 +4918,11 @@
       </c>
       <c r="N67" s="6" t="str">
         <f t="shared" ref="N67:N68" si="6">IF(AND(J67&lt;&gt;"",K67&lt;&gt;""),IF(J67&lt;K67,"2016_"&amp;J67&amp;"_"&amp;K67,"2016_"&amp;K67&amp;"_"&amp;J67),"")</f>
-        <v/>
+        <v>2016_1328_1437</v>
       </c>
       <c r="O67" s="6">
         <f t="shared" ref="O67:O68" si="7">IFERROR(IF(TEXT(INDEX(J67:K67,1,G67),"0")=MID(N67,6,4),1,0),-1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="39"/>
     </row>
@@ -4911,24 +4941,26 @@
       </c>
       <c r="E68" s="34" t="str">
         <f>VLOOKUP(C68,$B$6:$H67,7,FALSE)</f>
-        <v>TBD</v>
+        <v>#1 North Carolina</v>
       </c>
       <c r="F68" s="34" t="str">
         <f>VLOOKUP(D68,$B$6:$H67,7,FALSE)</f>
-        <v>TBD</v>
-      </c>
-      <c r="G68" s="37"/>
+        <v>#2 Villanova</v>
+      </c>
+      <c r="G68" s="37">
+        <v>2</v>
+      </c>
       <c r="H68" s="35" t="str">
         <f t="shared" si="4"/>
-        <v>TBD</v>
-      </c>
-      <c r="J68" s="6" t="str">
+        <v>#2 Villanova</v>
+      </c>
+      <c r="J68" s="6">
         <f>IFERROR(VLOOKUP(E68,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K68" s="6" t="str">
+        <v>1314</v>
+      </c>
+      <c r="K68" s="6">
         <f>IFERROR(VLOOKUP(F68,teams!$B$2:$C$69,2,FALSE),"")</f>
-        <v/>
+        <v>1437</v>
       </c>
       <c r="M68" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4936,11 +4968,11 @@
       </c>
       <c r="N68" s="6" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2016_1314_1437</v>
       </c>
       <c r="O68" s="6">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="39"/>
     </row>
@@ -8040,33 +8072,33 @@
         <f>results!B58</f>
         <v>R3W1</v>
       </c>
-      <c r="B54" s="12" t="str">
+      <c r="B54" s="12">
         <f>IF(results!G54=1,VLOOKUP(results!E54,teams!B$2:C$69,2,FALSE),IF(results!G54=2,VLOOKUP(results!F54,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1242</v>
       </c>
       <c r="C54" s="13" t="str">
         <f>IF(results!G54=1,results!E54,IF(results!G54=2,results!F54,""))</f>
-        <v/>
-      </c>
-      <c r="D54" s="12" t="str">
+        <v>#1 Kansas</v>
+      </c>
+      <c r="D54" s="12">
         <f>IF(results!G54=2,VLOOKUP(results!E54,teams!B$2:C$69,2,FALSE),IF(results!G54=1,VLOOKUP(results!F54,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1268</v>
       </c>
       <c r="E54" s="13" t="str">
         <f>IF(results!G54=2,results!E54,IF(results!G54=1,results!F54,""))</f>
-        <v/>
+        <v>#5 Maryland</v>
       </c>
       <c r="F54" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1242_1268</v>
       </c>
       <c r="G54" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H54" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1242_1268,1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -8074,33 +8106,33 @@
         <f>results!B59</f>
         <v>R3W2</v>
       </c>
-      <c r="B55" s="12" t="str">
+      <c r="B55" s="12">
         <f>IF(results!G55=1,VLOOKUP(results!E55,teams!B$2:C$69,2,FALSE),IF(results!G55=2,VLOOKUP(results!F55,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1437</v>
       </c>
       <c r="C55" s="13" t="str">
         <f>IF(results!G55=1,results!E55,IF(results!G55=2,results!F55,""))</f>
-        <v/>
-      </c>
-      <c r="D55" s="12" t="str">
+        <v>#2 Villanova</v>
+      </c>
+      <c r="D55" s="12">
         <f>IF(results!G55=2,VLOOKUP(results!E55,teams!B$2:C$69,2,FALSE),IF(results!G55=1,VLOOKUP(results!F55,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1274</v>
       </c>
       <c r="E55" s="13" t="str">
         <f>IF(results!G55=2,results!E55,IF(results!G55=1,results!F55,""))</f>
-        <v/>
+        <v>#3 Miami FL</v>
       </c>
       <c r="F55" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1274_1437</v>
       </c>
       <c r="G55" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H55" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1274_1437,0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -8108,33 +8140,33 @@
         <f>results!B60</f>
         <v>R3X1</v>
       </c>
-      <c r="B56" s="12" t="str">
+      <c r="B56" s="12">
         <f>IF(results!G56=1,VLOOKUP(results!E56,teams!B$2:C$69,2,FALSE),IF(results!G56=2,VLOOKUP(results!F56,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1332</v>
       </c>
       <c r="C56" s="13" t="str">
         <f>IF(results!G56=1,results!E56,IF(results!G56=2,results!F56,""))</f>
-        <v/>
-      </c>
-      <c r="D56" s="12" t="str">
+        <v>#1 Oregon</v>
+      </c>
+      <c r="D56" s="12">
         <f>IF(results!G56=2,VLOOKUP(results!E56,teams!B$2:C$69,2,FALSE),IF(results!G56=1,VLOOKUP(results!F56,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1181</v>
       </c>
       <c r="E56" s="13" t="str">
         <f>IF(results!G56=2,results!E56,IF(results!G56=1,results!F56,""))</f>
-        <v/>
+        <v>#4 Duke</v>
       </c>
       <c r="F56" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1181_1332</v>
       </c>
       <c r="G56" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H56" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1181_1332,0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -8142,33 +8174,33 @@
         <f>results!B61</f>
         <v>R3X2</v>
       </c>
-      <c r="B57" s="12" t="str">
+      <c r="B57" s="12">
         <f>IF(results!G57=1,VLOOKUP(results!E57,teams!B$2:C$69,2,FALSE),IF(results!G57=2,VLOOKUP(results!F57,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1328</v>
       </c>
       <c r="C57" s="13" t="str">
         <f>IF(results!G57=1,results!E57,IF(results!G57=2,results!F57,""))</f>
-        <v/>
-      </c>
-      <c r="D57" s="12" t="str">
+        <v>#2 Oklahoma</v>
+      </c>
+      <c r="D57" s="12">
         <f>IF(results!G57=2,VLOOKUP(results!E57,teams!B$2:C$69,2,FALSE),IF(results!G57=1,VLOOKUP(results!F57,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1401</v>
       </c>
       <c r="E57" s="13" t="str">
         <f>IF(results!G57=2,results!E57,IF(results!G57=1,results!F57,""))</f>
-        <v/>
+        <v>#3 Texas A&amp;M</v>
       </c>
       <c r="F57" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1328_1401</v>
       </c>
       <c r="G57" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H57" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1328_1401,1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -8176,33 +8208,33 @@
         <f>results!B54</f>
         <v>R3Y1</v>
       </c>
-      <c r="B58" s="12" t="str">
+      <c r="B58" s="12">
         <f>IF(results!G58=1,VLOOKUP(results!E58,teams!B$2:C$69,2,FALSE),IF(results!G58=2,VLOOKUP(results!F58,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1314</v>
       </c>
       <c r="C58" s="13" t="str">
         <f>IF(results!G58=1,results!E58,IF(results!G58=2,results!F58,""))</f>
-        <v/>
-      </c>
-      <c r="D58" s="12" t="str">
+        <v>#1 North Carolina</v>
+      </c>
+      <c r="D58" s="12">
         <f>IF(results!G58=2,VLOOKUP(results!E58,teams!B$2:C$69,2,FALSE),IF(results!G58=1,VLOOKUP(results!F58,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1231</v>
       </c>
       <c r="E58" s="13" t="str">
         <f>IF(results!G58=2,results!E58,IF(results!G58=1,results!F58,""))</f>
-        <v/>
+        <v>#5 Indiana</v>
       </c>
       <c r="F58" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1231_1314</v>
       </c>
       <c r="G58" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H58" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1231_1314,0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -8210,33 +8242,33 @@
         <f>results!B55</f>
         <v>R3Y2</v>
       </c>
-      <c r="B59" s="12" t="str">
+      <c r="B59" s="12">
         <f>IF(results!G59=1,VLOOKUP(results!E59,teams!B$2:C$69,2,FALSE),IF(results!G59=2,VLOOKUP(results!F59,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1323</v>
       </c>
       <c r="C59" s="13" t="str">
         <f>IF(results!G59=1,results!E59,IF(results!G59=2,results!F59,""))</f>
-        <v/>
-      </c>
-      <c r="D59" s="12" t="str">
+        <v>#6 Notre Dame</v>
+      </c>
+      <c r="D59" s="12">
         <f>IF(results!G59=2,VLOOKUP(results!E59,teams!B$2:C$69,2,FALSE),IF(results!G59=1,VLOOKUP(results!F59,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1458</v>
       </c>
       <c r="E59" s="13" t="str">
         <f>IF(results!G59=2,results!E59,IF(results!G59=1,results!F59,""))</f>
-        <v/>
+        <v>#7 Wisconsin</v>
       </c>
       <c r="F59" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1323_1458</v>
       </c>
       <c r="G59" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H59" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1323_1458,1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -8244,33 +8276,33 @@
         <f>results!B56</f>
         <v>R3Z1</v>
       </c>
-      <c r="B60" s="12" t="str">
+      <c r="B60" s="12">
         <f>IF(results!G60=1,VLOOKUP(results!E60,teams!B$2:C$69,2,FALSE),IF(results!G60=2,VLOOKUP(results!F60,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1438</v>
       </c>
       <c r="C60" s="13" t="str">
         <f>IF(results!G60=1,results!E60,IF(results!G60=2,results!F60,""))</f>
-        <v/>
-      </c>
-      <c r="D60" s="12" t="str">
+        <v>#1 Virginia</v>
+      </c>
+      <c r="D60" s="12">
         <f>IF(results!G60=2,VLOOKUP(results!E60,teams!B$2:C$69,2,FALSE),IF(results!G60=1,VLOOKUP(results!F60,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1235</v>
       </c>
       <c r="E60" s="13" t="str">
         <f>IF(results!G60=2,results!E60,IF(results!G60=1,results!F60,""))</f>
-        <v/>
+        <v>#4 Iowa St</v>
       </c>
       <c r="F60" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1235_1438</v>
       </c>
       <c r="G60" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H60" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1235_1438,0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -8278,33 +8310,33 @@
         <f>results!B57</f>
         <v>R3Z2</v>
       </c>
-      <c r="B61" s="12" t="str">
+      <c r="B61" s="12">
         <f>IF(results!G61=1,VLOOKUP(results!E61,teams!B$2:C$69,2,FALSE),IF(results!G61=2,VLOOKUP(results!F61,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1393</v>
       </c>
       <c r="C61" s="13" t="str">
         <f>IF(results!G61=1,results!E61,IF(results!G61=2,results!F61,""))</f>
-        <v/>
-      </c>
-      <c r="D61" s="12" t="str">
+        <v>#10 Syracuse</v>
+      </c>
+      <c r="D61" s="12">
         <f>IF(results!G61=2,VLOOKUP(results!E61,teams!B$2:C$69,2,FALSE),IF(results!G61=1,VLOOKUP(results!F61,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1211</v>
       </c>
       <c r="E61" s="13" t="str">
         <f>IF(results!G61=2,results!E61,IF(results!G61=1,results!F61,""))</f>
-        <v/>
+        <v>#11 Gonzaga</v>
       </c>
       <c r="F61" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1211_1393</v>
       </c>
       <c r="G61" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H61" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1211_1393,0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -8312,33 +8344,33 @@
         <f>results!B64</f>
         <v>R4W1</v>
       </c>
-      <c r="B62" s="12" t="str">
+      <c r="B62" s="12">
         <f>IF(results!G62=1,VLOOKUP(results!E62,teams!B$2:C$69,2,FALSE),IF(results!G62=2,VLOOKUP(results!F62,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1437</v>
       </c>
       <c r="C62" s="13" t="str">
         <f>IF(results!G62=1,results!E62,IF(results!G62=2,results!F62,""))</f>
-        <v/>
-      </c>
-      <c r="D62" s="12" t="str">
+        <v>#2 Villanova</v>
+      </c>
+      <c r="D62" s="12">
         <f>IF(results!G62=2,VLOOKUP(results!E62,teams!B$2:C$69,2,FALSE),IF(results!G62=1,VLOOKUP(results!F62,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1242</v>
       </c>
       <c r="E62" s="13" t="str">
         <f>IF(results!G62=2,results!E62,IF(results!G62=1,results!F62,""))</f>
-        <v/>
+        <v>#1 Kansas</v>
       </c>
       <c r="F62" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1242_1437</v>
       </c>
       <c r="G62" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H62" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1242_1437,0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -8346,33 +8378,33 @@
         <f>results!B65</f>
         <v>R4X1</v>
       </c>
-      <c r="B63" s="12" t="str">
+      <c r="B63" s="12">
         <f>IF(results!G63=1,VLOOKUP(results!E63,teams!B$2:C$69,2,FALSE),IF(results!G63=2,VLOOKUP(results!F63,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1328</v>
       </c>
       <c r="C63" s="13" t="str">
         <f>IF(results!G63=1,results!E63,IF(results!G63=2,results!F63,""))</f>
-        <v/>
-      </c>
-      <c r="D63" s="12" t="str">
+        <v>#2 Oklahoma</v>
+      </c>
+      <c r="D63" s="12">
         <f>IF(results!G63=2,VLOOKUP(results!E63,teams!B$2:C$69,2,FALSE),IF(results!G63=1,VLOOKUP(results!F63,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1332</v>
       </c>
       <c r="E63" s="13" t="str">
         <f>IF(results!G63=2,results!E63,IF(results!G63=1,results!F63,""))</f>
-        <v/>
+        <v>#1 Oregon</v>
       </c>
       <c r="F63" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1328_1332</v>
       </c>
       <c r="G63" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H63" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1328_1332,1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -8380,33 +8412,33 @@
         <f>results!B62</f>
         <v>R4Y1</v>
       </c>
-      <c r="B64" s="12" t="str">
+      <c r="B64" s="12">
         <f>IF(results!G64=1,VLOOKUP(results!E64,teams!B$2:C$69,2,FALSE),IF(results!G64=2,VLOOKUP(results!F64,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1314</v>
       </c>
       <c r="C64" s="13" t="str">
         <f>IF(results!G64=1,results!E64,IF(results!G64=2,results!F64,""))</f>
-        <v/>
-      </c>
-      <c r="D64" s="12" t="str">
+        <v>#1 North Carolina</v>
+      </c>
+      <c r="D64" s="12">
         <f>IF(results!G64=2,VLOOKUP(results!E64,teams!B$2:C$69,2,FALSE),IF(results!G64=1,VLOOKUP(results!F64,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1323</v>
       </c>
       <c r="E64" s="13" t="str">
         <f>IF(results!G64=2,results!E64,IF(results!G64=1,results!F64,""))</f>
-        <v/>
+        <v>#6 Notre Dame</v>
       </c>
       <c r="F64" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1314_1323</v>
       </c>
       <c r="G64" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H64" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1314_1323,1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -8414,33 +8446,33 @@
         <f>results!B63</f>
         <v>R4Z1</v>
       </c>
-      <c r="B65" s="12" t="str">
+      <c r="B65" s="12">
         <f>IF(results!G65=1,VLOOKUP(results!E65,teams!B$2:C$69,2,FALSE),IF(results!G65=2,VLOOKUP(results!F65,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1393</v>
       </c>
       <c r="C65" s="13" t="str">
         <f>IF(results!G65=1,results!E65,IF(results!G65=2,results!F65,""))</f>
-        <v/>
-      </c>
-      <c r="D65" s="12" t="str">
+        <v>#10 Syracuse</v>
+      </c>
+      <c r="D65" s="12">
         <f>IF(results!G65=2,VLOOKUP(results!E65,teams!B$2:C$69,2,FALSE),IF(results!G65=1,VLOOKUP(results!F65,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1438</v>
       </c>
       <c r="E65" s="13" t="str">
         <f>IF(results!G65=2,results!E65,IF(results!G65=1,results!F65,""))</f>
-        <v/>
+        <v>#1 Virginia</v>
       </c>
       <c r="F65" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1393_1438</v>
       </c>
       <c r="G65" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H65" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1393_1438,1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -8448,33 +8480,33 @@
         <f>results!B66</f>
         <v>R5WX</v>
       </c>
-      <c r="B66" s="12" t="str">
+      <c r="B66" s="12">
         <f>IF(results!G66=1,VLOOKUP(results!E66,teams!B$2:C$69,2,FALSE),IF(results!G66=2,VLOOKUP(results!F66,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1314</v>
       </c>
       <c r="C66" s="13" t="str">
         <f>IF(results!G66=1,results!E66,IF(results!G66=2,results!F66,""))</f>
-        <v/>
-      </c>
-      <c r="D66" s="12" t="str">
+        <v>#1 North Carolina</v>
+      </c>
+      <c r="D66" s="12">
         <f>IF(results!G66=2,VLOOKUP(results!E66,teams!B$2:C$69,2,FALSE),IF(results!G66=1,VLOOKUP(results!F66,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1393</v>
       </c>
       <c r="E66" s="13" t="str">
         <f>IF(results!G66=2,results!E66,IF(results!G66=1,results!F66,""))</f>
-        <v/>
+        <v>#10 Syracuse</v>
       </c>
       <c r="F66" s="13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2015_1314_1393</v>
       </c>
       <c r="G66" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H66" s="13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2015_1314_1393,1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -8482,33 +8514,33 @@
         <f>results!B67</f>
         <v>R5YZ</v>
       </c>
-      <c r="B67" s="12" t="str">
+      <c r="B67" s="12">
         <f>IF(results!G67=1,VLOOKUP(results!E67,teams!B$2:C$69,2,FALSE),IF(results!G67=2,VLOOKUP(results!F67,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1437</v>
       </c>
       <c r="C67" s="13" t="str">
         <f>IF(results!G67=1,results!E67,IF(results!G67=2,results!F67,""))</f>
-        <v/>
-      </c>
-      <c r="D67" s="12" t="str">
+        <v>#2 Villanova</v>
+      </c>
+      <c r="D67" s="12">
         <f>IF(results!G67=2,VLOOKUP(results!E67,teams!B$2:C$69,2,FALSE),IF(results!G67=1,VLOOKUP(results!F67,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1328</v>
       </c>
       <c r="E67" s="13" t="str">
         <f>IF(results!G67=2,results!E67,IF(results!G67=1,results!F67,""))</f>
-        <v/>
+        <v>#2 Oklahoma</v>
       </c>
       <c r="F67" s="13" t="str">
         <f t="shared" ref="F67:F68" si="6">IF(B67=D67,"",IF(B67&lt;D67,"2015_"&amp;B67&amp;"_"&amp;D67,"2015_"&amp;D67&amp;"_"&amp;B67))</f>
-        <v/>
+        <v>2015_1328_1437</v>
       </c>
       <c r="G67" s="13" t="str">
         <f t="shared" ref="G67:G68" si="7">IF(B67=D67,"",IF(B67&lt;D67,"1","0"))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H67" s="13" t="str">
         <f t="shared" ref="H67:H68" si="8">IF(B67=D67,"",IF(B67&lt;D67,"2015_"&amp;B67&amp;"_"&amp;D67&amp;",1","2015_"&amp;D67&amp;"_"&amp;B67&amp;",0"))</f>
-        <v/>
+        <v>2015_1328_1437,0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -8516,33 +8548,33 @@
         <f>results!B68</f>
         <v>R6CH</v>
       </c>
-      <c r="B68" s="12" t="str">
+      <c r="B68" s="12">
         <f>IF(results!G68=1,VLOOKUP(results!E68,teams!B$2:C$69,2,FALSE),IF(results!G68=2,VLOOKUP(results!F68,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1437</v>
       </c>
       <c r="C68" s="13" t="str">
         <f>IF(results!G68=1,results!E68,IF(results!G68=2,results!F68,""))</f>
-        <v/>
-      </c>
-      <c r="D68" s="12" t="str">
+        <v>#2 Villanova</v>
+      </c>
+      <c r="D68" s="12">
         <f>IF(results!G68=2,VLOOKUP(results!E68,teams!B$2:C$69,2,FALSE),IF(results!G68=1,VLOOKUP(results!F68,teams!B$2:C$69,2,FALSE),""))</f>
-        <v/>
+        <v>1314</v>
       </c>
       <c r="E68" s="13" t="str">
         <f>IF(results!G68=2,results!E68,IF(results!G68=1,results!F68,""))</f>
-        <v/>
+        <v>#1 North Carolina</v>
       </c>
       <c r="F68" s="13" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2015_1314_1437</v>
       </c>
       <c r="G68" s="13" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H68" s="13" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>2015_1314_1437,0</v>
       </c>
     </row>
   </sheetData>
@@ -9318,7 +9350,7 @@
       </c>
       <c r="C54">
         <f>results!O54</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -9332,7 +9364,7 @@
       </c>
       <c r="C55">
         <f>results!O55</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -9346,7 +9378,7 @@
       </c>
       <c r="C56">
         <f>results!O56</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -9360,7 +9392,7 @@
       </c>
       <c r="C57">
         <f>results!O57</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -9374,7 +9406,7 @@
       </c>
       <c r="C58">
         <f>results!O58</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -9388,7 +9420,7 @@
       </c>
       <c r="C59">
         <f>results!O59</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -9402,7 +9434,7 @@
       </c>
       <c r="C60">
         <f>results!O60</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -9416,7 +9448,7 @@
       </c>
       <c r="C61">
         <f>results!O61</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -9426,11 +9458,11 @@
       </c>
       <c r="B62" t="str">
         <f>results!N62</f>
-        <v/>
+        <v>2016_1242_1437</v>
       </c>
       <c r="C62">
         <f>results!O62</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -9440,11 +9472,11 @@
       </c>
       <c r="B63" t="str">
         <f>results!N63</f>
-        <v/>
+        <v>2016_1328_1332</v>
       </c>
       <c r="C63">
         <f>results!O63</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -9454,11 +9486,11 @@
       </c>
       <c r="B64" t="str">
         <f>results!N64</f>
-        <v/>
+        <v>2016_1314_1323</v>
       </c>
       <c r="C64">
         <f>results!O64</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -9468,11 +9500,11 @@
       </c>
       <c r="B65" t="str">
         <f>results!N65</f>
-        <v/>
+        <v>2016_1393_1438</v>
       </c>
       <c r="C65">
         <f>results!O65</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -9482,11 +9514,11 @@
       </c>
       <c r="B66" t="str">
         <f>results!N66</f>
-        <v/>
+        <v>2016_1314_1393</v>
       </c>
       <c r="C66">
         <f>results!O66</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -9496,11 +9528,11 @@
       </c>
       <c r="B67" t="str">
         <f>results!N67</f>
-        <v/>
+        <v>2016_1328_1437</v>
       </c>
       <c r="C67">
         <f>results!O67</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -9510,11 +9542,11 @@
       </c>
       <c r="B68" t="str">
         <f>results!N68</f>
-        <v/>
+        <v>2016_1314_1437</v>
       </c>
       <c r="C68">
         <f>results!O68</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
